--- a/gd/数值规划/成长数值相关/功能开放及引导初稿.xlsx
+++ b/gd/数值规划/成长数值相关/功能开放及引导初稿.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="90" windowWidth="28530" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="450" yWindow="-90" windowWidth="28425" windowHeight="12870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数值向功能投放" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,54 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="O56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>标准时间  145</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O94" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+标准时间  300</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="394">
   <si>
     <t>设计之前</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -770,10 +811,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>友情开放,直接添加系统好友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多个弱点BOSS登场,提示照妖镜的使用,引导破坏BOSS两个弱点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,10 +819,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡结算,升至3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,10 +891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关卡结算升级至5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>防御宠物蛋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -886,19 +915,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开启日常任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启签到功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss战增加难度,如果未攻击弱点则死亡1只宠物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家操作宠物上阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1021,10 +1038,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关于战斗速度的理解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>难度开始提升,出现可以进行自愈的敌人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1117,10 +1130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商店会定时刷新物品,包括宠物碎片X3,宝石粘合剂,经验丹,装备进阶材料,宝箱钥匙等物品.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商店购买的东西会比商城定价要便宜一些.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1145,10 +1154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日常任务结算至8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>副本结束后升级至9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1158,10 +1163,6 @@
   </si>
   <si>
     <t>分解合成功能---宠物分解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到系统开启</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1223,18 +1224,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>体验大冒险和相关付费功能.一次大冒险消耗1点/小时的体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基于之前的教学,给予一个相关的BOSS,如洛新妇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特点能够区分怪物的特征,攻速快怪物攻击伤害低,攻速慢怪攻击伤害高,(技能调节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>升级至11级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1268,10 +1261,6 @@
   </si>
   <si>
     <t>困难副本三次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1411,10 +1400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新玩法,突出交互设计的玩法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩法对应货币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1431,18 +1416,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18~19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公会和组队副本玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开放公会玩法,公会定义需要待定如果为竞技类型玩法如魔灵工会战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提示关3次该BOSS点副本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1476,18 +1453,6 @@
   </si>
   <si>
     <t>组队事件玩法——关卡多样性，产出不唯一，为物品居多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔为物理免疫/魔法免疫不同的关卡玩法，关卡的产出也不相同，分一周单日和双日来区分。周日则两个副本同时开放，每个副本单独记录次数，不可重置次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物经验和消耗的金钱梯度提升，开放通天塔。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理免疫产出经验药水，金钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1500,14 +1465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好友系统，默认推荐一批好友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续的副本玩法，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主线任务要求收集5个的宠物升阶材料,通过刷困难副本和普通BOSS点可以得到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1529,10 +1486,6 @@
   </si>
   <si>
     <t>等级经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21~25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1549,14 +1502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通天塔—BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加深数值难度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加获取梯度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1565,10 +1510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有概率获得完整宠物，大量宠物碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>常规手游世界BOSS玩法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1618,6 +1559,215 @@
   </si>
   <si>
     <t>完成关于眩晕,昏睡等控制技能的了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店会定时刷新物品,包括宠物碎片X3,宝石粘合剂,经验丹,装备进阶材料,宝箱钥匙等物品,(活力道具).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备养成功能开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示指引签到系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到奖励,奖励金钱(七日签到)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间设定以战斗为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指引穿戴方式,下次将提示自动穿戴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指引任务获得新装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家操作宠物上阵,在关卡准备界面弹出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点能够区分怪物的特征,攻速快怪物攻击伤害低,攻速慢怪攻击伤害高,(技能调节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于战斗速度的理解,先手后手的重要性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启自动战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次重复后,开启扫荡功能(三星后才能进行扫荡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC商店,
+通过对话介绍商店,内置刷新按钮由玩家自己发现并使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章剧情点对话.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首冲奖励提醒,月卡提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOT与HOT的生效时机,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启宠物进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶教学,材料不饱和,仅满足一只进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启日常任务
+对应完成,签到任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验大冒险和相关付费功能.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬塔玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首通H1-8获得大招击晕怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导打开背包,开启新手毕业奖励----</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强怪物难度陡坡,引导玩家知道宝石重要性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续的副本玩法，大概5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS降临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物性格引导,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物性格改变药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~4战斗结束后,开启宠物性格引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次能打到10关(20级强度)(25级强度将产生坡度,塔10层)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导宝石功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶引导,装备有一件进阶到蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导刷副本获得装备强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有概率获得完整宠物，大量宠物碎片
+引导方式为指引点开界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放公会玩法,公会定义需要待定如果为竞技类型玩法如魔灵工会战
+引导布置防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加通天塔玩法,根据当天的周次来判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~4
+H3~4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充玩法(养成向)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1625,7 +1775,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1759,14 +1909,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1774,8 +1916,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1791,6 +1948,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2007,7 +2170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2071,41 +2234,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2113,159 +2243,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2283,6 +2278,208 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3278,6 +3475,44 @@
           </cell>
           <cell r="N112">
             <v>54</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="副本时间模板"/>
+      <sheetName val="疲劳值，副本开启时间"/>
+      <sheetName val="升级时间曲线"/>
+      <sheetName val="副本玩点分布"/>
+      <sheetName val="投放控制方法"/>
+      <sheetName val="参考"/>
+      <sheetName val="Q&amp;A"/>
+      <sheetName val="玩家历程（未完成）"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="26">
+          <cell r="G26">
+            <v>10.984738803621603</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="P27">
+            <v>8.0309236294931274</v>
           </cell>
         </row>
       </sheetData>
@@ -3594,11 +3829,11 @@
         <v>52</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -3688,7 +3923,7 @@
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="61" t="s">
         <v>134</v>
       </c>
       <c r="L3" s="7"/>
@@ -3732,7 +3967,7 @@
       <c r="J4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="34"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="7"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -3776,7 +4011,7 @@
       <c r="J5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="34"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="7"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3818,7 +4053,7 @@
       <c r="J6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="7"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3860,7 +4095,7 @@
       <c r="J7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="7"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3901,7 +4136,7 @@
         <v>75</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="60" t="s">
         <v>126</v>
       </c>
       <c r="K8" s="7"/>
@@ -3943,7 +4178,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="33"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="1"/>
@@ -3983,7 +4218,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="33"/>
+      <c r="J10" s="60"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="1"/>
@@ -6098,7 +6333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
@@ -6513,7 +6748,7 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="AB13" s="30" t="s">
+      <c r="AB13" s="62" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6539,11 +6774,11 @@
       <c r="R14" t="s">
         <v>30</v>
       </c>
-      <c r="AB14" s="30"/>
+      <c r="AB14" s="62"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="L15" t="s">
         <v>39</v>
@@ -6572,7 +6807,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="L16">
         <v>8</v>
@@ -6603,7 +6838,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
@@ -6636,7 +6871,7 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="J18" t="s">
         <v>33</v>
@@ -6829,7 +7064,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="31">
+      <c r="B31" s="63">
         <v>1</v>
       </c>
       <c r="D31">
@@ -6862,7 +7097,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="31"/>
+      <c r="B32" s="63"/>
       <c r="D32">
         <v>1</v>
       </c>
@@ -6879,7 +7114,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="31"/>
+      <c r="B33" s="63"/>
       <c r="D33">
         <v>1</v>
       </c>
@@ -6896,7 +7131,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="31"/>
+      <c r="B34" s="63"/>
       <c r="D34">
         <v>1</v>
       </c>
@@ -6924,7 +7159,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="31"/>
+      <c r="B35" s="63"/>
       <c r="D35">
         <v>1</v>
       </c>
@@ -6952,7 +7187,7 @@
       </c>
     </row>
     <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="31"/>
+      <c r="B36" s="63"/>
       <c r="D36">
         <v>1</v>
       </c>
@@ -6980,7 +7215,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="31"/>
+      <c r="B37" s="63"/>
       <c r="D37">
         <v>1</v>
       </c>
@@ -7008,7 +7243,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="31"/>
+      <c r="B38" s="63"/>
       <c r="D38">
         <v>1</v>
       </c>
@@ -7036,7 +7271,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="31">
+      <c r="B39" s="63">
         <v>2</v>
       </c>
       <c r="C39">
@@ -7073,7 +7308,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="31"/>
+      <c r="B40" s="63"/>
       <c r="C40">
         <v>3</v>
       </c>
@@ -7100,7 +7335,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="31"/>
+      <c r="B41" s="63"/>
       <c r="C41">
         <v>4</v>
       </c>
@@ -7127,7 +7362,7 @@
       </c>
     </row>
     <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="31"/>
+      <c r="B42" s="63"/>
       <c r="C42">
         <v>5</v>
       </c>
@@ -7150,7 +7385,7 @@
       </c>
     </row>
     <row r="43" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="31"/>
+      <c r="B43" s="63"/>
       <c r="D43">
         <v>1</v>
       </c>
@@ -7170,7 +7405,7 @@
       </c>
     </row>
     <row r="44" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="31"/>
+      <c r="B44" s="63"/>
       <c r="D44">
         <v>1</v>
       </c>
@@ -7186,7 +7421,7 @@
       </c>
     </row>
     <row r="45" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="31"/>
+      <c r="B45" s="63"/>
       <c r="D45">
         <v>1</v>
       </c>
@@ -7202,7 +7437,7 @@
       </c>
     </row>
     <row r="46" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="31"/>
+      <c r="B46" s="63"/>
       <c r="D46">
         <v>1</v>
       </c>
@@ -7435,31 +7670,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC133"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O72" sqref="O72"/>
+      <selection pane="bottomRight" activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="32.625" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="26.625" customWidth="1"/>
+    <col min="18" max="18" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="32.625" customWidth="1"/>
+    <col min="22" max="22" width="11" hidden="1" customWidth="1"/>
+    <col min="23" max="28" width="9" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>135</v>
       </c>
@@ -7476,184 +7714,223 @@
         <v>138</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G1" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="21" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>159</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="R1" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="T1" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="U1" s="70" t="s">
-        <v>311</v>
-      </c>
-      <c r="V1" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="W1" s="70" t="s">
-        <v>357</v>
-      </c>
-      <c r="X1" s="70" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y1" s="70" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35">
+      <c r="U1" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB1" s="34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="98">
         <v>1</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="78">
         <v>1</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="98">
         <v>1</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>179</v>
+      <c r="D2" s="101" t="s">
+        <v>177</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>140</v>
       </c>
       <c r="F2" s="12"/>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="21"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="N2" s="12">
+        <v>2</v>
+      </c>
+      <c r="O2" s="12">
+        <f>SUM($N$2:N2)</f>
+        <v>2</v>
+      </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
-      <c r="T2">
-        <f>SUM($S$2:S2)</f>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2">
+        <f>SUM($V$2:V2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="53"/>
+    <row r="3" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="99"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="20"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="N3" s="83">
+        <v>1</v>
+      </c>
+      <c r="O3" s="12">
+        <f>SUM($N$2:N3)</f>
+        <v>3</v>
+      </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
-      <c r="T3">
-        <f>SUM($S$2:S3)</f>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3">
+        <f>SUM($V$2:V3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="53"/>
+    <row r="4" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="99"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="G4" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="22"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="12">
+        <f>SUM($N$2:N4)</f>
+        <v>3</v>
+      </c>
       <c r="P4" s="12"/>
-      <c r="Q4" s="12" t="s">
-        <v>198</v>
-      </c>
+      <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
-      <c r="T4">
-        <f>SUM($S$2:S4)</f>
+      <c r="T4" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4">
+        <f>SUM($V$2:V4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="53"/>
+    <row r="5" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="99"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
+      <c r="G5" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="20"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="N5" s="12">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12">
+        <f>SUM($N$2:N5)</f>
+        <v>4</v>
+      </c>
       <c r="P5" s="12"/>
-      <c r="Q5" s="12" t="s">
-        <v>197</v>
-      </c>
+      <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-      <c r="T5">
-        <f>SUM($S$2:S5)</f>
+      <c r="T5" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5">
+        <f>SUM($V$2:V5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="36"/>
+    <row r="6" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="99"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="99"/>
       <c r="D6" s="23" t="s">
         <v>142</v>
       </c>
@@ -7663,33 +7940,41 @@
       <c r="F6" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="G6" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
       <c r="L6" s="21"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
+      <c r="N6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="12">
+        <f>SUM($N$2:N6)</f>
+        <v>4.5</v>
+      </c>
       <c r="P6" s="16"/>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6">
-        <f>SUM($S$2:S6)</f>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6">
+        <f>SUM($V$2:V6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="52" t="s">
+    <row r="7" spans="1:29" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="99"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="101" t="s">
         <v>143</v>
       </c>
       <c r="E7" s="12">
@@ -7698,163 +7983,195 @@
       <c r="F7" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
+      <c r="G7" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="20"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="49" t="s">
-        <v>189</v>
+      <c r="N7" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O7" s="12">
+        <f>SUM($N$2:N7)</f>
+        <v>6.8</v>
       </c>
       <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7">
-        <f>SUM($S$2:S7)</f>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="S7" s="16"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7">
+        <f>SUM($V$2:V7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="58"/>
+    <row r="8" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="99"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="12">
         <v>3</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="G8" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="21"/>
       <c r="M8" s="16"/>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="12">
+        <v>2</v>
+      </c>
+      <c r="O8" s="12">
+        <f>SUM($N$2:N8)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="O8" s="49"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="109">
+      <c r="R8" s="104"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="53">
         <v>6</v>
       </c>
-      <c r="T8" s="101">
-        <f>SUM($S$2:S8)</f>
+      <c r="W8" s="45">
+        <f>SUM($V$2:V8)</f>
         <v>6</v>
       </c>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102">
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46">
         <v>20</v>
       </c>
-      <c r="W8" s="102">
+      <c r="Z8" s="46">
         <v>6</v>
       </c>
-      <c r="X8" s="103">
+      <c r="AA8" s="47">
         <v>20</v>
       </c>
-      <c r="Y8" s="4">
-        <f>SUM($V$8:W8)</f>
+      <c r="AB8" s="4">
+        <f>SUM($Y$8:Z8)</f>
         <v>26</v>
       </c>
-      <c r="Z8">
-        <f>SUM($X$8:X8)</f>
+      <c r="AC8">
+        <f>SUM($AA$8:AA8)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="51"/>
+    <row r="9" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="99"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="14" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
+      <c r="G9" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
       <c r="L9" s="26"/>
       <c r="M9" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12">
+        <f>SUM($N$2:N9)</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="104">
-        <f>SUM($S$2:S9)</f>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="48">
+        <f>SUM($V$2:V9)</f>
         <v>6</v>
       </c>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="105"/>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="44">
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="100"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="82">
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+        <v>205</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="21"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
+      <c r="N10" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="12">
+        <f>SUM($N$2:N10)</f>
+        <v>10.3</v>
+      </c>
       <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="17"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="106">
-        <f>SUM($S$2:S10)</f>
+      <c r="S10" s="16"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="50">
+        <f>SUM($V$2:V10)</f>
         <v>6</v>
       </c>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="47">
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="4"/>
+    </row>
+    <row r="11" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="78">
         <v>2</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="14" t="s">
         <v>149</v>
       </c>
@@ -7862,118 +8179,143 @@
         <v>140</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
+      <c r="G11" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69"/>
       <c r="L11" s="20"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="17"/>
+      <c r="N11" s="13">
+        <v>2</v>
+      </c>
+      <c r="O11" s="12">
+        <f>SUM($N$2:N11)</f>
+        <v>12.3</v>
+      </c>
       <c r="P11" s="13"/>
-      <c r="Q11" s="17"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="17"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="101">
-        <f>SUM($S$2:S11)</f>
+      <c r="S11" s="13"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="45">
+        <f>SUM($V$2:V11)</f>
         <v>6</v>
       </c>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="52" t="s">
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="4"/>
+    </row>
+    <row r="12" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="101" t="s">
         <v>143</v>
       </c>
       <c r="E12" s="12">
         <v>1</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
       <c r="L12" s="22"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="40"/>
+      <c r="N12" s="12">
+        <f>[2]升级时间曲线!$P$27-SUM(N8:N11)</f>
+        <v>2.5309236294931274</v>
+      </c>
+      <c r="O12" s="12">
+        <f>SUM($N$2:N12)</f>
+        <v>14.830923629493128</v>
+      </c>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="104">
-        <f>SUM($S$2:S12)</f>
+      <c r="R12" s="75"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="48">
+        <f>SUM($V$2:V12)</f>
         <v>6</v>
       </c>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="105"/>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="58"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="4"/>
+    </row>
+    <row r="13" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="12">
         <v>3</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="G13" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
       <c r="L13" s="20"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="40"/>
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12">
+        <f>SUM($N$2:N13)</f>
+        <v>15.830923629493128</v>
+      </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="104">
-        <f>SUM($S$2:S13)</f>
+      <c r="R13" s="75"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="48">
+        <f>SUM($V$2:V13)</f>
         <v>6</v>
       </c>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68">
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32">
         <v>20</v>
       </c>
-      <c r="W13" s="68">
+      <c r="Z13" s="32">
         <v>6</v>
       </c>
-      <c r="X13" s="105">
+      <c r="AA13" s="49">
         <v>30</v>
       </c>
-      <c r="Y13" s="4">
-        <f>SUM($V$8:W13)</f>
+      <c r="AB13" s="4">
+        <f>SUM($Y$8:Z13)</f>
         <v>52</v>
       </c>
-      <c r="Z13">
-        <f>SUM($X$8:X13)</f>
+      <c r="AC13">
+        <f>SUM($AA$8:AA13)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="46"/>
+    <row r="14" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="14" t="s">
         <v>147</v>
       </c>
@@ -7981,39 +8323,49 @@
         <v>150</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="G14" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
       <c r="L14" s="21"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="N14" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="O14" s="12">
+        <f>SUM($N$2:N14)</f>
+        <v>16.170923629493128</v>
+      </c>
+      <c r="P14" s="12">
+        <v>20</v>
+      </c>
       <c r="Q14" s="12"/>
-      <c r="R14" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="S14" s="100">
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="V14" s="44">
         <v>6</v>
       </c>
-      <c r="T14" s="104">
-        <f>SUM($S$2:S14)</f>
+      <c r="W14" s="48">
+        <f>SUM($V$2:V14)</f>
         <v>12</v>
       </c>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="44">
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="82">
         <v>3</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -8021,35 +8373,43 @@
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="G15" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
       <c r="L15" s="21"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="N15" s="12">
+        <v>1</v>
+      </c>
+      <c r="O15" s="12">
+        <f>SUM($N$2:N15)</f>
+        <v>17.170923629493128</v>
+      </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="104">
-        <f>SUM($S$2:S15)</f>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="48">
+        <f>SUM($V$2:V15)</f>
         <v>12</v>
       </c>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="45"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="14" t="s">
         <v>145</v>
       </c>
@@ -8057,3283 +8417,4235 @@
         <v>1</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="G16" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
       <c r="L16" s="21"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12" t="s">
+      <c r="N16" s="12">
+        <f>2.78</f>
+        <v>2.78</v>
+      </c>
+      <c r="O16" s="12">
+        <f>SUM($N$2:N16)</f>
+        <v>19.950923629493129</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="P16" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="106">
-        <f>SUM($S$2:S16)</f>
+      <c r="S16" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="50">
+        <f>SUM($V$2:V16)</f>
         <v>12</v>
       </c>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="47">
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="78">
         <v>3</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="14" t="s">
         <v>154</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
+      <c r="G17" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="69"/>
       <c r="L17" s="21"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="Q17" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="S17" s="100">
+      <c r="N17" s="12">
+        <v>2</v>
+      </c>
+      <c r="O17" s="12">
+        <f>SUM($N$2:N17)</f>
+        <v>21.950923629493129</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="T17" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="V17" s="44">
         <v>6</v>
       </c>
-      <c r="T17" s="101">
-        <f>SUM($S$2:S17)</f>
+      <c r="W17" s="45">
+        <f>SUM($V$2:V17)</f>
         <v>18</v>
       </c>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="44">
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="82">
         <v>4</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+        <v>186</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
       <c r="L18" s="20"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="N18" s="12">
+        <v>2</v>
+      </c>
+      <c r="O18" s="12">
+        <f>SUM($N$2:N18)</f>
+        <v>23.950923629493129</v>
+      </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" t="s">
-        <v>330</v>
-      </c>
-      <c r="S18" s="100"/>
-      <c r="T18" s="104">
-        <f>SUM($S$2:S18)</f>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" t="s">
+        <v>314</v>
+      </c>
+      <c r="V18" s="44"/>
+      <c r="W18" s="48">
+        <f>SUM($V$2:V18)</f>
         <v>18</v>
       </c>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68">
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32">
         <v>35</v>
       </c>
-      <c r="W18" s="68">
+      <c r="Z18" s="32">
         <v>6</v>
       </c>
-      <c r="X18" s="105">
+      <c r="AA18" s="49">
         <v>40</v>
       </c>
-      <c r="Y18" s="4">
-        <f>SUM($V$8:W18)</f>
+      <c r="AB18" s="4">
+        <f>SUM($Y$8:Z18)</f>
         <v>93</v>
       </c>
-      <c r="Z18">
-        <f>SUM($X$8:X18)</f>
+      <c r="AC18">
+        <f>SUM($AA$8:AA18)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="45"/>
+    <row r="19" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="14" t="s">
         <v>142</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="G19" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
       <c r="L19" s="21"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="N19" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O19" s="12">
+        <f>SUM($N$2:N19)</f>
+        <v>24.650923629493128</v>
+      </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="104">
-        <f>SUM($S$2:S19)</f>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="48">
+        <f>SUM($V$2:V19)</f>
         <v>18</v>
       </c>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="45"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="14" t="s">
         <v>143</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
       <c r="L20" s="21"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>178</v>
-      </c>
+      <c r="N20" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="O20" s="12">
+        <f>SUM($N$2:N20)</f>
+        <v>27.75092362949313</v>
+      </c>
+      <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="104">
-        <f>SUM($S$2:S20)</f>
+      <c r="R20" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="48">
+        <f>SUM($V$2:V20)</f>
         <v>18</v>
       </c>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="14" t="s">
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="82" t="s">
         <v>147</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="21" t="s">
-        <v>281</v>
-      </c>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="N21" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="O21" s="12">
+        <f>SUM($N$2:N21)</f>
+        <v>27.850923629493131</v>
+      </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="100">
+      <c r="S21" s="16"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="12">
+        <f>SUM($N$2:N22)</f>
+        <v>28.350923629493131</v>
+      </c>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="U22" s="12"/>
+      <c r="V22" s="44">
         <v>6</v>
       </c>
-      <c r="T21" s="106">
-        <f>SUM($S$2:S21)</f>
+      <c r="W22" s="50">
+        <f>SUM($V$2:V22)</f>
         <v>24</v>
       </c>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="47">
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="78">
         <v>4</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="35">
+      <c r="B23" s="78"/>
+      <c r="C23" s="82">
         <v>5</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="R22" s="12"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="104">
-        <f>SUM($S$2:S22)</f>
-        <v>24</v>
-      </c>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="105"/>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="14" t="s">
-        <v>143</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+        <v>181</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
       <c r="L23" s="21"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="N23" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O23" s="12">
+        <f>SUM($N$2:N23)</f>
+        <v>28.650923629493132</v>
+      </c>
+      <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="104">
-        <f>SUM($S$2:S23)</f>
+      <c r="S23" s="12"/>
+      <c r="T23" t="s">
+        <v>352</v>
+      </c>
+      <c r="U23" s="12"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="48">
+        <f>SUM($V$2:V23)</f>
         <v>24</v>
       </c>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68">
-        <v>35</v>
-      </c>
-      <c r="W23" s="68">
-        <v>6</v>
-      </c>
-      <c r="X23" s="105">
-        <v>50</v>
-      </c>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="51"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="F24" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
       <c r="L24" s="21"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="16"/>
+      <c r="N24" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="O24" s="12">
+        <f>SUM($N$2:N24)</f>
+        <v>32.150923629493136</v>
+      </c>
+      <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="100">
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="48">
+        <f>SUM($V$2:V24)</f>
+        <v>24</v>
+      </c>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32">
+        <v>35</v>
+      </c>
+      <c r="Z24" s="32">
         <v>6</v>
       </c>
-      <c r="T24" s="104">
-        <f>SUM($S$2:S24)</f>
-        <v>30</v>
-      </c>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="50">
-        <v>6</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>165</v>
+      <c r="AA24" s="49">
+        <v>50</v>
+      </c>
+      <c r="AB24" s="4"/>
+    </row>
+    <row r="25" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="82" t="s">
+        <v>147</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
       <c r="L25" s="21"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
+      <c r="O25" s="12">
+        <f>SUM($N$2:N25)</f>
+        <v>32.150923629493136</v>
+      </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="106">
-        <f>SUM($S$2:S25)</f>
+      <c r="S25" s="16"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="44">
+        <v>6</v>
+      </c>
+      <c r="W25" s="48">
+        <f>SUM($V$2:V25)</f>
         <v>30</v>
       </c>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107">
-        <v>6</v>
-      </c>
-      <c r="X25" s="108"/>
-      <c r="Y25" s="4">
-        <f>SUM($V$8:W25)</f>
-        <v>140</v>
-      </c>
-      <c r="Z25">
-        <f>SUM($X$8:X25)</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="47">
-        <v>5</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="28" t="s">
-        <v>166</v>
-      </c>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="21"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
+      <c r="N26" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="O26" s="12">
+        <f>SUM($N$2:N26)</f>
+        <v>32.550923629493134</v>
+      </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="101">
-        <f>SUM($S$2:S26)</f>
-        <v>30</v>
-      </c>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="28" t="s">
-        <v>167</v>
+      <c r="S26" s="57"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="4"/>
+    </row>
+    <row r="27" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="105">
+        <v>6</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
       <c r="L27" s="21"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
+      <c r="N27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O27" s="12">
+        <f>SUM($N$2:N27)</f>
+        <v>33.050923629493134</v>
+      </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="100">
+      <c r="S27" t="s">
+        <v>351</v>
+      </c>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="50">
+        <f>SUM($V$2:V27)</f>
+        <v>30</v>
+      </c>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51">
         <v>6</v>
       </c>
-      <c r="T27" s="104">
-        <f>SUM($S$2:S27)</f>
-        <v>36</v>
-      </c>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="50">
-        <v>7</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>165</v>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="4">
+        <f>SUM($Y$8:Z27)</f>
+        <v>140</v>
+      </c>
+      <c r="AC27">
+        <f>SUM($AA$8:AA27)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="78">
+        <v>5</v>
+      </c>
+      <c r="B28" s="78"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
       <c r="L28" s="21"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
+      <c r="N28" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="O28" s="12">
+        <f>SUM($N$2:N28)</f>
+        <v>36.750923629493137</v>
+      </c>
       <c r="P28" s="12"/>
-      <c r="Q28" s="12" t="s">
-        <v>359</v>
-      </c>
+      <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="104">
-        <f>SUM($S$2:S28)</f>
-        <v>36</v>
-      </c>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68">
-        <v>6</v>
-      </c>
-      <c r="X28" s="105">
-        <v>60</v>
-      </c>
-      <c r="Y28" s="4"/>
-    </row>
-    <row r="29" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="28" t="s">
-        <v>166</v>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="45">
+        <f>SUM($V$2:V28)</f>
+        <v>30</v>
+      </c>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="4"/>
+    </row>
+    <row r="29" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="20"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="21"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
+      <c r="N29" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O29" s="12">
+        <f>SUM($N$2:N29)</f>
+        <v>37.050923629493134</v>
+      </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="104">
-        <f>SUM($S$2:S29)</f>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="44">
+        <v>6</v>
+      </c>
+      <c r="W29" s="48">
+        <f>SUM($V$2:V29)</f>
         <v>36</v>
       </c>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68">
-        <v>18</v>
-      </c>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="28" t="s">
-        <v>167</v>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="4"/>
+    </row>
+    <row r="30" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="78"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="105">
+        <v>7</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
       <c r="L30" s="21"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>338</v>
-      </c>
+      <c r="N30" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="O30" s="12">
+        <f>SUM($N$2:N30)</f>
+        <v>37.450923629493133</v>
+      </c>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
-      <c r="S30" s="100">
+      <c r="S30" s="12"/>
+      <c r="T30" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="U30" s="12"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="48">
+        <f>SUM($V$2:V30)</f>
+        <v>36</v>
+      </c>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32">
         <v>6</v>
       </c>
-      <c r="T30" s="106">
-        <f>SUM($S$2:S30)</f>
-        <v>42</v>
-      </c>
-      <c r="U30" s="107"/>
-      <c r="V30" s="107">
-        <v>40</v>
-      </c>
-      <c r="W30" s="107"/>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="4">
-        <f>SUM($V$8:W30)</f>
-        <v>204</v>
-      </c>
-      <c r="Z30">
-        <f>SUM($X$8:X30)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="47">
-        <v>6</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="50">
-        <v>8</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>165</v>
+      <c r="AA30" s="49">
+        <v>60</v>
+      </c>
+      <c r="AB30" s="4"/>
+    </row>
+    <row r="31" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="21"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="28"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
+      <c r="N31" s="12">
+        <v>4</v>
+      </c>
+      <c r="O31" s="12">
+        <f>SUM($N$2:N31)</f>
+        <v>41.450923629493133</v>
+      </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="101">
-        <f>SUM($S$2:S31)</f>
-        <v>42</v>
-      </c>
-      <c r="U31" s="102"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="4">
-        <f>SUM($V$8:W31)</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="28" t="s">
-        <v>166</v>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="4"/>
+    </row>
+    <row r="32" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="56" t="s">
+        <v>344</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="21"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="20"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12" t="s">
-        <v>204</v>
+      <c r="N32" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="O32" s="12">
+        <f>SUM($N$2:N32)</f>
+        <v>41.850923629493131</v>
+      </c>
+      <c r="P32" s="12">
+        <v>10</v>
       </c>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="104">
-        <f>SUM($S$2:S32)</f>
-        <v>42</v>
-      </c>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68">
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="48">
+        <f>SUM($V$2:V32)</f>
+        <v>36</v>
+      </c>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32">
+        <v>18</v>
+      </c>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="78">
         <v>6</v>
       </c>
-      <c r="X32" s="105">
-        <v>70</v>
-      </c>
-      <c r="Y32" s="4">
-        <f>SUM($V$8:W32)</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="28" t="s">
-        <v>167</v>
+      <c r="B33" s="78"/>
+      <c r="C33" s="105">
+        <v>8</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
+      <c r="G33" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
       <c r="L33" s="21"/>
-      <c r="M33" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q33" s="12" t="s">
-        <v>252</v>
-      </c>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O33" s="12">
+        <f>SUM($N$2:N33)</f>
+        <v>42.150923629493128</v>
+      </c>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
-      <c r="S33" s="100">
-        <v>6</v>
-      </c>
-      <c r="T33" s="106">
-        <f>SUM($S$2:S33)</f>
-        <v>48</v>
-      </c>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107">
-        <v>50</v>
-      </c>
-      <c r="W33" s="107"/>
-      <c r="X33" s="108"/>
-      <c r="Y33" s="4">
-        <f>SUM($U$7:W33)</f>
-        <v>260</v>
-      </c>
-      <c r="Z33">
-        <f>SUM($X$8:X33)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="47">
-        <v>7</v>
-      </c>
-      <c r="B34" s="47">
-        <v>2</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>180</v>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="45">
+        <f>SUM($V$2:V33)</f>
+        <v>36</v>
+      </c>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="4">
+        <f>SUM($Y$8:Z33)</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
+      <c r="G34" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
       <c r="L34" s="21"/>
       <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
+      <c r="N34" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="O34" s="12">
+        <f>SUM($N$2:N34)</f>
+        <v>46.650923629493128</v>
+      </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="101">
-        <f>SUM($S$2:S34)</f>
-        <v>48</v>
-      </c>
-      <c r="U34" s="102"/>
-      <c r="V34" s="102"/>
-      <c r="W34" s="102"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="4">
-        <f>SUM($U$7:W34)</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="72"/>
+      <c r="R34" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="48">
+        <f>SUM($V$2:V34)</f>
+        <v>36</v>
+      </c>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32">
+        <v>6</v>
+      </c>
+      <c r="AA34" s="49">
+        <v>70</v>
+      </c>
+      <c r="AB34" s="4">
+        <f>SUM($Y$8:Z34)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
+      <c r="G35" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="N35" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="O35" s="12">
+        <f>SUM($N$2:N35)</f>
+        <v>47.550923629493127</v>
+      </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
-      <c r="S35" s="100"/>
-      <c r="T35" s="104">
-        <f>SUM($S$2:S35)</f>
-        <v>48</v>
-      </c>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="105"/>
-      <c r="Y35" s="4">
-        <f>SUM($U$7:W35)</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="72"/>
+      <c r="S35" t="s">
+        <v>229</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="U35" s="12"/>
+      <c r="V35" s="44">
+        <v>6</v>
+      </c>
+      <c r="W35" s="50">
+        <f>SUM($V$2:V35)</f>
+        <v>42</v>
+      </c>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51">
+        <v>50</v>
+      </c>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="4">
+        <f>SUM($X$7:Z35)</f>
+        <v>220</v>
+      </c>
+      <c r="AC35">
+        <f>SUM($AA$8:AA35)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="78">
+        <v>7</v>
+      </c>
+      <c r="B36" s="78">
+        <v>2</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>271</v>
+      </c>
       <c r="D36" s="27" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="20"/>
+      <c r="G36" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="21"/>
       <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12" t="s">
-        <v>194</v>
+      <c r="N36" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="O36" s="12">
+        <f>SUM($N$2:N36)</f>
+        <v>47.650923629493128</v>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
-      <c r="S36" s="100"/>
-      <c r="T36" s="104">
-        <f>SUM($S$2:S36)</f>
-        <v>48</v>
-      </c>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="105"/>
-      <c r="Y36" s="4">
-        <f>SUM($U$7:W36)</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="72"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="45">
+        <f>SUM($V$2:V36)</f>
+        <v>42</v>
+      </c>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="4">
+        <f>SUM($X$7:Z36)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="78"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="27" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="39"/>
+      <c r="G37" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="69"/>
       <c r="L37" s="20"/>
       <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
+      <c r="N37" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O37" s="12">
+        <f>SUM($N$2:N37)</f>
+        <v>48.150923629493128</v>
+      </c>
       <c r="P37" s="12"/>
-      <c r="Q37" s="12" t="s">
-        <v>253</v>
-      </c>
+      <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
-      <c r="S37" s="100">
-        <v>6</v>
-      </c>
-      <c r="T37" s="104">
-        <f>SUM($S$2:S37)</f>
-        <v>54</v>
-      </c>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68">
-        <v>30</v>
-      </c>
-      <c r="W37" s="68">
-        <v>6</v>
-      </c>
-      <c r="X37" s="105">
-        <v>80</v>
-      </c>
-      <c r="Y37" s="4">
-        <f>SUM($U$7:W37)</f>
-        <v>296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="48" t="s">
-        <v>179</v>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="48">
+        <f>SUM($V$2:V37)</f>
+        <v>42</v>
+      </c>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="4">
+        <f>SUM($X$7:Z37)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="39"/>
+      <c r="G38" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="69"/>
       <c r="L38" s="20"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
+      <c r="N38" s="12">
+        <v>4</v>
+      </c>
+      <c r="O38" s="58">
+        <f>SUM($N$2:N38)</f>
+        <v>52.150923629493128</v>
+      </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="106">
-        <f>SUM($S$2:S38)</f>
-        <v>54</v>
-      </c>
-      <c r="U38" s="107">
-        <v>50</v>
-      </c>
-      <c r="V38" s="107"/>
-      <c r="W38" s="107"/>
-      <c r="X38" s="108"/>
-      <c r="Y38" s="4">
-        <f>SUM($U$7:W38)</f>
-        <v>346</v>
-      </c>
-      <c r="Z38">
-        <f>SUM($X$8:X38)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="47">
-        <v>8</v>
-      </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="48"/>
+      <c r="R38" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="48">
+        <f>SUM($V$2:V38)</f>
+        <v>42</v>
+      </c>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="4">
+        <f>SUM($X$7:Z38)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="27" t="s">
+        <v>191</v>
+      </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="21"/>
+      <c r="G39" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="20"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q39" s="12" t="s">
-        <v>254</v>
-      </c>
+      <c r="N39" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="O39" s="12">
+        <f>SUM($N$2:N39)</f>
+        <v>53.050923629493127</v>
+      </c>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
-      <c r="S39" s="100"/>
-      <c r="T39" s="101">
-        <f>SUM($S$2:S39)</f>
-        <v>54</v>
-      </c>
-      <c r="U39" s="102"/>
-      <c r="V39" s="102"/>
-      <c r="W39" s="102"/>
-      <c r="X39" s="103"/>
-    </row>
-    <row r="40" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>216</v>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="U39" s="12"/>
+      <c r="V39" s="44">
+        <v>6</v>
+      </c>
+      <c r="W39" s="48">
+        <f>SUM($V$2:V39)</f>
+        <v>48</v>
+      </c>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32">
+        <v>30</v>
+      </c>
+      <c r="Z39" s="32">
+        <v>6</v>
+      </c>
+      <c r="AA39" s="49">
+        <v>80</v>
+      </c>
+      <c r="AB39" s="4">
+        <f>SUM($X$7:Z39)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="39"/>
+      <c r="G40" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="69"/>
       <c r="L40" s="20"/>
       <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
+      <c r="N40" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="O40" s="12">
+        <f>SUM($N$2:N40)</f>
+        <v>53.850923629493124</v>
+      </c>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
-      <c r="S40" s="100"/>
-      <c r="T40" s="104">
-        <f>SUM($S$2:S40)</f>
-        <v>54</v>
-      </c>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="105"/>
-    </row>
-    <row r="41" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="47"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="50">
+        <f>SUM($V$2:V40)</f>
+        <v>48</v>
+      </c>
+      <c r="X40" s="51">
+        <v>50</v>
+      </c>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="4">
+        <f>SUM($X$7:Z40)</f>
+        <v>306</v>
+      </c>
+      <c r="AC40">
+        <f>SUM($AA$8:AA40)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="78">
+        <v>8</v>
+      </c>
+      <c r="B41" s="78"/>
+      <c r="C41" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>358</v>
+      </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="21"/>
+      <c r="G41" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="20"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
+      <c r="N41" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="O41" s="58">
+        <f>SUM($N$2:N41)</f>
+        <v>55.350923629493124</v>
+      </c>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
-      <c r="S41" s="100"/>
-      <c r="T41" s="104">
-        <f>SUM($S$2:S41)</f>
-        <v>54</v>
-      </c>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="105"/>
-    </row>
-    <row r="42" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="47"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="48">
+        <f>SUM($V$2:V41)</f>
+        <v>48</v>
+      </c>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="49"/>
+    </row>
+    <row r="42" spans="1:29" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="78"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="14" t="s">
+        <v>359</v>
+      </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
+      <c r="G42" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
       <c r="L42" s="21"/>
       <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
+      <c r="N42" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="O42" s="12">
+        <f>SUM($N$2:N42)</f>
+        <v>57.050923629493127</v>
+      </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
-      <c r="S42" s="100"/>
-      <c r="T42" s="104">
-        <f>SUM($S$2:S42)</f>
-        <v>54</v>
-      </c>
-      <c r="U42" s="68"/>
-      <c r="V42" s="68"/>
-      <c r="W42" s="68"/>
-      <c r="X42" s="105"/>
-    </row>
-    <row r="43" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="44" t="s">
-        <v>217</v>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="48">
+        <f>SUM($V$2:V42)</f>
+        <v>48</v>
+      </c>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="49"/>
+    </row>
+    <row r="43" spans="1:29" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="78"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="14" t="s">
+        <v>360</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
+      <c r="G43" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
       <c r="L43" s="21"/>
       <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
+      <c r="N43" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="O43" s="12">
+        <f>SUM($N$2:N43)</f>
+        <v>58.450923629493126</v>
+      </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
-      <c r="S43" s="100"/>
-      <c r="T43" s="104">
-        <f>SUM($S$2:S43)</f>
-        <v>54</v>
-      </c>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="105"/>
-    </row>
-    <row r="44" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="45"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="48">
+        <f>SUM($V$2:V43)</f>
+        <v>48</v>
+      </c>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="49"/>
+    </row>
+    <row r="44" spans="1:29" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="78"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="20"/>
+      <c r="G44" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="21"/>
       <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
+      <c r="N44" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="O44" s="12">
+        <f>SUM($N$2:N44)</f>
+        <v>58.550923629493127</v>
+      </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="104">
-        <f>SUM($S$2:S44)</f>
-        <v>54</v>
-      </c>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="105"/>
-    </row>
-    <row r="45" spans="1:26" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="46"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="U44" s="12"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="48">
+        <f>SUM($V$2:V44)</f>
+        <v>48</v>
+      </c>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="49"/>
+    </row>
+    <row r="45" spans="1:29" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="78"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="14" t="s">
+        <v>367</v>
+      </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="21"/>
+      <c r="G45" s="75" t="s">
+        <v>368</v>
+      </c>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="20"/>
       <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
+      <c r="N45" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="O45" s="12">
+        <f>SUM($N$2:N45)</f>
+        <v>58.75092362949313</v>
+      </c>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
-      <c r="S45" s="100">
-        <v>6</v>
-      </c>
-      <c r="T45" s="106">
-        <f>SUM($S$2:S45)</f>
-        <v>60</v>
-      </c>
-      <c r="U45" s="107"/>
-      <c r="V45" s="107"/>
-      <c r="W45" s="107"/>
-      <c r="X45" s="108"/>
-    </row>
-    <row r="46" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="47">
-        <v>9</v>
-      </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="72" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>216</v>
-      </c>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="48">
+        <f>SUM($V$2:V45)</f>
+        <v>48</v>
+      </c>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="49"/>
+    </row>
+    <row r="46" spans="1:29" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
+      <c r="G46" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="69"/>
       <c r="L46" s="21"/>
       <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12" t="s">
-        <v>251</v>
-      </c>
+      <c r="N46" s="12">
+        <v>4</v>
+      </c>
+      <c r="O46" s="12">
+        <f>SUM($N$2:N46)</f>
+        <v>62.75092362949313</v>
+      </c>
+      <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
-      <c r="R46" s="12" t="s">
-        <v>276</v>
-      </c>
+      <c r="R46" s="12"/>
       <c r="S46" s="12"/>
-      <c r="T46">
-        <f>SUM($S$2:S46)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="47"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="44">
+        <v>6</v>
+      </c>
+      <c r="W46" s="50">
+        <f>SUM($V$2:V46)</f>
+        <v>54</v>
+      </c>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="51"/>
+      <c r="Z46" s="51"/>
+      <c r="AA46" s="52"/>
+    </row>
+    <row r="47" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="78">
+        <v>9</v>
+      </c>
+      <c r="B47" s="78"/>
+      <c r="C47" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>210</v>
+      </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
+      <c r="G47" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
       <c r="L47" s="21"/>
       <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
+      <c r="N47" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O47" s="12">
+        <f>SUM($N$2:N47)</f>
+        <v>63.25092362949313</v>
+      </c>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47">
-        <f>SUM($S$2:S47)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="47"/>
+      <c r="S47" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="V47" s="12"/>
+      <c r="W47">
+        <f>SUM($V$2:V47)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="78"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="78"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="20"/>
+      <c r="G48" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="21"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
+      <c r="O48" s="12">
+        <f>SUM($N$2:N48)</f>
+        <v>63.25092362949313</v>
+      </c>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
-      <c r="T48">
-        <f>SUM($S$2:S48)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="19" t="s">
-        <v>277</v>
-      </c>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48">
+        <f>SUM($V$2:V48)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="78"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="78"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="39"/>
+      <c r="G49" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="69"/>
       <c r="L49" s="20"/>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
+      <c r="O49" s="12">
+        <f>SUM($N$2:N49)</f>
+        <v>63.25092362949313</v>
+      </c>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
-      <c r="T49">
-        <f>SUM($S$2:S49)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="44" t="s">
-        <v>217</v>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49">
+        <f>SUM($V$2:V49)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="78"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="21"/>
+      <c r="G50" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="20"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
+      <c r="N50" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O50" s="12">
+        <f>SUM($N$2:N50)</f>
+        <v>63.75092362949313</v>
+      </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
-      <c r="T50">
-        <f>SUM($S$2:S50)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="45"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50">
+        <f>SUM($V$2:V50)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="78"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="82" t="s">
+        <v>211</v>
+      </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
+      <c r="G51" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
       <c r="L51" s="21"/>
       <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
+      <c r="N51" s="12">
+        <v>3</v>
+      </c>
+      <c r="O51" s="58">
+        <f>SUM($N$2:N51)</f>
+        <v>66.75092362949313</v>
+      </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
-      <c r="T51">
-        <f>SUM($S$2:S51)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="45"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51">
+        <f>SUM($V$2:V51)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="78"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="86"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
+      <c r="G52" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
       <c r="L52" s="21"/>
       <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
+      <c r="N52" s="12">
+        <v>4</v>
+      </c>
+      <c r="O52" s="12">
+        <f>SUM($N$2:N52)</f>
+        <v>70.75092362949313</v>
+      </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
-      <c r="S52" s="12">
-        <v>36</v>
-      </c>
-      <c r="T52">
-        <f>SUM($S$2:S52)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="45"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52">
+        <f>SUM($V$2:V52)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="78"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="86"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
+      <c r="G53" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
       <c r="L53" s="21"/>
       <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
+      <c r="N53" s="12">
+        <f>3*N52</f>
+        <v>12</v>
+      </c>
+      <c r="O53" s="12">
+        <f>SUM($N$2:N53)</f>
+        <v>82.75092362949313</v>
+      </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
-      <c r="T53">
-        <f>SUM($S$2:S53)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="45"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12">
+        <v>36</v>
+      </c>
+      <c r="W53">
+        <f>SUM($V$2:V53)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="78"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="86"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
+      <c r="G54" s="107" t="s">
+        <v>362</v>
+      </c>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
+      <c r="K54" s="109"/>
       <c r="L54" s="21"/>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12" t="s">
-        <v>249</v>
-      </c>
+      <c r="O54" s="12">
+        <f>SUM($N$2:N54)</f>
+        <v>82.75092362949313</v>
+      </c>
+      <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
-      <c r="T54">
-        <f>SUM($S$2:S54)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="46"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54">
+        <f>SUM($V$2:V54)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="78"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="86"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
+      <c r="G55" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
       <c r="L55" s="21"/>
       <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
+      <c r="N55" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="O55" s="12">
+        <f>SUM($N$2:N55)</f>
+        <v>86.25092362949313</v>
+      </c>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55">
-        <f>SUM($S$2:S55)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="D56" s="88" t="s">
-        <v>231</v>
-      </c>
+      <c r="S55" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55">
+        <f>SUM($V$2:V55)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="78"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="87"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
+      <c r="G56" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
       <c r="L56" s="21"/>
       <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
+      <c r="N56" s="12">
+        <v>3</v>
+      </c>
+      <c r="O56" s="25">
+        <f>SUM($N$2:N56)</f>
+        <v>89.25092362949313</v>
+      </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
-      <c r="T56">
-        <f>SUM($S$2:S56)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="47">
-        <v>10</v>
-      </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="90"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56">
+        <f>SUM($V$2:V56)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="78"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57" s="84" t="s">
+        <v>224</v>
+      </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="20"/>
+      <c r="G57" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="21"/>
       <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
+      <c r="N57" s="12">
+        <v>2</v>
+      </c>
+      <c r="O57" s="12">
+        <f>SUM($N$2:N57)</f>
+        <v>91.25092362949313</v>
+      </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
-      <c r="T57">
-        <f>SUM($S$2:S57)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="89"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57">
+        <f>SUM($V$2:V57)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="82">
+        <v>10</v>
+      </c>
+      <c r="B58" s="78"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="96"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="39"/>
+      <c r="G58" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
       <c r="L58" s="20"/>
       <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
+      <c r="N58" s="12">
+        <v>5</v>
+      </c>
+      <c r="O58" s="12">
+        <f>SUM($N$2:N58)</f>
+        <v>96.25092362949313</v>
+      </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
-      <c r="T58">
-        <f>SUM($S$2:S58)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="62" t="s">
-        <v>217</v>
-      </c>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58">
+        <f>SUM($V$2:V58)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="86"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="85"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="39"/>
+      <c r="G59" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="69"/>
       <c r="L59" s="20"/>
       <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
+      <c r="N59" s="12">
+        <v>1</v>
+      </c>
+      <c r="O59" s="12">
+        <f>SUM($N$2:N59)</f>
+        <v>97.25092362949313</v>
+      </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
-      <c r="T59">
-        <f>SUM($S$2:S59)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="62"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59">
+        <f>SUM($V$2:V59)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="86"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="94" t="s">
+        <v>211</v>
+      </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="39"/>
+      <c r="G60" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="69"/>
       <c r="L60" s="20"/>
       <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
+      <c r="N60" s="12">
+        <v>1</v>
+      </c>
+      <c r="O60" s="12">
+        <f>SUM($N$2:N60)</f>
+        <v>98.25092362949313</v>
+      </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
-      <c r="S60" s="12">
-        <v>36</v>
-      </c>
-      <c r="T60">
-        <f>SUM($S$2:S60)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="62"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60">
+        <f>SUM($V$2:V60)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="86"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="94"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="39"/>
+      <c r="G61" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="69"/>
       <c r="L61" s="20"/>
-      <c r="M61" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12">
+        <v>3</v>
+      </c>
+      <c r="O61" s="12">
+        <f>SUM($N$2:N61)</f>
+        <v>101.25092362949313</v>
+      </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
       <c r="S61" s="12"/>
-      <c r="T61">
-        <f>SUM($S$2:S61)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="D62" s="83" t="s">
-        <v>238</v>
-      </c>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12">
+        <v>36</v>
+      </c>
+      <c r="W61">
+        <f>SUM($V$2:V61)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="86"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="94"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="G62" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="N62" s="12">
+        <v>2</v>
+      </c>
+      <c r="O62" s="58">
+        <f>SUM($N$2:N62)</f>
+        <v>103.25092362949313</v>
+      </c>
       <c r="P62" s="12"/>
-      <c r="Q62" s="12" t="s">
-        <v>237</v>
-      </c>
+      <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
       <c r="S62" s="12"/>
-      <c r="T62">
-        <f>SUM($S$2:S62)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="84"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62">
+        <f>SUM($V$2:V62)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="86">
+        <v>11</v>
+      </c>
+      <c r="B63" s="78"/>
+      <c r="C63" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="70" t="s">
+        <v>231</v>
+      </c>
       <c r="E63" s="12"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
+      <c r="F63" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="G63" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="69"/>
       <c r="L63" s="21"/>
       <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
+      <c r="N63" s="12">
+        <f>N58*3</f>
+        <v>15</v>
+      </c>
+      <c r="O63" s="58">
+        <f>SUM($N$2:N63)</f>
+        <v>118.25092362949313</v>
+      </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
       <c r="S63" s="12"/>
-      <c r="T63">
-        <f>SUM($S$2:S63)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="85"/>
+      <c r="T63" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63">
+        <f>SUM($V$2:V63)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="86"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="88"/>
       <c r="E64" s="12"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="91" t="s">
+        <v>343</v>
+      </c>
+      <c r="H64" s="92"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="93"/>
       <c r="L64" s="21"/>
       <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
+      <c r="N64" s="12">
+        <v>3</v>
+      </c>
+      <c r="O64" s="12">
+        <f>SUM($N$2:N64)</f>
+        <v>121.25092362949313</v>
+      </c>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
       <c r="S64" s="12"/>
-      <c r="T64">
-        <f>SUM($S$2:S64)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="83" t="s">
-        <v>239</v>
-      </c>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64">
+        <f>SUM($V$2:V64)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="86"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="71"/>
       <c r="E65" s="12"/>
-      <c r="F65" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="G65" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="12"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="21"/>
       <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
+      <c r="N65" s="12">
+        <v>2</v>
+      </c>
+      <c r="O65" s="12">
+        <f>SUM($N$2:N65)</f>
+        <v>123.25092362949313</v>
+      </c>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
       <c r="S65" s="12"/>
-      <c r="T65">
-        <f>SUM($S$2:S65)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="84"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65">
+        <f>SUM($V$2:V65)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="86"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="70" t="s">
+        <v>232</v>
+      </c>
       <c r="E66" s="12"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
+      <c r="F66" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="G66" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
+      <c r="O66" s="12">
+        <f>SUM($N$2:N66)</f>
+        <v>123.25092362949313</v>
+      </c>
       <c r="P66" s="12"/>
-      <c r="Q66" s="12" t="s">
-        <v>303</v>
-      </c>
+      <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
       <c r="S66" s="12"/>
-      <c r="T66">
-        <f>SUM($S$2:S66)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="76"/>
-      <c r="D67" s="85"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66">
+        <f>SUM($V$2:V66)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="86"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="88"/>
       <c r="E67" s="12"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="39"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
+      <c r="N67" s="34">
+        <v>1</v>
+      </c>
+      <c r="O67" s="12">
+        <f>SUM($N$2:N67)</f>
+        <v>124.25092362949313</v>
+      </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
       <c r="R67" s="12"/>
       <c r="S67" s="12"/>
-      <c r="T67">
-        <f>SUM($S$2:S67)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="74" t="s">
-        <v>266</v>
-      </c>
-      <c r="D68" s="12"/>
+      <c r="T67" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67">
+        <f>SUM($V$2:V67)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="86"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="71"/>
       <c r="E68" s="12"/>
-      <c r="F68" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="G68" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
       <c r="L68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q68" s="12" t="s">
-        <v>255</v>
-      </c>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12">
+        <v>2</v>
+      </c>
+      <c r="O68" s="12">
+        <f>SUM($N$2:N68)</f>
+        <v>126.25092362949313</v>
+      </c>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
       <c r="R68" s="12"/>
       <c r="S68" s="12"/>
-      <c r="T68">
-        <f>SUM($S$2:S68)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="44">
-        <v>11</v>
-      </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68">
+        <f>SUM($V$2:V68)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="86">
+        <v>12</v>
+      </c>
+      <c r="B69" s="78"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="70" t="s">
+        <v>369</v>
+      </c>
       <c r="E69" s="12"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="71"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="69"/>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
+      <c r="N69" s="12">
+        <v>3</v>
+      </c>
+      <c r="O69" s="12">
+        <f>SUM($N$2:N69)</f>
+        <v>129.25092362949312</v>
+      </c>
+      <c r="P69" s="32"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
       <c r="S69" s="12"/>
-      <c r="T69">
-        <f>SUM($S$2:S69)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="45"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+    </row>
+    <row r="70" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="86"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="71"/>
       <c r="E70" s="12"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="71" t="s">
-        <v>262</v>
-      </c>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="68"/>
+      <c r="K70" s="69"/>
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
+      <c r="N70" s="12">
+        <v>4</v>
+      </c>
+      <c r="O70" s="12">
+        <f>SUM($N$2:N70)</f>
+        <v>133.25092362949312</v>
+      </c>
+      <c r="P70" s="32"/>
       <c r="Q70" s="12"/>
       <c r="R70" s="12"/>
       <c r="S70" s="12"/>
-      <c r="T70">
-        <f>SUM($S$2:S70)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="45"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="75"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+    </row>
+    <row r="71" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="86"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="64" t="s">
+        <v>256</v>
+      </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
+      <c r="F71" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="G71" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="69"/>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
+      <c r="N71" s="12">
+        <v>4</v>
+      </c>
+      <c r="O71" s="12">
+        <f>SUM($N$2:N71)</f>
+        <v>137.25092362949312</v>
+      </c>
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71">
-        <f>SUM($S$2:S71)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="46"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="76"/>
+      <c r="S71" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="T71" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71">
+        <f>SUM($V$2:V71)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="86"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="M72" t="s">
-        <v>363</v>
-      </c>
+      <c r="F72" s="72"/>
+      <c r="G72" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="H72" s="90"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
+      <c r="K72" s="90"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
       <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12" t="s">
-        <v>273</v>
-      </c>
+      <c r="O72" s="12">
+        <f>SUM($N$2:N72)</f>
+        <v>137.25092362949312</v>
+      </c>
+      <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
       <c r="R72" s="12"/>
-      <c r="S72" s="12">
-        <v>36</v>
-      </c>
-      <c r="T72">
-        <f>SUM($S$2:S72)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="47">
-        <v>12</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="D73" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72">
+        <f>SUM($V$2:V72)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="86">
+        <v>13</v>
+      </c>
+      <c r="B73" s="78"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="70" t="s">
+        <v>374</v>
+      </c>
       <c r="E73" s="12"/>
-      <c r="F73" s="65" t="s">
-        <v>315</v>
-      </c>
-      <c r="G73" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
+      <c r="O73" s="12">
+        <f>SUM($N$2:N73)</f>
+        <v>137.25092362949312</v>
+      </c>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
       <c r="S73" s="12"/>
-      <c r="T73">
-        <f>SUM($S$2:S73)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="47"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="D74" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73">
+        <f>SUM($V$2:V73)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="86"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="71"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="90"/>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
+      <c r="O74" s="12">
+        <f>SUM($N$2:N74)</f>
+        <v>137.25092362949312</v>
+      </c>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
       <c r="S74" s="12"/>
-      <c r="T74">
-        <f>SUM($S$2:S74)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="47"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="77" t="s">
-        <v>260</v>
-      </c>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74">
+        <f>SUM($V$2:V74)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="86"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="H75" s="75"/>
+      <c r="I75" s="75"/>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>338</v>
+      </c>
       <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
+      <c r="O75" s="12">
+        <f>SUM($N$2:N75)</f>
+        <v>137.25092362949312</v>
+      </c>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
-      <c r="S75" s="12">
-        <v>72</v>
-      </c>
-      <c r="T75">
-        <f>SUM($S$2:S75)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="47"/>
+      <c r="S75" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12">
+        <v>36</v>
+      </c>
+      <c r="W75">
+        <f>SUM($V$2:V75)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="86"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="78"/>
+      <c r="C76" s="36" t="s">
+        <v>248</v>
+      </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="37" t="s">
+      <c r="F76" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="G76" s="75" t="s">
         <v>267</v>
       </c>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="39"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
       <c r="L76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12" t="s">
-        <v>268</v>
-      </c>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12">
+        <v>5</v>
+      </c>
+      <c r="O76" s="12">
+        <f>SUM($N$2:N76)</f>
+        <v>142.25092362949312</v>
+      </c>
+      <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
       <c r="R76" s="12"/>
       <c r="S76" s="12"/>
-      <c r="T76">
-        <f>SUM($S$2:S76)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="47">
-        <v>13</v>
-      </c>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76">
+        <f>SUM($V$2:V76)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="86"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="77"/>
+      <c r="C77" s="36" t="s">
+        <v>249</v>
+      </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
+      <c r="N77" s="12">
+        <v>5</v>
+      </c>
+      <c r="O77" s="12">
+        <f>SUM($N$2:N77)</f>
+        <v>147.25092362949312</v>
+      </c>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
       <c r="S77" s="12"/>
-      <c r="T77">
-        <f>SUM($S$2:S77)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="47"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77">
+        <f>SUM($V$2:V77)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="86">
+        <v>14</v>
+      </c>
       <c r="B78" s="12"/>
-      <c r="C78" s="77"/>
+      <c r="C78" s="36" t="s">
+        <v>250</v>
+      </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="75"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
+      <c r="N78" s="12">
+        <v>5</v>
+      </c>
+      <c r="O78" s="12">
+        <f>SUM($N$2:N78)</f>
+        <v>152.25092362949312</v>
+      </c>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
       <c r="S78" s="12"/>
-      <c r="T78">
-        <f>SUM($S$2:S78)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="47"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12">
+        <v>72</v>
+      </c>
+      <c r="W78">
+        <f>SUM($V$2:V78)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="86"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="79"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75"/>
       <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
       <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
+      <c r="O79" s="12">
+        <f>SUM($N$2:N79)</f>
+        <v>152.25092362949312</v>
+      </c>
       <c r="Q79" s="12"/>
       <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
-      <c r="T79">
-        <f>SUM($S$2:S79)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="44">
-        <v>14</v>
-      </c>
+      <c r="S79" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79">
+        <f>SUM($V$2:V79)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="86"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="88" t="s">
-        <v>298</v>
-      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="39"/>
+      <c r="G80" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="H80" s="68"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="68"/>
+      <c r="K80" s="69"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
+      <c r="O80" s="12">
+        <f>SUM($N$2:N80)</f>
+        <v>152.25092362949312</v>
+      </c>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
       <c r="S80" s="12"/>
-      <c r="T80">
-        <f>SUM($S$2:S80)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="45"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80">
+        <f>SUM($V$2:V80)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="86"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="89"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
-      <c r="G81" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
+      <c r="G81" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="H81" s="75"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="75"/>
+      <c r="K81" s="75"/>
       <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
       <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12" t="s">
-        <v>299</v>
-      </c>
+      <c r="O81" s="12">
+        <f>SUM($N$2:N81)</f>
+        <v>152.25092362949312</v>
+      </c>
+      <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
       <c r="R81" s="12"/>
       <c r="S81" s="12"/>
-      <c r="T81">
-        <f>SUM($S$2:S81)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="45"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81">
+        <f>SUM($V$2:V81)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="87"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="79"/>
+      <c r="C82" s="38"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
+      <c r="G82" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="75"/>
+      <c r="K82" s="75"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
+      <c r="N82" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O82" s="12">
+        <f>SUM($N$2:N82)</f>
+        <v>152.55092362949313</v>
+      </c>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
       <c r="S82" s="12"/>
-      <c r="T82">
-        <f>SUM($S$2:S82)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="45"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82">
+        <f>SUM($V$2:V82)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="82">
+        <v>15</v>
+      </c>
       <c r="B83" s="12"/>
-      <c r="C83" s="79" t="s">
-        <v>290</v>
-      </c>
-      <c r="D83" s="73"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="84" t="s">
+        <v>285</v>
+      </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
-      <c r="G83" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
+      <c r="G83" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="H83" s="75"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="75"/>
+      <c r="K83" s="75"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
+      <c r="N83" s="12">
+        <v>1</v>
+      </c>
+      <c r="O83" s="12">
+        <f>SUM($N$2:N83)</f>
+        <v>153.55092362949313</v>
+      </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
       <c r="S83" s="12"/>
-      <c r="T83">
-        <f>SUM($S$2:S83)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="45"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83">
+        <f>SUM($V$2:V83)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="86"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="97" t="s">
-        <v>293</v>
-      </c>
-      <c r="D84" s="12"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="85"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
-      <c r="G84" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="40"/>
+      <c r="G84" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="69"/>
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
+      <c r="O84" s="12">
+        <f>SUM($N$2:N84)</f>
+        <v>153.55092362949313</v>
+      </c>
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84">
-        <f>SUM($S$2:S84)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="45"/>
+      <c r="S84" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84">
+        <f>SUM($V$2:V84)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="86"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="98"/>
-      <c r="D85" s="12" t="s">
-        <v>341</v>
-      </c>
+      <c r="C85" s="38"/>
+      <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
-      <c r="G85" s="37" t="s">
-        <v>342</v>
-      </c>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="39"/>
+      <c r="G85" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="H85" s="75"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
+      <c r="O85" s="12">
+        <f>SUM($N$2:N85)</f>
+        <v>153.55092362949313</v>
+      </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
       <c r="S85" s="12"/>
-    </row>
-    <row r="86" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="46"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85">
+        <f>SUM($V$2:V85)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="86"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="79" t="s">
-        <v>294</v>
-      </c>
-      <c r="D86" s="12"/>
+      <c r="D86" s="35"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="40"/>
+      <c r="G86" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="H86" s="75"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="75"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12" t="s">
-        <v>309</v>
-      </c>
+      <c r="O86" s="12">
+        <f>SUM($N$2:N86)</f>
+        <v>153.55092362949313</v>
+      </c>
+      <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
-      <c r="S86" s="12">
-        <v>96</v>
-      </c>
-      <c r="T86">
-        <f>SUM($S$2:S86)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="47">
-        <v>15</v>
-      </c>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86">
+        <f>SUM($V$2:V86)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="86"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="79" t="s">
-        <v>296</v>
+      <c r="C87" s="38" t="s">
+        <v>277</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
-      <c r="G87" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
+      <c r="G87" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="H87" s="75"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
+      <c r="K87" s="75"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
+      <c r="N87" s="12">
+        <v>4</v>
+      </c>
+      <c r="O87" s="12">
+        <f>SUM($N$2:N87)</f>
+        <v>157.55092362949313</v>
+      </c>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
       <c r="R87" s="12"/>
       <c r="S87" s="12"/>
-      <c r="T87">
-        <f>SUM($S$2:S87)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="47"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87">
+        <f>SUM($V$2:V87)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="86"/>
       <c r="B88" s="12"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="83" t="s">
-        <v>301</v>
+      <c r="C88" s="110" t="s">
+        <v>280</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
-      <c r="G88" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
+      <c r="G88" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
+      <c r="K88" s="75"/>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
+      <c r="N88" s="12">
+        <v>4</v>
+      </c>
+      <c r="O88" s="12">
+        <f>SUM($N$2:N88)</f>
+        <v>161.55092362949313</v>
+      </c>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
       <c r="R88" s="12"/>
       <c r="S88" s="12"/>
-      <c r="T88">
-        <f>SUM($S$2:S88)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="47"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+    </row>
+    <row r="89" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="87"/>
       <c r="B89" s="12"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="84"/>
+      <c r="C89" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
-      <c r="G89" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
+      <c r="G89" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="H89" s="75"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="75"/>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
+      <c r="N89" s="12">
+        <v>5</v>
+      </c>
+      <c r="O89" s="12">
+        <f>SUM($N$2:N89)</f>
+        <v>166.55092362949313</v>
+      </c>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
-      <c r="T89">
-        <f>SUM($S$2:S89)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="47"/>
+      <c r="S89" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12">
+        <v>96</v>
+      </c>
+      <c r="W89">
+        <f>SUM($V$2:V89)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="78">
+        <v>16</v>
+      </c>
       <c r="B90" s="12"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="85"/>
+      <c r="C90" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D90" s="70" t="s">
+        <v>288</v>
+      </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
+      <c r="G90" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
+      <c r="N90" s="12">
+        <v>5</v>
+      </c>
+      <c r="O90" s="12">
+        <f>SUM($N$2:N90)</f>
+        <v>171.55092362949313</v>
+      </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
       <c r="S90" s="12"/>
-      <c r="T90">
-        <f>SUM($S$2:S90)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="47"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90">
+        <f>SUM($V$2:V90)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="78"/>
       <c r="B91" s="12"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="82" t="s">
-        <v>307</v>
-      </c>
+      <c r="C91" s="38"/>
+      <c r="D91" s="88"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="H91" s="40"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="40"/>
-      <c r="K91" s="40"/>
+      <c r="G91" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="H91" s="75"/>
+      <c r="I91" s="75"/>
+      <c r="J91" s="75"/>
+      <c r="K91" s="75"/>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
+      <c r="O91" s="12">
+        <f>SUM($N$2:N91)</f>
+        <v>171.55092362949313</v>
+      </c>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
       <c r="R91" s="12"/>
       <c r="S91" s="12"/>
-      <c r="T91">
-        <f>SUM($S$2:S91)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="47"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91">
+        <f>SUM($V$2:V91)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="78"/>
       <c r="B92" s="12"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="69" t="s">
-        <v>308</v>
-      </c>
+      <c r="C92" s="38"/>
+      <c r="D92" s="71"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
+      <c r="G92" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="H92" s="75"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="75"/>
+      <c r="K92" s="75"/>
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
+      <c r="O92" s="58">
+        <f>SUM($N$2:N92)</f>
+        <v>171.55092362949313</v>
+      </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
       <c r="S92" s="12"/>
-      <c r="T92">
-        <f>SUM($S$2:S92)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="47"/>
-      <c r="B93" s="80"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="61" t="s">
-        <v>360</v>
-      </c>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="61"/>
-      <c r="L93" s="80"/>
-      <c r="M93" s="80"/>
-      <c r="N93" s="80"/>
-      <c r="O93" s="80"/>
-      <c r="P93" s="80"/>
-      <c r="Q93" s="80"/>
-      <c r="R93" s="80"/>
-      <c r="S93" s="80"/>
-      <c r="T93">
-        <f>SUM($S$2:S93)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="44">
-        <v>16</v>
-      </c>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92">
+        <f>SUM($V$2:V92)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="78"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="113" t="s">
+        <v>294</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12">
+        <f>SUM($N$2:N93)</f>
+        <v>171.55092362949313</v>
+      </c>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93">
+        <f>SUM($V$2:V93)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="78"/>
       <c r="B94" s="12"/>
-      <c r="C94" s="79" t="s">
-        <v>312</v>
-      </c>
-      <c r="D94" s="12"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="12" t="s">
+        <v>320</v>
+      </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
-      <c r="G94" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
+      <c r="G94" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="H94" s="68"/>
+      <c r="I94" s="68"/>
+      <c r="J94" s="68"/>
+      <c r="K94" s="69"/>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
+      <c r="N94" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O94" s="25">
+        <f>SUM($N$2:N94)</f>
+        <v>172.05092362949313</v>
+      </c>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
-      <c r="T94">
-        <f>SUM($S$2:S94)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="45"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94">
+        <f>SUM($V$2:V94)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="78"/>
       <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="33" t="s">
+        <v>295</v>
+      </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
-      <c r="G95" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="40"/>
-      <c r="K95" s="40"/>
+      <c r="G95" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="H95" s="75"/>
+      <c r="I95" s="75"/>
+      <c r="J95" s="75"/>
+      <c r="K95" s="75"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
+      <c r="O95" s="12">
+        <f>SUM($N$2:N95)</f>
+        <v>172.05092362949313</v>
+      </c>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
       <c r="R95" s="12"/>
       <c r="S95" s="12"/>
-      <c r="T95">
-        <f>SUM($S$2:S95)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="46"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="40"/>
-      <c r="K96" s="40"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
-      <c r="S96" s="12">
-        <v>108</v>
-      </c>
-      <c r="T96">
-        <f>SUM($S$2:S96)</f>
-        <v>444</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="47">
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95">
+        <f>SUM($V$2:V95)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="78"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="75"/>
+      <c r="J96" s="75"/>
+      <c r="K96" s="75"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="12">
+        <f>SUM($N$2:N96)</f>
+        <v>172.05092362949313</v>
+      </c>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39"/>
+      <c r="W96">
+        <f>SUM($V$2:V96)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="82">
         <v>17</v>
       </c>
       <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
+      <c r="C97" s="38" t="s">
+        <v>299</v>
+      </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
-      <c r="G97" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="40"/>
+      <c r="G97" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="H97" s="123"/>
+      <c r="I97" s="123"/>
+      <c r="J97" s="123"/>
+      <c r="K97" s="123"/>
       <c r="L97" s="12"/>
-      <c r="N97" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="O97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O97" s="12">
+        <f>SUM($N$2:N97)</f>
+        <v>172.75092362949312</v>
+      </c>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
       <c r="R97" s="12"/>
       <c r="S97" s="12"/>
-      <c r="T97">
-        <f>SUM($S$2:S97)</f>
-        <v>444</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="47"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97">
+        <f>SUM($V$2:V97)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="86"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
-      <c r="G98" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="40"/>
-      <c r="K98" s="40"/>
+      <c r="G98" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="H98" s="75"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="75"/>
+      <c r="K98" s="75"/>
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
+      <c r="O98" s="12">
+        <f>SUM($N$2:N98)</f>
+        <v>172.75092362949312</v>
+      </c>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
       <c r="R98" s="12"/>
       <c r="S98" s="12"/>
-      <c r="T98">
-        <f>SUM($S$2:S98)</f>
-        <v>444</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="47"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98">
+        <f>SUM($V$2:V98)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="87"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
-      <c r="D99" s="96"/>
+      <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
-      <c r="G99" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="H99" s="40"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40"/>
-      <c r="K99" s="40"/>
+      <c r="G99" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
+      <c r="K99" s="75"/>
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
+      <c r="O99" s="12">
+        <f>SUM($N$2:N99)</f>
+        <v>172.75092362949312</v>
+      </c>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
-      <c r="T99">
-        <f>SUM($S$2:S99)</f>
-        <v>444</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="47"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12">
+        <v>108</v>
+      </c>
+      <c r="W99">
+        <f>SUM($V$2:V99)</f>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="78">
+        <v>18</v>
+      </c>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="40"/>
-      <c r="K100" s="40"/>
+      <c r="G100" s="75" t="s">
+        <v>373</v>
+      </c>
+      <c r="H100" s="75"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="75"/>
+      <c r="K100" s="75"/>
       <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
+      <c r="O100" s="12">
+        <f>SUM($N$2:N100)</f>
+        <v>172.75092362949312</v>
+      </c>
+      <c r="Q100" s="18" t="s">
+        <v>303</v>
+      </c>
       <c r="R100" s="12"/>
       <c r="S100" s="12"/>
-      <c r="T100">
-        <f>SUM($S$2:S100)</f>
-        <v>444</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="47"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100">
+        <f>SUM($V$2:V100)</f>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="78"/>
       <c r="B101" s="12"/>
-      <c r="C101" s="86" t="s">
-        <v>326</v>
-      </c>
-      <c r="D101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
-      <c r="G101" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="40"/>
+      <c r="G101" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="H101" s="75"/>
+      <c r="I101" s="75"/>
+      <c r="J101" s="75"/>
+      <c r="K101" s="75"/>
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q101" s="12" t="s">
-        <v>320</v>
-      </c>
+      <c r="N101" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O101" s="12">
+        <f>SUM($N$2:N101)</f>
+        <v>173.4509236294931</v>
+      </c>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
       <c r="R101" s="12"/>
-      <c r="S101" s="12">
-        <v>132</v>
-      </c>
-      <c r="T101">
-        <f>SUM($S$2:S101)</f>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="B102" s="63" t="s">
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101">
+        <f>SUM($V$2:V101)</f>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="78"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="99"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
-      <c r="G102" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="40"/>
-      <c r="L102" s="59"/>
+      <c r="G102" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="H102" s="75"/>
+      <c r="I102" s="75"/>
+      <c r="J102" s="75"/>
+      <c r="K102" s="75"/>
+      <c r="L102" s="12"/>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
+      <c r="O102" s="12">
+        <f>SUM($N$2:N102)</f>
+        <v>173.4509236294931</v>
+      </c>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
       <c r="R102" s="12"/>
       <c r="S102" s="12"/>
-      <c r="T102">
-        <f>SUM($S$2:S102)</f>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="47"/>
-      <c r="B103" s="63"/>
-      <c r="C103" s="99"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102">
+        <f>SUM($V$2:V102)</f>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="78"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="40"/>
-      <c r="L103" s="59"/>
+      <c r="G103" s="67" t="s">
+        <v>375</v>
+      </c>
+      <c r="H103" s="68"/>
+      <c r="I103" s="68"/>
+      <c r="J103" s="68"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="12"/>
       <c r="M103" s="12"/>
       <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
+      <c r="O103" s="12">
+        <f>SUM($N$2:N103)</f>
+        <v>173.4509236294931</v>
+      </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
       <c r="R103" s="12"/>
       <c r="S103" s="12"/>
-      <c r="T103">
-        <f>SUM($S$2:S103)</f>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="47"/>
-      <c r="B104" s="63"/>
-      <c r="C104" s="99"/>
-      <c r="D104" s="110" t="s">
-        <v>361</v>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103">
+        <f>SUM($V$2:V103)</f>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="78"/>
+      <c r="B104" s="12"/>
+      <c r="D104" s="114" t="s">
+        <v>377</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
-      <c r="G104" s="92" t="s">
-        <v>327</v>
-      </c>
-      <c r="H104" s="93"/>
-      <c r="I104" s="93"/>
-      <c r="J104" s="93"/>
-      <c r="K104" s="94"/>
-      <c r="L104" s="59"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="68"/>
+      <c r="I104" s="68"/>
+      <c r="J104" s="68"/>
+      <c r="K104" s="69"/>
+      <c r="L104" s="12"/>
       <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
+      <c r="N104">
+        <v>0.7</v>
+      </c>
+      <c r="O104" s="12">
+        <f>SUM($N$2:N104)</f>
+        <v>174.15092362949309</v>
+      </c>
       <c r="P104" s="12"/>
-      <c r="Q104" s="18" t="s">
-        <v>332</v>
-      </c>
+      <c r="Q104" s="12"/>
       <c r="R104" s="12"/>
-      <c r="S104" s="12"/>
-      <c r="T104">
-        <f>SUM($S$2:S104)</f>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="47"/>
-      <c r="B105" s="63"/>
-      <c r="C105" s="99"/>
+      <c r="S104" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="T104" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12">
+        <v>132</v>
+      </c>
+      <c r="W104">
+        <f>SUM($V$2:V104)</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="82">
+        <v>19</v>
+      </c>
+      <c r="B105" s="83"/>
+      <c r="C105" s="76" t="s">
+        <v>310</v>
+      </c>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="40"/>
-      <c r="L105" s="59"/>
+      <c r="G105" s="75" t="s">
+        <v>379</v>
+      </c>
+      <c r="H105" s="75"/>
+      <c r="I105" s="75"/>
+      <c r="J105" s="75"/>
+      <c r="K105" s="75"/>
+      <c r="L105" s="112"/>
       <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="12"/>
+      <c r="N105" s="12">
+        <f>5*4</f>
+        <v>20</v>
+      </c>
+      <c r="O105" s="12">
+        <f>SUM($N$2:N105)</f>
+        <v>194.15092362949309</v>
+      </c>
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
       <c r="R105" s="12"/>
       <c r="S105" s="12"/>
-      <c r="T105">
-        <f>SUM($S$2:S105)</f>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="44"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="99"/>
-      <c r="D106" s="80"/>
-      <c r="E106" s="80"/>
-      <c r="F106" s="80"/>
-      <c r="G106" s="61"/>
-      <c r="H106" s="61"/>
-      <c r="I106" s="61"/>
-      <c r="J106" s="61"/>
-      <c r="K106" s="61"/>
-      <c r="L106" s="95"/>
-      <c r="M106" s="80"/>
-      <c r="N106" s="80"/>
-      <c r="O106" s="80"/>
-      <c r="P106" s="80"/>
-      <c r="Q106" s="80"/>
-      <c r="R106" s="80"/>
-      <c r="S106" s="80">
-        <v>156</v>
-      </c>
-      <c r="T106">
-        <f>SUM($S$2:S106)</f>
-        <v>732</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="47">
-        <v>20</v>
-      </c>
-      <c r="B107" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="C107" s="99"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+    </row>
+    <row r="106" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="86"/>
+      <c r="B106" s="106"/>
+      <c r="C106" s="111"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="77" t="s">
+        <v>390</v>
+      </c>
+      <c r="H106" s="75"/>
+      <c r="I106" s="75"/>
+      <c r="J106" s="75"/>
+      <c r="K106" s="75"/>
+      <c r="L106" s="112"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="O106" s="12">
+        <f>SUM($N$2:N106)</f>
+        <v>196.0509236294931</v>
+      </c>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+    </row>
+    <row r="107" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="86"/>
+      <c r="B107" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" s="111"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
-      <c r="G107" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="12"/>
+      <c r="G107" s="75"/>
+      <c r="H107" s="75"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="75"/>
+      <c r="K107" s="75"/>
+      <c r="L107" s="31"/>
       <c r="M107" s="12"/>
       <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
+      <c r="O107" s="12">
+        <f>SUM($N$2:N107)</f>
+        <v>196.0509236294931</v>
+      </c>
       <c r="P107" s="12"/>
-      <c r="Q107" s="18" t="s">
-        <v>336</v>
-      </c>
+      <c r="Q107" s="12"/>
       <c r="R107" s="12"/>
       <c r="S107" s="12"/>
       <c r="T107" s="12"/>
-    </row>
-    <row r="108" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="47"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="99"/>
-      <c r="D108" s="110" t="s">
-        <v>362</v>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107">
+        <f>SUM($V$2:V107)</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="86"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="111"/>
+      <c r="D108" s="54" t="s">
+        <v>336</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
-      <c r="G108" s="92" t="s">
-        <v>333</v>
-      </c>
-      <c r="H108" s="93"/>
-      <c r="I108" s="93"/>
-      <c r="J108" s="93"/>
-      <c r="K108" s="94"/>
-      <c r="L108" s="12"/>
+      <c r="G108" s="119" t="s">
+        <v>311</v>
+      </c>
+      <c r="H108" s="120"/>
+      <c r="I108" s="120"/>
+      <c r="J108" s="120"/>
+      <c r="K108" s="121"/>
+      <c r="L108" s="31"/>
       <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
+      <c r="N108" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="O108" s="12">
+        <f>SUM($N$2:N108)</f>
+        <v>197.9509236294931</v>
+      </c>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
       <c r="R108" s="12"/>
       <c r="S108" s="12"/>
       <c r="T108" s="12"/>
-    </row>
-    <row r="109" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="47"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="87"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108">
+        <f>SUM($V$2:V108)</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="86"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="111"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
-      <c r="G109" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="H109" s="40"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="40"/>
-      <c r="K109" s="40"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
+      <c r="G109" s="116" t="s">
+        <v>384</v>
+      </c>
+      <c r="H109" s="75"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="31"/>
+      <c r="M109" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="N109" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O109" s="12">
+        <f>SUM($N$2:N109)</f>
+        <v>198.65092362949309</v>
+      </c>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
       <c r="R109" s="12"/>
       <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
-    </row>
-    <row r="110" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="B110" s="64" t="s">
-        <v>347</v>
-      </c>
-      <c r="C110" s="64" t="s">
-        <v>348</v>
-      </c>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
+      <c r="T109" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109">
+        <f>SUM($V$2:V109)</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="86"/>
+      <c r="B110" s="72"/>
+      <c r="C110" s="111"/>
+      <c r="D110" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="E110" s="39"/>
       <c r="F110" s="12"/>
-      <c r="G110" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="H110" s="40"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="40"/>
-      <c r="K110" s="40"/>
-      <c r="L110" s="12"/>
+      <c r="G110" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="H110" s="68"/>
+      <c r="I110" s="68"/>
+      <c r="J110" s="68"/>
+      <c r="K110" s="69"/>
+      <c r="L110" s="31"/>
       <c r="M110" s="12"/>
       <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
+      <c r="O110" s="12">
+        <f>SUM($N$2:N110)</f>
+        <v>198.65092362949309</v>
+      </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
       <c r="T110" s="12"/>
-    </row>
-    <row r="111" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="40"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="40"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110">
+        <f>SUM($V$2:V110)</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="87"/>
+      <c r="B111" s="79"/>
+      <c r="C111" s="111"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="H111" s="40"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="40"/>
-      <c r="K111" s="40"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12"/>
-      <c r="S111" s="12"/>
-      <c r="T111" s="12"/>
-    </row>
-    <row r="112" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="40"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="12"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="68"/>
+      <c r="I111" s="68"/>
+      <c r="J111" s="68"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="39"/>
+      <c r="N111" s="39"/>
+      <c r="O111" s="12">
+        <f>SUM($N$2:N111)</f>
+        <v>198.65092362949309</v>
+      </c>
+      <c r="P111" s="39"/>
+      <c r="Q111" s="39"/>
+      <c r="R111" s="39"/>
+      <c r="S111" s="39"/>
+      <c r="T111" s="39"/>
+      <c r="U111" s="39"/>
+      <c r="V111" s="39">
+        <v>156</v>
+      </c>
+      <c r="W111">
+        <f>SUM($V$2:V111)</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="78">
+        <v>20</v>
+      </c>
+      <c r="B112" s="79" t="s">
+        <v>315</v>
+      </c>
+      <c r="C112" s="80" t="s">
+        <v>326</v>
+      </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
-      <c r="G112" s="40"/>
-      <c r="H112" s="40"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="40"/>
-      <c r="K112" s="40"/>
+      <c r="G112" s="75" t="s">
+        <v>372</v>
+      </c>
+      <c r="H112" s="75"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="75"/>
+      <c r="K112" s="75"/>
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
       <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
+      <c r="O112" s="12">
+        <f>SUM($N$2:N112)</f>
+        <v>198.65092362949309</v>
+      </c>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
-      <c r="T112" s="12"/>
-    </row>
-    <row r="113" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="40"/>
-      <c r="B113" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="C113" s="65" t="s">
-        <v>350</v>
-      </c>
-      <c r="D113" s="12"/>
+      <c r="T112" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+    </row>
+    <row r="113" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="78"/>
+      <c r="B113" s="80"/>
+      <c r="C113" s="80"/>
+      <c r="D113" s="54" t="s">
+        <v>337</v>
+      </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
-      <c r="G113" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="H113" s="40"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="40"/>
-      <c r="K113" s="40"/>
+      <c r="G113" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="H113" s="68"/>
+      <c r="I113" s="68"/>
+      <c r="J113" s="68"/>
+      <c r="K113" s="69"/>
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
+      <c r="N113" s="12">
+        <f>3.5*10</f>
+        <v>35</v>
+      </c>
+      <c r="O113" s="12">
+        <f>SUM($N$2:N113)</f>
+        <v>233.65092362949309</v>
+      </c>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
       <c r="T113" s="12"/>
-    </row>
-    <row r="114" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="40"/>
-      <c r="B114" s="63"/>
-      <c r="C114" s="67"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="12"/>
+    </row>
+    <row r="114" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="78"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="80"/>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
-      <c r="G114" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="H114" s="40"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="40"/>
-      <c r="K114" s="40"/>
+      <c r="G114" s="117" t="s">
+        <v>388</v>
+      </c>
+      <c r="H114" s="118"/>
+      <c r="I114" s="118"/>
+      <c r="J114" s="118"/>
+      <c r="K114" s="115"/>
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
+      <c r="N114" s="12">
+        <f>9*4</f>
+        <v>36</v>
+      </c>
+      <c r="O114" s="12">
+        <f>SUM($N$2:N114)</f>
+        <v>269.65092362949309</v>
+      </c>
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
       <c r="S114" s="12"/>
       <c r="T114" s="12"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A115" s="60"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A116" s="60"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A117" s="60"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A118" s="60"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+    </row>
+    <row r="115" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="82">
+        <v>21</v>
+      </c>
+      <c r="B115" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="C115" s="80"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="75" t="s">
+        <v>387</v>
+      </c>
+      <c r="H115" s="75"/>
+      <c r="I115" s="75"/>
+      <c r="J115" s="75"/>
+      <c r="K115" s="75"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12">
+        <f>SUM($N$2:N115)</f>
+        <v>269.65092362949309</v>
+      </c>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="12"/>
+      <c r="W115" s="12"/>
+    </row>
+    <row r="116" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="86"/>
+      <c r="B116" s="77"/>
+      <c r="C116" s="80"/>
+      <c r="D116" s="114" t="s">
+        <v>376</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="H116" s="68"/>
+      <c r="I116" s="68"/>
+      <c r="J116" s="68"/>
+      <c r="K116" s="69"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="O116" s="12">
+        <f>SUM($N$2:N116)</f>
+        <v>271.4509236294931</v>
+      </c>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+    </row>
+    <row r="117" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="86"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="81"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="75" t="s">
+        <v>378</v>
+      </c>
+      <c r="H117" s="75"/>
+      <c r="I117" s="75"/>
+      <c r="J117" s="75"/>
+      <c r="K117" s="75"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12">
+        <f>SUM($N$2:N117)</f>
+        <v>271.4509236294931</v>
+      </c>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+    </row>
+    <row r="118" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="78">
+        <v>22</v>
+      </c>
+      <c r="B118" s="118" t="s">
+        <v>327</v>
+      </c>
+      <c r="C118" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="D118" s="124" t="s">
+        <v>380</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="H118" s="75"/>
+      <c r="I118" s="75"/>
+      <c r="J118" s="75"/>
+      <c r="K118" s="75"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="O118" s="12">
+        <f>SUM($N$2:N118)</f>
+        <v>272.15092362949309</v>
+      </c>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="12"/>
+    </row>
+    <row r="119" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="78"/>
+      <c r="B119" s="118"/>
+      <c r="C119" s="72"/>
+      <c r="D119" s="124"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="77" t="s">
+        <v>389</v>
+      </c>
+      <c r="H119" s="75"/>
+      <c r="I119" s="75"/>
+      <c r="J119" s="75"/>
+      <c r="K119" s="75"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12">
+        <f>SUM($N$2:N119)</f>
+        <v>272.15092362949309</v>
+      </c>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A120" s="78"/>
+      <c r="B120" s="79" t="s">
+        <v>393</v>
+      </c>
+      <c r="C120" s="72"/>
+      <c r="G120" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="H120" s="75"/>
+      <c r="I120" s="75"/>
+      <c r="J120" s="75"/>
+      <c r="K120" s="75"/>
+      <c r="O120" s="12">
+        <f>SUM($N$2:N120)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A121" s="78"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="72"/>
+      <c r="O121" s="12">
+        <f>SUM($N$2:N121)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A122" s="78"/>
+      <c r="B122" s="80"/>
+      <c r="C122" s="72"/>
+      <c r="O122" s="12">
+        <f>SUM($N$2:N122)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A123" s="78"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="72"/>
+      <c r="O123" s="12">
+        <f>SUM($N$2:N123)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A124" s="78"/>
+      <c r="B124" s="80"/>
+      <c r="C124" s="72"/>
+      <c r="O124" s="12">
+        <f>SUM($N$2:N124)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A125" s="78"/>
+      <c r="B125" s="80"/>
+      <c r="C125" s="72"/>
+      <c r="O125" s="12">
+        <f>SUM($N$2:N125)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A126" s="78">
+        <v>23</v>
+      </c>
+      <c r="B126" s="80"/>
+      <c r="C126" s="72"/>
+      <c r="O126" s="12">
+        <f>SUM($N$2:N126)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A127" s="78"/>
+      <c r="B127" s="80"/>
+      <c r="C127" s="72"/>
+      <c r="O127" s="12">
+        <f>SUM($N$2:N127)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A128" s="78"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="72"/>
+      <c r="O128" s="12">
+        <f>SUM($N$2:N128)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A129" s="78"/>
+      <c r="B129" s="80"/>
+      <c r="C129" s="72"/>
+      <c r="O129" s="12">
+        <f>SUM($N$2:N129)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A130" s="78"/>
+      <c r="B130" s="80"/>
+      <c r="C130" s="72"/>
+      <c r="O130" s="12">
+        <f>SUM($N$2:N130)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A131" s="78"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="72"/>
+      <c r="O131" s="12">
+        <f>SUM($N$2:N131)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A132" s="78"/>
+      <c r="B132" s="81"/>
+      <c r="C132" s="72"/>
+      <c r="O132" s="25">
+        <f>SUM($N$2:N132)</f>
+        <v>272.15092362949309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O133" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="180">
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="G110:K110"/>
+  <mergeCells count="191">
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="B105:B106"/>
     <mergeCell ref="G111:K111"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="G113:K113"/>
-    <mergeCell ref="G114:K114"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="C101:C109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="G109:K109"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="G103:K103"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="G105:K105"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="G97:K97"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="G95:K95"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="G87:K87"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="G93:K93"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A125"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A68"/>
     <mergeCell ref="A69:A72"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="A57:A68"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="C118:C132"/>
+    <mergeCell ref="B120:B132"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="C46:C55"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="F24:F32"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="G17:K17"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="D2:D5"/>
@@ -11348,47 +12660,134 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="F23:F30"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="B2:B35"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="C47:C56"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="A47:A57"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="G50:K50"/>
     <mergeCell ref="G41:K41"/>
     <mergeCell ref="G42:K42"/>
     <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G44:K44"/>
     <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="B34:B72"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="B36:B75"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="F71:F75"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="G87:K87"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="A90:A96"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="G95:K95"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="G101:K101"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="G105:K105"/>
+    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="C63:C70"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="G115:K115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/gd/数值规划/成长数值相关/功能开放及引导初稿.xlsx
+++ b/gd/数值规划/成长数值相关/功能开放及引导初稿.xlsx
@@ -2256,7 +2256,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此时玩家</t>
+    <t>此时玩家++</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2665,7 +2665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2828,6 +2828,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2844,7 +2866,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2853,60 +2875,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2918,73 +2886,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3002,21 +2928,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3027,20 +2946,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3068,6 +3077,7 @@
       <sheetName val="参考"/>
       <sheetName val="Q&amp;A"/>
       <sheetName val="玩家历程（未完成）"/>
+      <sheetName val="产出消耗流图"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4073,6 +4083,7 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4414,11 +4425,11 @@
         <v>474</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -4508,7 +4519,7 @@
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="86" t="s">
         <v>462</v>
       </c>
       <c r="L3" s="7"/>
@@ -4552,7 +4563,7 @@
       <c r="J4" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K4" s="78"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="7"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -4596,7 +4607,7 @@
       <c r="J5" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="K5" s="78"/>
+      <c r="K5" s="86"/>
       <c r="L5" s="7"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -4638,7 +4649,7 @@
       <c r="J6" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K6" s="78"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="7"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -4680,7 +4691,7 @@
       <c r="J7" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="K7" s="78"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="7"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -4721,7 +4732,7 @@
         <v>456</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="85" t="s">
         <v>455</v>
       </c>
       <c r="K8" s="7"/>
@@ -4763,7 +4774,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="77"/>
+      <c r="J9" s="85"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="1"/>
@@ -4803,7 +4814,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="77"/>
+      <c r="J10" s="85"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="1"/>
@@ -7331,7 +7342,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="AD13" s="79" t="s">
+      <c r="AD13" s="87" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7357,7 +7368,7 @@
       <c r="T14" t="s">
         <v>424</v>
       </c>
-      <c r="AD14" s="79"/>
+      <c r="AD14" s="87"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="N15" t="s">
@@ -7653,10 +7664,10 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A31" s="136">
+      <c r="A31" s="79">
         <v>1</v>
       </c>
-      <c r="B31" s="80">
+      <c r="B31" s="88">
         <v>1</v>
       </c>
       <c r="D31">
@@ -7680,7 +7691,7 @@
         <v>20</v>
       </c>
       <c r="K31">
-        <f>G31*$K$29</f>
+        <f t="shared" ref="K31:K50" si="0">G31*$K$29</f>
         <v>6</v>
       </c>
       <c r="M31">
@@ -7690,10 +7701,10 @@
         <v>20</v>
       </c>
       <c r="O31">
-        <f>L31+J31+K31</f>
+        <f t="shared" ref="O31:O39" si="1">L31+J31+K31</f>
         <v>26</v>
       </c>
-      <c r="P31" s="136">
+      <c r="P31" s="79">
         <f>SUM($N$31:N31)</f>
         <v>20</v>
       </c>
@@ -7702,7 +7713,7 @@
       <c r="A32">
         <v>2</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="88"/>
       <c r="D32">
         <v>1</v>
       </c>
@@ -7719,7 +7730,7 @@
         <v>20</v>
       </c>
       <c r="K32">
-        <f>G32*$K$29</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M32">
@@ -7729,7 +7740,7 @@
         <v>30</v>
       </c>
       <c r="O32">
-        <f>L32+J32+K32</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="P32">
@@ -7738,10 +7749,10 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="136">
+      <c r="A33" s="79">
         <v>3</v>
       </c>
-      <c r="B33" s="80"/>
+      <c r="B33" s="88"/>
       <c r="D33">
         <v>1</v>
       </c>
@@ -7764,17 +7775,17 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <f>G33*$K$29</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="M33">
         <v>2</v>
       </c>
       <c r="O33">
-        <f>L33+J33+K33</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="P33" s="136">
+      <c r="P33" s="79">
         <f>SUM($N$31:N33)</f>
         <v>50</v>
       </c>
@@ -7783,7 +7794,7 @@
       <c r="A34">
         <v>4</v>
       </c>
-      <c r="B34" s="80"/>
+      <c r="B34" s="88"/>
       <c r="D34">
         <v>1</v>
       </c>
@@ -7800,7 +7811,7 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <f>G34*$K$29</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="M34">
@@ -7810,7 +7821,7 @@
         <v>40</v>
       </c>
       <c r="O34">
-        <f>L34+J34+K34</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="P34">
@@ -7822,7 +7833,7 @@
       <c r="A35">
         <v>5</v>
       </c>
-      <c r="B35" s="80"/>
+      <c r="B35" s="88"/>
       <c r="D35">
         <v>1</v>
       </c>
@@ -7845,17 +7856,17 @@
         <v>75</v>
       </c>
       <c r="K35">
-        <f>G35*$K$29</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="M35">
         <v>3</v>
       </c>
       <c r="O35">
-        <f>L35+J35+K35</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="P35" s="136">
+      <c r="P35" s="79">
         <f>SUM($N$31:N35)</f>
         <v>90</v>
       </c>
@@ -7864,7 +7875,7 @@
       <c r="A36">
         <v>6</v>
       </c>
-      <c r="B36" s="80"/>
+      <c r="B36" s="88"/>
       <c r="D36">
         <v>1</v>
       </c>
@@ -7881,7 +7892,7 @@
         <v>75</v>
       </c>
       <c r="K36">
-        <f>G36*$K$29</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="M36">
@@ -7891,7 +7902,7 @@
         <v>50</v>
       </c>
       <c r="O36">
-        <f>L36+J36+K36</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="P36">
@@ -7903,7 +7914,7 @@
       <c r="A37">
         <v>7</v>
       </c>
-      <c r="B37" s="80"/>
+      <c r="B37" s="88"/>
       <c r="D37">
         <v>1</v>
       </c>
@@ -7920,14 +7931,14 @@
         <v>75</v>
       </c>
       <c r="K37">
-        <f>G37*$K$29</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="M37">
         <v>4</v>
       </c>
       <c r="O37">
-        <f>L37+J37+K37</f>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="P37">
@@ -7939,7 +7950,7 @@
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38" s="80"/>
+      <c r="B38" s="88"/>
       <c r="D38">
         <v>1</v>
       </c>
@@ -7962,14 +7973,14 @@
         <v>110</v>
       </c>
       <c r="K38">
-        <f>G38*$K$29</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="M38">
         <v>4</v>
       </c>
       <c r="O38">
-        <f>L38+J38+K38</f>
+        <f t="shared" si="1"/>
         <v>158</v>
       </c>
       <c r="P38">
@@ -7981,7 +7992,7 @@
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39" s="80">
+      <c r="B39" s="88">
         <v>2</v>
       </c>
       <c r="D39">
@@ -8000,14 +8011,14 @@
         <v>110</v>
       </c>
       <c r="K39">
-        <f>G39*$K$29</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="M39">
         <v>4</v>
       </c>
       <c r="O39">
-        <f>L39+J39+K39</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="P39">
@@ -8019,7 +8030,7 @@
       <c r="A40">
         <v>2</v>
       </c>
-      <c r="B40" s="80"/>
+      <c r="B40" s="88"/>
       <c r="D40">
         <v>1</v>
       </c>
@@ -8036,7 +8047,7 @@
         <v>110</v>
       </c>
       <c r="K40">
-        <f>G40*$K$29</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="L40">
@@ -8053,7 +8064,7 @@
         <f>L37+J37+K37</f>
         <v>117</v>
       </c>
-      <c r="P40" s="136">
+      <c r="P40" s="79">
         <f>SUM($N$31:N40)</f>
         <v>170</v>
       </c>
@@ -8062,7 +8073,7 @@
       <c r="A41">
         <v>3</v>
       </c>
-      <c r="B41" s="80"/>
+      <c r="B41" s="88"/>
       <c r="C41">
         <v>3</v>
       </c>
@@ -8082,7 +8093,7 @@
         <v>110</v>
       </c>
       <c r="K41">
-        <f>G41*$K$29</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="L41">
@@ -8108,7 +8119,7 @@
       <c r="A42">
         <v>4</v>
       </c>
-      <c r="B42" s="80"/>
+      <c r="B42" s="88"/>
       <c r="C42">
         <v>5</v>
       </c>
@@ -8128,7 +8139,7 @@
         <v>110</v>
       </c>
       <c r="K42">
-        <f>G42*$K$29</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="M42">
@@ -8141,7 +8152,7 @@
         <f>L39+J39+K39</f>
         <v>164</v>
       </c>
-      <c r="P42" s="136">
+      <c r="P42" s="79">
         <f>SUM($N$31:N42)</f>
         <v>245</v>
       </c>
@@ -8150,7 +8161,7 @@
       <c r="A43">
         <v>5</v>
       </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="88"/>
       <c r="D43">
         <v>1</v>
       </c>
@@ -8167,7 +8178,7 @@
         <v>110</v>
       </c>
       <c r="K43">
-        <f>G43*$K$29</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="M43">
@@ -8189,7 +8200,7 @@
       <c r="A44">
         <v>6</v>
       </c>
-      <c r="B44" s="80"/>
+      <c r="B44" s="88"/>
       <c r="D44">
         <v>1</v>
       </c>
@@ -8206,7 +8217,7 @@
         <v>110</v>
       </c>
       <c r="K44">
-        <f>G44*$K$29</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="M44">
@@ -8219,7 +8230,7 @@
         <f>L41+J41+K41</f>
         <v>304</v>
       </c>
-      <c r="P44" s="136">
+      <c r="P44" s="79">
         <f>SUM($N$31:N44)</f>
         <v>340</v>
       </c>
@@ -8228,7 +8239,7 @@
       <c r="A45">
         <v>7</v>
       </c>
-      <c r="B45" s="80"/>
+      <c r="B45" s="88"/>
       <c r="D45">
         <v>1</v>
       </c>
@@ -8245,7 +8256,7 @@
         <v>110</v>
       </c>
       <c r="K45">
-        <f>G45*$K$29</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
       <c r="M45" s="4">
@@ -8263,7 +8274,7 @@
       <c r="A46">
         <v>8</v>
       </c>
-      <c r="B46" s="80"/>
+      <c r="B46" s="88"/>
       <c r="D46">
         <v>1</v>
       </c>
@@ -8280,7 +8291,7 @@
         <v>110</v>
       </c>
       <c r="K46">
-        <f>G46*$K$29</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="M46">
@@ -8289,7 +8300,7 @@
       <c r="N46">
         <v>130</v>
       </c>
-      <c r="P46" s="136">
+      <c r="P46" s="79">
         <f>SUM($N$31:N46)</f>
         <v>575</v>
       </c>
@@ -8308,7 +8319,7 @@
         <v>110</v>
       </c>
       <c r="K47">
-        <f>G47*$K$29</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="M47" s="5">
@@ -8336,7 +8347,7 @@
         <v>110</v>
       </c>
       <c r="K48">
-        <f>G48*$K$29</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="M48">
@@ -8360,7 +8371,7 @@
         <v>110</v>
       </c>
       <c r="K49">
-        <f>G49*$K$29</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="M49" s="5">
@@ -8384,7 +8395,7 @@
         <v>110</v>
       </c>
       <c r="K50">
-        <f>G50*$K$29</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="M50">
@@ -8606,11 +8617,11 @@
         <v>52</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -8700,7 +8711,7 @@
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="86" t="s">
         <v>134</v>
       </c>
       <c r="L3" s="7"/>
@@ -8744,7 +8755,7 @@
       <c r="J4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="78"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="7"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -8788,7 +8799,7 @@
       <c r="J5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="78"/>
+      <c r="K5" s="86"/>
       <c r="L5" s="7"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -8830,7 +8841,7 @@
       <c r="J6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="78"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="7"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -8872,7 +8883,7 @@
       <c r="J7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="78"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="7"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -8913,7 +8924,7 @@
         <v>75</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="77" t="s">
+      <c r="J8" s="85" t="s">
         <v>126</v>
       </c>
       <c r="K8" s="7"/>
@@ -8955,7 +8966,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="77"/>
+      <c r="J9" s="85"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="1"/>
@@ -8995,7 +9006,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="77"/>
+      <c r="J10" s="85"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="1"/>
@@ -11525,7 +11536,7 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="AB13" s="79" t="s">
+      <c r="AB13" s="87" t="s">
         <v>41</v>
       </c>
     </row>
@@ -11551,7 +11562,7 @@
       <c r="R14" t="s">
         <v>30</v>
       </c>
-      <c r="AB14" s="79"/>
+      <c r="AB14" s="87"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
@@ -11841,7 +11852,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="80">
+      <c r="B31" s="88">
         <v>1</v>
       </c>
       <c r="D31">
@@ -11874,7 +11885,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="80"/>
+      <c r="B32" s="88"/>
       <c r="D32">
         <v>1</v>
       </c>
@@ -11891,7 +11902,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="80"/>
+      <c r="B33" s="88"/>
       <c r="D33">
         <v>1</v>
       </c>
@@ -11908,7 +11919,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="80"/>
+      <c r="B34" s="88"/>
       <c r="D34">
         <v>1</v>
       </c>
@@ -11936,7 +11947,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="80"/>
+      <c r="B35" s="88"/>
       <c r="D35">
         <v>1</v>
       </c>
@@ -11964,7 +11975,7 @@
       </c>
     </row>
     <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="80"/>
+      <c r="B36" s="88"/>
       <c r="D36">
         <v>1</v>
       </c>
@@ -11992,7 +12003,7 @@
       </c>
     </row>
     <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="80"/>
+      <c r="B37" s="88"/>
       <c r="D37">
         <v>1</v>
       </c>
@@ -12020,7 +12031,7 @@
       </c>
     </row>
     <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="80"/>
+      <c r="B38" s="88"/>
       <c r="D38">
         <v>1</v>
       </c>
@@ -12048,7 +12059,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="80">
+      <c r="B39" s="88">
         <v>2</v>
       </c>
       <c r="C39">
@@ -12085,7 +12096,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="80"/>
+      <c r="B40" s="88"/>
       <c r="C40">
         <v>3</v>
       </c>
@@ -12112,7 +12123,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="80"/>
+      <c r="B41" s="88"/>
       <c r="C41">
         <v>4</v>
       </c>
@@ -12139,7 +12150,7 @@
       </c>
     </row>
     <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="80"/>
+      <c r="B42" s="88"/>
       <c r="C42">
         <v>5</v>
       </c>
@@ -12162,7 +12173,7 @@
       </c>
     </row>
     <row r="43" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="80"/>
+      <c r="B43" s="88"/>
       <c r="D43">
         <v>1</v>
       </c>
@@ -12182,7 +12193,7 @@
       </c>
     </row>
     <row r="44" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="80"/>
+      <c r="B44" s="88"/>
       <c r="D44">
         <v>1</v>
       </c>
@@ -12198,7 +12209,7 @@
       </c>
     </row>
     <row r="45" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="80"/>
+      <c r="B45" s="88"/>
       <c r="D45">
         <v>1</v>
       </c>
@@ -12214,7 +12225,7 @@
       </c>
     </row>
     <row r="46" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="80"/>
+      <c r="B46" s="88"/>
       <c r="D46">
         <v>1</v>
       </c>
@@ -12451,7 +12462,7 @@
   <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
@@ -12493,13 +12504,13 @@
       <c r="F1" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
       <c r="L1" s="67" t="s">
         <v>483</v>
       </c>
@@ -12562,29 +12573,29 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="122">
+      <c r="A2" s="118">
         <v>1</v>
       </c>
-      <c r="B2" s="86">
+      <c r="B2" s="89">
         <v>1</v>
       </c>
-      <c r="C2" s="103">
+      <c r="C2" s="93">
         <v>1</v>
       </c>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="121" t="s">
         <v>175</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>140</v>
       </c>
       <c r="F2" s="12"/>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
       <c r="N2" s="72" t="s">
@@ -12612,19 +12623,19 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="139"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="121"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
       <c r="N3" s="65" t="s">
@@ -12632,7 +12643,7 @@
       </c>
       <c r="O3" s="20"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="129">
+      <c r="Q3" s="105">
         <v>1</v>
       </c>
       <c r="R3" s="12">
@@ -12652,26 +12663,26 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="123"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="139"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="112" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="117"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="125"/>
       <c r="L4" s="69" t="s">
         <v>481</v>
       </c>
-      <c r="M4" s="147"/>
+      <c r="M4" s="83"/>
       <c r="O4" s="22"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="130"/>
+      <c r="Q4" s="106"/>
       <c r="R4" s="12">
         <f>SUM($Q$2:Q4)</f>
         <v>3</v>
@@ -12691,19 +12702,19 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="123"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="139"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="92"/>
       <c r="L5" s="65" t="s">
         <v>484</v>
       </c>
@@ -12735,9 +12746,9 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="123"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="104"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="14" t="s">
         <v>142</v>
       </c>
@@ -12747,13 +12758,13 @@
       <c r="F6" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
       <c r="N6" s="67"/>
@@ -12781,10 +12792,10 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="123"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="125" t="s">
+      <c r="A7" s="119"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="122" t="s">
         <v>143</v>
       </c>
       <c r="E7" s="12">
@@ -12793,13 +12804,13 @@
       <c r="F7" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="65"/>
       <c r="M7" s="65"/>
       <c r="N7" s="65"/>
@@ -12814,7 +12825,7 @@
       </c>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
-      <c r="U7" s="127" t="s">
+      <c r="U7" s="116" t="s">
         <v>185</v>
       </c>
       <c r="V7" s="16"/>
@@ -12827,23 +12838,23 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="123"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="126"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="12">
         <v>3</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
       <c r="L8" s="72" t="s">
         <v>485</v>
       </c>
@@ -12862,7 +12873,7 @@
       <c r="T8" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="U8" s="127"/>
+      <c r="U8" s="116"/>
       <c r="V8" s="16"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
@@ -12893,21 +12904,21 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="123"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="104"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="14" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
       <c r="L9" s="70"/>
       <c r="M9" s="70"/>
       <c r="N9" s="70"/>
@@ -12942,25 +12953,25 @@
       <c r="AE9" s="4"/>
     </row>
     <row r="10" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="123"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="105"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="14" t="s">
         <v>477</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="113" t="s">
         <v>478</v>
       </c>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="143" t="s">
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="82" t="s">
         <v>488</v>
       </c>
-      <c r="M10" s="143"/>
+      <c r="M10" s="82"/>
       <c r="N10" s="70"/>
       <c r="O10" s="70"/>
       <c r="P10" s="24"/>
@@ -12981,9 +12992,9 @@
       <c r="AE10" s="4"/>
     </row>
     <row r="11" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="124"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="103">
+      <c r="A11" s="120"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="93">
         <v>2</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -12993,13 +13004,13 @@
       <c r="F11" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
       <c r="N11" s="67" t="s">
@@ -13032,11 +13043,11 @@
       <c r="AE11" s="4"/>
     </row>
     <row r="12" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="86">
+      <c r="A12" s="89">
         <v>2</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="104"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="14" t="s">
         <v>149</v>
       </c>
@@ -13044,13 +13055,13 @@
         <v>140</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="84"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
       <c r="L12" s="12"/>
       <c r="M12" s="59"/>
       <c r="N12" s="69" t="s">
@@ -13083,23 +13094,23 @@
       <c r="AE12" s="4"/>
     </row>
     <row r="13" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="125" t="s">
+      <c r="A13" s="89"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="122" t="s">
         <v>143</v>
       </c>
       <c r="E13" s="12">
         <v>1</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="115" t="s">
+      <c r="G13" s="112" t="s">
         <v>489</v>
       </c>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="117"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="125"/>
       <c r="N13" s="69" t="s">
         <v>490</v>
       </c>
@@ -13115,7 +13126,7 @@
       </c>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="111"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
@@ -13131,25 +13142,25 @@
       <c r="AE13" s="4"/>
     </row>
     <row r="14" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="126"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="123"/>
       <c r="E14" s="12">
         <v>3</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="143" t="s">
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="82" t="s">
         <v>492</v>
       </c>
-      <c r="M14" s="143"/>
+      <c r="M14" s="82"/>
       <c r="N14" s="65"/>
       <c r="O14" s="20"/>
       <c r="P14" s="12"/>
@@ -13162,7 +13173,7 @@
       </c>
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="111"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
@@ -13191,9 +13202,9 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="105"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="14" t="s">
         <v>147</v>
       </c>
@@ -13201,13 +13212,13 @@
         <v>150</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
       <c r="L15" s="67"/>
       <c r="M15" s="67"/>
       <c r="N15" s="67"/>
@@ -13244,9 +13255,9 @@
       <c r="AE15" s="4"/>
     </row>
     <row r="16" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="103">
+      <c r="A16" s="89"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="93">
         <v>3</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -13254,13 +13265,13 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="111" t="s">
         <v>493</v>
       </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
       <c r="L16" s="67"/>
       <c r="M16" s="67"/>
       <c r="N16" s="67"/>
@@ -13291,9 +13302,9 @@
       <c r="AE16" s="4"/>
     </row>
     <row r="17" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="104"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="14" t="s">
         <v>145</v>
       </c>
@@ -13301,17 +13312,17 @@
         <v>1</v>
       </c>
       <c r="F17" s="12"/>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
       <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="21"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="77"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12">
         <f>2.78</f>
@@ -13343,29 +13354,29 @@
       <c r="AE17" s="4"/>
     </row>
     <row r="18" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="86">
+      <c r="A18" s="89">
         <v>3</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="105"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="14" t="s">
         <v>153</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="82" t="s">
+      <c r="G18" s="90" t="s">
         <v>310</v>
       </c>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="84"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
       <c r="L18" s="65" t="s">
         <v>496</v>
       </c>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="21"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="77"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12">
         <v>2</v>
@@ -13397,9 +13408,9 @@
       <c r="AE18" s="4"/>
     </row>
     <row r="19" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="103">
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="93">
         <v>4</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -13409,17 +13420,18 @@
       <c r="F19" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="111" t="s">
         <v>494</v>
       </c>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
       <c r="L19" s="65" t="s">
         <v>495</v>
       </c>
-      <c r="M19" s="138"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="12"/>
       <c r="O19" s="20"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12">
@@ -13462,25 +13474,25 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="104"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="14" t="s">
         <v>142</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="81" t="s">
+      <c r="G20" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
       <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="21"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="77"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12">
         <v>0.7</v>
@@ -13507,27 +13519,27 @@
       <c r="AE20" s="4"/>
     </row>
     <row r="21" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="104"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="14" t="s">
         <v>143</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="111" t="s">
         <v>497</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
       <c r="L21" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="21"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="77"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12">
         <v>3.1</v>
@@ -13558,25 +13570,25 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="103" t="s">
+      <c r="A22" s="89"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="93" t="s">
         <v>147</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
       <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="21"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="77"/>
       <c r="P22" s="24" t="s">
         <v>166</v>
       </c>
@@ -13602,25 +13614,25 @@
       <c r="AE22" s="4"/>
     </row>
     <row r="23" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="82" t="s">
+      <c r="G23" s="90" t="s">
         <v>344</v>
       </c>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
       <c r="L23" s="69" t="s">
         <v>499</v>
       </c>
-      <c r="M23" s="69"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="28" t="s">
+      <c r="M23" s="78"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="77" t="s">
         <v>346</v>
       </c>
       <c r="P23" s="12" t="s">
@@ -13655,11 +13667,11 @@
       <c r="AE23" s="4"/>
     </row>
     <row r="24" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="86">
+      <c r="A24" s="89">
         <v>4</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="103">
+      <c r="B24" s="89"/>
+      <c r="C24" s="93">
         <v>5</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -13669,19 +13681,19 @@
       <c r="F24" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="81" t="s">
+      <c r="G24" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
       <c r="L24" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="21"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="77"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12">
         <v>0.3</v>
@@ -13710,23 +13722,23 @@
       <c r="AE24" s="4"/>
     </row>
     <row r="25" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="104"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="14" t="s">
         <v>143</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="90" t="s">
+      <c r="F25" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="G25" s="81" t="s">
+      <c r="G25" s="111" t="s">
         <v>159</v>
       </c>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
       <c r="L25" s="67"/>
       <c r="M25" s="67"/>
       <c r="N25" s="67"/>
@@ -13762,21 +13774,21 @@
       <c r="AE25" s="4"/>
     </row>
     <row r="26" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="103" t="s">
+      <c r="A26" s="89"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="93" t="s">
         <v>147</v>
       </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="81" t="s">
+      <c r="F26" s="98"/>
+      <c r="G26" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
       <c r="L26" s="67"/>
       <c r="M26" s="67"/>
       <c r="N26" s="67"/>
@@ -13807,19 +13819,19 @@
       <c r="AE26" s="4"/>
     </row>
     <row r="27" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="82" t="s">
+      <c r="F27" s="98"/>
+      <c r="G27" s="90" t="s">
         <v>350</v>
       </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
       <c r="L27" s="65"/>
       <c r="M27" s="65"/>
       <c r="N27" s="65"/>
@@ -13847,23 +13859,23 @@
       <c r="AE27" s="4"/>
     </row>
     <row r="28" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="128">
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="117">
         <v>6</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>163</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="81" t="s">
+      <c r="F28" s="98"/>
+      <c r="G28" s="111" t="s">
         <v>351</v>
       </c>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
       <c r="L28" s="67"/>
       <c r="M28" s="67"/>
       <c r="N28" s="67"/>
@@ -13905,23 +13917,23 @@
       </c>
     </row>
     <row r="29" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="86">
+      <c r="A29" s="89">
         <v>5</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="128"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="117"/>
       <c r="D29" s="26" t="s">
         <v>164</v>
       </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="81" t="s">
+      <c r="F29" s="98"/>
+      <c r="G29" s="111" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
       <c r="L29" s="67"/>
       <c r="M29" s="67"/>
       <c r="N29" s="67"/>
@@ -13952,21 +13964,21 @@
       <c r="AE29" s="4"/>
     </row>
     <row r="30" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="128"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="117"/>
       <c r="D30" s="26" t="s">
         <v>165</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="81" t="s">
+      <c r="F30" s="98"/>
+      <c r="G30" s="111" t="s">
         <v>170</v>
       </c>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
       <c r="L30" s="67"/>
       <c r="M30" s="67"/>
       <c r="N30" s="67"/>
@@ -13999,23 +14011,23 @@
       <c r="AE30" s="4"/>
     </row>
     <row r="31" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="128">
+      <c r="A31" s="89"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="117">
         <v>7</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>163</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="81" t="s">
+      <c r="F31" s="98"/>
+      <c r="G31" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
       <c r="L31" s="67"/>
       <c r="M31" s="67"/>
       <c r="N31" s="67"/>
@@ -14052,21 +14064,21 @@
       <c r="AE31" s="4"/>
     </row>
     <row r="32" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="128"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="117"/>
       <c r="D32" s="26" t="s">
         <v>164</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="82" t="s">
+      <c r="F32" s="98"/>
+      <c r="G32" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="84"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="92"/>
       <c r="L32" s="65"/>
       <c r="M32" s="65"/>
       <c r="N32" s="65"/>
@@ -14094,21 +14106,21 @@
       <c r="AE32" s="4"/>
     </row>
     <row r="33" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="128"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="55" t="s">
         <v>341</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="82" t="s">
+      <c r="F33" s="98"/>
+      <c r="G33" s="90" t="s">
         <v>361</v>
       </c>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="92"/>
       <c r="L33" s="65"/>
       <c r="M33" s="65"/>
       <c r="N33" s="65"/>
@@ -14143,11 +14155,11 @@
       <c r="AE33" s="4"/>
     </row>
     <row r="34" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="86">
+      <c r="A34" s="89">
         <v>6</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="128">
+      <c r="B34" s="89"/>
+      <c r="C34" s="117">
         <v>8</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -14155,13 +14167,13 @@
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="81" t="s">
+      <c r="G34" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
       <c r="L34" s="67"/>
       <c r="M34" s="67"/>
       <c r="N34" s="67"/>
@@ -14195,21 +14207,21 @@
       </c>
     </row>
     <row r="35" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="86"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="128"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="26" t="s">
         <v>164</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="81" t="s">
+      <c r="G35" s="111" t="s">
         <v>171</v>
       </c>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
       <c r="L35" s="67"/>
       <c r="M35" s="67"/>
       <c r="N35" s="67"/>
@@ -14248,21 +14260,21 @@
       </c>
     </row>
     <row r="36" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="86"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="128"/>
+      <c r="A36" s="89"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="117"/>
       <c r="D36" s="26" t="s">
         <v>165</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="81" t="s">
+      <c r="G36" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
       <c r="L36" s="67"/>
       <c r="M36" s="67"/>
       <c r="N36" s="67"/>
@@ -14310,13 +14322,13 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="86">
+      <c r="A37" s="89">
         <v>7</v>
       </c>
-      <c r="B37" s="86">
+      <c r="B37" s="89">
         <v>2</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="110" t="s">
         <v>269</v>
       </c>
       <c r="D37" s="26" t="s">
@@ -14324,13 +14336,13 @@
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="81" t="s">
+      <c r="G37" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
       <c r="L37" s="67"/>
       <c r="M37" s="67"/>
       <c r="N37" s="67"/>
@@ -14364,21 +14376,21 @@
       </c>
     </row>
     <row r="38" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="86"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="119"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="82" t="s">
+      <c r="G38" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="84"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="92"/>
       <c r="L38" s="65"/>
       <c r="M38" s="65"/>
       <c r="N38" s="65"/>
@@ -14412,21 +14424,21 @@
       </c>
     </row>
     <row r="39" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="119"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="26" t="s">
         <v>164</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="82" t="s">
+      <c r="G39" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="84"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="92"/>
       <c r="L39" s="65"/>
       <c r="M39" s="65"/>
       <c r="N39" s="65"/>
@@ -14462,21 +14474,21 @@
       </c>
     </row>
     <row r="40" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="86"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="119"/>
+      <c r="A40" s="89"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="110"/>
       <c r="D40" s="26" t="s">
         <v>189</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="82" t="s">
+      <c r="G40" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="84"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="92"/>
       <c r="L40" s="65"/>
       <c r="M40" s="65"/>
       <c r="N40" s="65"/>
@@ -14520,21 +14532,21 @@
       </c>
     </row>
     <row r="41" spans="1:32" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="86"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="119"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="29" t="s">
         <v>175</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="115" t="s">
+      <c r="G41" s="112" t="s">
         <v>367</v>
       </c>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="84"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="92"/>
       <c r="L41" s="65"/>
       <c r="M41" s="65"/>
       <c r="N41" s="65"/>
@@ -14574,11 +14586,11 @@
       </c>
     </row>
     <row r="42" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="86">
+      <c r="A42" s="89">
         <v>8</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="119" t="s">
+      <c r="B42" s="89"/>
+      <c r="C42" s="110" t="s">
         <v>270</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -14586,13 +14598,13 @@
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="82" t="s">
+      <c r="G42" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="84"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="92"/>
       <c r="L42" s="65"/>
       <c r="M42" s="65"/>
       <c r="N42" s="65"/>
@@ -14622,21 +14634,21 @@
       <c r="AD42" s="48"/>
     </row>
     <row r="43" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="86"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="119"/>
+      <c r="A43" s="89"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="14" t="s">
         <v>356</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="81" t="s">
+      <c r="G43" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
       <c r="L43" s="67"/>
       <c r="M43" s="67"/>
       <c r="N43" s="67"/>
@@ -14666,21 +14678,21 @@
       <c r="AD43" s="48"/>
     </row>
     <row r="44" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="119"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="14" t="s">
         <v>357</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="81" t="s">
+      <c r="G44" s="111" t="s">
         <v>358</v>
       </c>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
       <c r="L44" s="67"/>
       <c r="M44" s="67"/>
       <c r="N44" s="67"/>
@@ -14710,21 +14722,21 @@
       <c r="AD44" s="48"/>
     </row>
     <row r="45" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="119"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="110"/>
       <c r="D45" s="14" t="s">
         <v>209</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="81" t="s">
+      <c r="G45" s="111" t="s">
         <v>353</v>
       </c>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
       <c r="L45" s="67"/>
       <c r="M45" s="67"/>
       <c r="N45" s="67"/>
@@ -14756,21 +14768,21 @@
       <c r="AD45" s="48"/>
     </row>
     <row r="46" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="119"/>
+      <c r="A46" s="89"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="110"/>
       <c r="D46" s="14" t="s">
         <v>364</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="81" t="s">
+      <c r="G46" s="111" t="s">
         <v>365</v>
       </c>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
       <c r="L46" s="65"/>
       <c r="M46" s="65"/>
       <c r="N46" s="65"/>
@@ -14800,19 +14812,19 @@
       <c r="AD46" s="48"/>
     </row>
     <row r="47" spans="1:32" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="119"/>
+      <c r="A47" s="89"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="110"/>
       <c r="D47" s="14"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="115" t="s">
+      <c r="G47" s="112" t="s">
         <v>360</v>
       </c>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="84"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="92"/>
       <c r="L47" s="65"/>
       <c r="M47" s="65"/>
       <c r="N47" s="65"/>
@@ -14844,25 +14856,25 @@
       <c r="AD47" s="51"/>
     </row>
     <row r="48" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="86">
+      <c r="A48" s="89">
         <v>9</v>
       </c>
-      <c r="B48" s="86"/>
-      <c r="C48" s="119" t="s">
+      <c r="B48" s="89"/>
+      <c r="C48" s="110" t="s">
         <v>271</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="89" t="s">
         <v>208</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="81" t="s">
+      <c r="G48" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="111"/>
       <c r="L48" s="67"/>
       <c r="M48" s="67"/>
       <c r="N48" s="67"/>
@@ -14892,19 +14904,19 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="86"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="86"/>
+      <c r="A49" s="89"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="89"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="81" t="s">
+      <c r="G49" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
       <c r="L49" s="67"/>
       <c r="M49" s="67"/>
       <c r="N49" s="67"/>
@@ -14928,19 +14940,19 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="86"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="86"/>
+      <c r="A50" s="89"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="89"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="82" t="s">
+      <c r="G50" s="90" t="s">
         <v>363</v>
       </c>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="84"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="92"/>
       <c r="L50" s="65"/>
       <c r="M50" s="65"/>
       <c r="N50" s="65"/>
@@ -14964,21 +14976,21 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="86"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="119"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="110"/>
       <c r="D51" s="19" t="s">
         <v>263</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="82" t="s">
+      <c r="G51" s="90" t="s">
         <v>362</v>
       </c>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="84"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="92"/>
       <c r="L51" s="65"/>
       <c r="M51" s="65"/>
       <c r="N51" s="65"/>
@@ -15004,21 +15016,21 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="103" t="s">
+      <c r="A52" s="89"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="93" t="s">
         <v>209</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="81" t="s">
+      <c r="G52" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
       <c r="L52" s="67"/>
       <c r="M52" s="67"/>
       <c r="N52" s="67"/>
@@ -15044,19 +15056,19 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="86"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="104"/>
+      <c r="A53" s="89"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="94"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="81" t="s">
+      <c r="G53" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="111"/>
+      <c r="K53" s="111"/>
       <c r="L53" s="67"/>
       <c r="M53" s="67"/>
       <c r="N53" s="67"/>
@@ -15082,19 +15094,19 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="104"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="94"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="81" t="s">
+      <c r="G54" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="81"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
       <c r="L54" s="67"/>
       <c r="M54" s="67"/>
       <c r="N54" s="67"/>
@@ -15123,19 +15135,19 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="104"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="94"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="131" t="s">
+      <c r="G55" s="107" t="s">
         <v>359</v>
       </c>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="133"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="108"/>
+      <c r="K55" s="109"/>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
       <c r="N55" s="68"/>
@@ -15159,19 +15171,19 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="86"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="104"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="94"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="81" t="s">
+      <c r="G56" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="111"/>
+      <c r="K56" s="111"/>
       <c r="L56" s="67"/>
       <c r="M56" s="67"/>
       <c r="N56" s="67"/>
@@ -15199,19 +15211,19 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="86"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="105"/>
+      <c r="A57" s="89"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="95"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="81" t="s">
+      <c r="G57" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
+      <c r="H57" s="111"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="111"/>
       <c r="L57" s="67"/>
       <c r="M57" s="67"/>
       <c r="N57" s="67"/>
@@ -15237,23 +15249,23 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="86"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="119" t="s">
+      <c r="A58" s="89"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="D58" s="112" t="s">
+      <c r="D58" s="129" t="s">
         <v>222</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="81" t="s">
+      <c r="G58" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="111"/>
       <c r="L58" s="67"/>
       <c r="M58" s="67"/>
       <c r="N58" s="67"/>
@@ -15279,21 +15291,21 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="103">
+      <c r="A59" s="93">
         <v>10</v>
       </c>
-      <c r="B59" s="86"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="120"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="130"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="81" t="s">
+      <c r="G59" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
-      <c r="K59" s="81"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="111"/>
+      <c r="K59" s="111"/>
       <c r="L59" s="65"/>
       <c r="M59" s="65"/>
       <c r="N59" s="65"/>
@@ -15319,19 +15331,19 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="104"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="113"/>
+      <c r="A60" s="94"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="131"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="82" t="s">
+      <c r="G60" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="84"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="92"/>
       <c r="L60" s="65"/>
       <c r="M60" s="65"/>
       <c r="N60" s="65"/>
@@ -15357,21 +15369,21 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="104"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="118" t="s">
+      <c r="A61" s="94"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="110"/>
+      <c r="D61" s="133" t="s">
         <v>209</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="82" t="s">
+      <c r="G61" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="84"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="92"/>
       <c r="L61" s="65"/>
       <c r="M61" s="65"/>
       <c r="N61" s="65"/>
@@ -15397,19 +15409,19 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="104"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="118"/>
+      <c r="A62" s="94"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="133"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="82" t="s">
+      <c r="G62" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="84"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="92"/>
       <c r="L62" s="65"/>
       <c r="M62" s="65"/>
       <c r="N62" s="65"/>
@@ -15437,19 +15449,19 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="104"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="118"/>
+      <c r="A63" s="94"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="133"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="82" t="s">
+      <c r="G63" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="H63" s="83"/>
-      <c r="I63" s="83"/>
-      <c r="J63" s="83"/>
-      <c r="K63" s="84"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="92"/>
       <c r="L63" s="65"/>
       <c r="M63" s="65"/>
       <c r="N63" s="65"/>
@@ -15478,26 +15490,26 @@
     </row>
     <row r="64" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="66"/>
-      <c r="B64" s="86"/>
-      <c r="C64" s="144" t="s">
+      <c r="B64" s="89"/>
+      <c r="C64" s="102" t="s">
         <v>491</v>
       </c>
-      <c r="D64" s="145"/>
-      <c r="E64" s="145"/>
-      <c r="F64" s="145"/>
-      <c r="G64" s="145"/>
-      <c r="H64" s="145"/>
-      <c r="I64" s="145"/>
-      <c r="J64" s="145"/>
-      <c r="K64" s="145"/>
-      <c r="L64" s="145"/>
-      <c r="M64" s="145"/>
-      <c r="N64" s="145"/>
-      <c r="O64" s="145"/>
-      <c r="P64" s="145"/>
-      <c r="Q64" s="145"/>
-      <c r="R64" s="145"/>
-      <c r="S64" s="146"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="103"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="103"/>
+      <c r="K64" s="103"/>
+      <c r="L64" s="103"/>
+      <c r="M64" s="103"/>
+      <c r="N64" s="103"/>
+      <c r="O64" s="103"/>
+      <c r="P64" s="103"/>
+      <c r="Q64" s="103"/>
+      <c r="R64" s="103"/>
+      <c r="S64" s="104"/>
       <c r="T64" s="12"/>
       <c r="U64" s="12"/>
       <c r="V64" s="12"/>
@@ -15506,27 +15518,27 @@
       <c r="Y64" s="12"/>
     </row>
     <row r="65" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="104">
+      <c r="A65" s="94">
         <v>11</v>
       </c>
-      <c r="B65" s="86"/>
-      <c r="C65" s="93" t="s">
+      <c r="B65" s="89"/>
+      <c r="C65" s="135" t="s">
         <v>235</v>
       </c>
-      <c r="D65" s="96" t="s">
+      <c r="D65" s="127" t="s">
         <v>229</v>
       </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="86" t="s">
+      <c r="F65" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="G65" s="82" t="s">
+      <c r="G65" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="H65" s="83"/>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="84"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="92"/>
       <c r="L65" s="65"/>
       <c r="M65" s="65"/>
       <c r="N65" s="65"/>
@@ -15555,19 +15567,19 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="104"/>
-      <c r="B66" s="86"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="108"/>
+      <c r="A66" s="94"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="134"/>
       <c r="E66" s="12"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="115" t="s">
+      <c r="F66" s="89"/>
+      <c r="G66" s="112" t="s">
         <v>340</v>
       </c>
-      <c r="H66" s="116"/>
-      <c r="I66" s="116"/>
-      <c r="J66" s="116"/>
-      <c r="K66" s="117"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="124"/>
+      <c r="K66" s="125"/>
       <c r="L66" s="69"/>
       <c r="M66" s="69"/>
       <c r="N66" s="69"/>
@@ -15593,19 +15605,19 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="104"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="97"/>
+      <c r="A67" s="94"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="136"/>
+      <c r="D67" s="128"/>
       <c r="E67" s="12"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="81" t="s">
+      <c r="F67" s="89"/>
+      <c r="G67" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="H67" s="81"/>
-      <c r="I67" s="81"/>
-      <c r="J67" s="81"/>
-      <c r="K67" s="81"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="111"/>
+      <c r="K67" s="111"/>
       <c r="L67" s="67"/>
       <c r="M67" s="67"/>
       <c r="N67" s="67"/>
@@ -15631,23 +15643,23 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="104"/>
-      <c r="B68" s="86"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="96" t="s">
+      <c r="A68" s="94"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="136"/>
+      <c r="D68" s="127" t="s">
         <v>230</v>
       </c>
       <c r="E68" s="12"/>
-      <c r="F68" s="90" t="s">
+      <c r="F68" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="G68" s="81" t="s">
+      <c r="G68" s="111" t="s">
         <v>238</v>
       </c>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
-      <c r="J68" s="81"/>
-      <c r="K68" s="81"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
       <c r="L68" s="67"/>
       <c r="M68" s="67"/>
       <c r="N68" s="67"/>
@@ -15671,19 +15683,19 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="104"/>
-      <c r="B69" s="86"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="108"/>
+      <c r="A69" s="94"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="134"/>
       <c r="E69" s="12"/>
-      <c r="F69" s="91"/>
-      <c r="G69" s="81" t="s">
+      <c r="F69" s="98"/>
+      <c r="G69" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="H69" s="81"/>
-      <c r="I69" s="81"/>
-      <c r="J69" s="81"/>
-      <c r="K69" s="81"/>
+      <c r="H69" s="111"/>
+      <c r="I69" s="111"/>
+      <c r="J69" s="111"/>
+      <c r="K69" s="111"/>
       <c r="L69" s="67"/>
       <c r="M69" s="67"/>
       <c r="N69" s="67"/>
@@ -15711,19 +15723,19 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="104"/>
-      <c r="B70" s="86"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="97"/>
+      <c r="A70" s="94"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="136"/>
+      <c r="D70" s="128"/>
       <c r="E70" s="12"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="81" t="s">
+      <c r="F70" s="99"/>
+      <c r="G70" s="111" t="s">
         <v>287</v>
       </c>
-      <c r="H70" s="81"/>
-      <c r="I70" s="81"/>
-      <c r="J70" s="81"/>
-      <c r="K70" s="81"/>
+      <c r="H70" s="111"/>
+      <c r="I70" s="111"/>
+      <c r="J70" s="111"/>
+      <c r="K70" s="111"/>
       <c r="L70" s="67"/>
       <c r="M70" s="67"/>
       <c r="N70" s="67"/>
@@ -15749,23 +15761,23 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="104">
+      <c r="A71" s="94">
         <v>12</v>
       </c>
-      <c r="B71" s="86"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="96" t="s">
+      <c r="B71" s="89"/>
+      <c r="C71" s="136"/>
+      <c r="D71" s="127" t="s">
         <v>366</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="54"/>
-      <c r="G71" s="82" t="s">
+      <c r="G71" s="90" t="s">
         <v>388</v>
       </c>
-      <c r="H71" s="83"/>
-      <c r="I71" s="83"/>
-      <c r="J71" s="83"/>
-      <c r="K71" s="84"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="92"/>
       <c r="L71" s="65"/>
       <c r="M71" s="65"/>
       <c r="N71" s="65"/>
@@ -15787,17 +15799,17 @@
       <c r="Y71" s="12"/>
     </row>
     <row r="72" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="104"/>
-      <c r="B72" s="86"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="97"/>
+      <c r="A72" s="94"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="137"/>
+      <c r="D72" s="128"/>
       <c r="E72" s="12"/>
       <c r="F72" s="54"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="83"/>
-      <c r="J72" s="83"/>
-      <c r="K72" s="84"/>
+      <c r="G72" s="90"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="92"/>
       <c r="L72" s="65"/>
       <c r="M72" s="65"/>
       <c r="N72" s="65"/>
@@ -15819,23 +15831,23 @@
       <c r="Y72" s="12"/>
     </row>
     <row r="73" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="104"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="93" t="s">
+      <c r="A73" s="94"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="135" t="s">
         <v>254</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="98" t="s">
+      <c r="F73" s="100" t="s">
         <v>244</v>
       </c>
-      <c r="G73" s="82" t="s">
+      <c r="G73" s="90" t="s">
         <v>368</v>
       </c>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
-      <c r="K73" s="84"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="91"/>
+      <c r="K73" s="92"/>
       <c r="L73" s="65"/>
       <c r="M73" s="65"/>
       <c r="N73" s="65"/>
@@ -15864,19 +15876,19 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="104"/>
-      <c r="B74" s="86"/>
-      <c r="C74" s="94"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="136"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="114" t="s">
+      <c r="F74" s="100"/>
+      <c r="G74" s="132" t="s">
         <v>245</v>
       </c>
-      <c r="H74" s="114"/>
-      <c r="I74" s="114"/>
-      <c r="J74" s="114"/>
-      <c r="K74" s="114"/>
+      <c r="H74" s="132"/>
+      <c r="I74" s="132"/>
+      <c r="J74" s="132"/>
+      <c r="K74" s="132"/>
       <c r="L74" s="71"/>
       <c r="M74" s="71"/>
       <c r="N74" s="71"/>
@@ -15900,23 +15912,23 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="104">
+      <c r="A75" s="94">
         <v>13</v>
       </c>
-      <c r="B75" s="86"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="96" t="s">
+      <c r="B75" s="89"/>
+      <c r="C75" s="136"/>
+      <c r="D75" s="127" t="s">
         <v>371</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="98"/>
-      <c r="G75" s="114" t="s">
+      <c r="F75" s="100"/>
+      <c r="G75" s="132" t="s">
         <v>249</v>
       </c>
-      <c r="H75" s="114"/>
-      <c r="I75" s="114"/>
-      <c r="J75" s="114"/>
-      <c r="K75" s="114"/>
+      <c r="H75" s="132"/>
+      <c r="I75" s="132"/>
+      <c r="J75" s="132"/>
+      <c r="K75" s="132"/>
       <c r="L75" s="71"/>
       <c r="M75" s="71"/>
       <c r="N75" s="71"/>
@@ -15940,19 +15952,19 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="104"/>
-      <c r="B76" s="86"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="97"/>
+      <c r="A76" s="94"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="136"/>
+      <c r="D76" s="128"/>
       <c r="E76" s="12"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="114" t="s">
+      <c r="F76" s="100"/>
+      <c r="G76" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="H76" s="114"/>
-      <c r="I76" s="114"/>
-      <c r="J76" s="114"/>
-      <c r="K76" s="114"/>
+      <c r="H76" s="132"/>
+      <c r="I76" s="132"/>
+      <c r="J76" s="132"/>
+      <c r="K76" s="132"/>
       <c r="L76" s="71"/>
       <c r="M76" s="71"/>
       <c r="N76" s="71"/>
@@ -15976,19 +15988,19 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="104"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="95"/>
+      <c r="A77" s="94"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="137"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="81" t="s">
+      <c r="F77" s="100"/>
+      <c r="G77" s="111" t="s">
         <v>264</v>
       </c>
-      <c r="H77" s="81"/>
-      <c r="I77" s="81"/>
-      <c r="J77" s="81"/>
-      <c r="K77" s="81"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
       <c r="L77" s="67"/>
       <c r="M77" s="67"/>
       <c r="N77" s="67"/>
@@ -16019,23 +16031,23 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="104"/>
+      <c r="A78" s="94"/>
       <c r="B78" s="12"/>
       <c r="C78" s="35" t="s">
         <v>246</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
-      <c r="F78" s="109" t="s">
+      <c r="F78" s="138" t="s">
         <v>300</v>
       </c>
-      <c r="G78" s="81" t="s">
+      <c r="G78" s="111" t="s">
         <v>265</v>
       </c>
-      <c r="H78" s="81"/>
-      <c r="I78" s="81"/>
-      <c r="J78" s="81"/>
-      <c r="K78" s="81"/>
+      <c r="H78" s="111"/>
+      <c r="I78" s="111"/>
+      <c r="J78" s="111"/>
+      <c r="K78" s="111"/>
       <c r="L78" s="67"/>
       <c r="M78" s="67"/>
       <c r="N78" s="67"/>
@@ -16061,21 +16073,21 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="104"/>
+      <c r="A79" s="94"/>
       <c r="B79" s="12"/>
       <c r="C79" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="110"/>
-      <c r="G79" s="81" t="s">
+      <c r="F79" s="139"/>
+      <c r="G79" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="H79" s="81"/>
-      <c r="I79" s="81"/>
-      <c r="J79" s="81"/>
-      <c r="K79" s="81"/>
+      <c r="H79" s="111"/>
+      <c r="I79" s="111"/>
+      <c r="J79" s="111"/>
+      <c r="K79" s="111"/>
       <c r="L79" s="67"/>
       <c r="M79" s="67"/>
       <c r="N79" s="67"/>
@@ -16101,7 +16113,7 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="104">
+      <c r="A80" s="94">
         <v>14</v>
       </c>
       <c r="B80" s="12"/>
@@ -16110,14 +16122,14 @@
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
-      <c r="F80" s="110"/>
-      <c r="G80" s="81" t="s">
+      <c r="F80" s="139"/>
+      <c r="G80" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="H80" s="81"/>
-      <c r="I80" s="81"/>
-      <c r="J80" s="81"/>
-      <c r="K80" s="81"/>
+      <c r="H80" s="111"/>
+      <c r="I80" s="111"/>
+      <c r="J80" s="111"/>
+      <c r="K80" s="111"/>
       <c r="L80" s="67"/>
       <c r="M80" s="67"/>
       <c r="N80" s="67"/>
@@ -16145,19 +16157,19 @@
       </c>
     </row>
     <row r="81" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="104"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="12"/>
       <c r="C81" s="36"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
-      <c r="F81" s="111"/>
-      <c r="G81" s="81" t="s">
+      <c r="F81" s="140"/>
+      <c r="G81" s="111" t="s">
         <v>253</v>
       </c>
-      <c r="H81" s="81"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="81"/>
-      <c r="K81" s="81"/>
+      <c r="H81" s="111"/>
+      <c r="I81" s="111"/>
+      <c r="J81" s="111"/>
+      <c r="K81" s="111"/>
       <c r="L81" s="67"/>
       <c r="M81" s="67"/>
       <c r="N81" s="67"/>
@@ -16181,19 +16193,19 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="104"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="12"/>
       <c r="C82" s="35"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="82" t="s">
+      <c r="G82" s="90" t="s">
         <v>255</v>
       </c>
-      <c r="H82" s="83"/>
-      <c r="I82" s="83"/>
-      <c r="J82" s="83"/>
-      <c r="K82" s="84"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="91"/>
+      <c r="K82" s="92"/>
       <c r="L82" s="65"/>
       <c r="M82" s="65"/>
       <c r="N82" s="65"/>
@@ -16217,19 +16229,19 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="104"/>
+      <c r="A83" s="94"/>
       <c r="B83" s="12"/>
       <c r="C83" s="35"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
-      <c r="G83" s="81" t="s">
+      <c r="G83" s="111" t="s">
         <v>316</v>
       </c>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-      <c r="J83" s="81"/>
-      <c r="K83" s="81"/>
+      <c r="H83" s="111"/>
+      <c r="I83" s="111"/>
+      <c r="J83" s="111"/>
+      <c r="K83" s="111"/>
       <c r="L83" s="67"/>
       <c r="M83" s="67"/>
       <c r="N83" s="67"/>
@@ -16253,19 +16265,19 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="105"/>
+      <c r="A84" s="95"/>
       <c r="B84" s="12"/>
       <c r="C84" s="37"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
-      <c r="G84" s="81" t="s">
+      <c r="G84" s="111" t="s">
         <v>267</v>
       </c>
-      <c r="H84" s="81"/>
-      <c r="I84" s="81"/>
-      <c r="J84" s="81"/>
-      <c r="K84" s="81"/>
+      <c r="H84" s="111"/>
+      <c r="I84" s="111"/>
+      <c r="J84" s="111"/>
+      <c r="K84" s="111"/>
       <c r="L84" s="67"/>
       <c r="M84" s="67"/>
       <c r="N84" s="67"/>
@@ -16291,23 +16303,23 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="103">
+      <c r="A85" s="93">
         <v>15</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="37"/>
-      <c r="D85" s="112" t="s">
+      <c r="D85" s="129" t="s">
         <v>283</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
-      <c r="G85" s="81" t="s">
+      <c r="G85" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="H85" s="81"/>
-      <c r="I85" s="81"/>
-      <c r="J85" s="81"/>
-      <c r="K85" s="81"/>
+      <c r="H85" s="111"/>
+      <c r="I85" s="111"/>
+      <c r="J85" s="111"/>
+      <c r="K85" s="111"/>
       <c r="L85" s="67"/>
       <c r="M85" s="67"/>
       <c r="N85" s="67"/>
@@ -16333,19 +16345,19 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="104"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="12"/>
       <c r="C86" s="37"/>
-      <c r="D86" s="113"/>
+      <c r="D86" s="131"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="82" t="s">
+      <c r="G86" s="90" t="s">
         <v>285</v>
       </c>
-      <c r="H86" s="83"/>
-      <c r="I86" s="83"/>
-      <c r="J86" s="83"/>
-      <c r="K86" s="84"/>
+      <c r="H86" s="91"/>
+      <c r="I86" s="91"/>
+      <c r="J86" s="91"/>
+      <c r="K86" s="92"/>
       <c r="L86" s="65"/>
       <c r="M86" s="65"/>
       <c r="N86" s="65"/>
@@ -16370,19 +16382,19 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="104"/>
+      <c r="A87" s="94"/>
       <c r="B87" s="12"/>
       <c r="C87" s="37"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
-      <c r="G87" s="81" t="s">
+      <c r="G87" s="111" t="s">
         <v>273</v>
       </c>
-      <c r="H87" s="81"/>
-      <c r="I87" s="81"/>
-      <c r="J87" s="81"/>
-      <c r="K87" s="81"/>
+      <c r="H87" s="111"/>
+      <c r="I87" s="111"/>
+      <c r="J87" s="111"/>
+      <c r="K87" s="111"/>
       <c r="L87" s="67"/>
       <c r="M87" s="67"/>
       <c r="N87" s="67"/>
@@ -16406,18 +16418,18 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="104"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="12"/>
       <c r="D88" s="34"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
-      <c r="G88" s="81" t="s">
+      <c r="G88" s="111" t="s">
         <v>274</v>
       </c>
-      <c r="H88" s="81"/>
-      <c r="I88" s="81"/>
-      <c r="J88" s="81"/>
-      <c r="K88" s="81"/>
+      <c r="H88" s="111"/>
+      <c r="I88" s="111"/>
+      <c r="J88" s="111"/>
+      <c r="K88" s="111"/>
       <c r="L88" s="67"/>
       <c r="M88" s="67"/>
       <c r="N88" s="67"/>
@@ -16441,7 +16453,7 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="104"/>
+      <c r="A89" s="94"/>
       <c r="B89" s="12"/>
       <c r="C89" s="37" t="s">
         <v>275</v>
@@ -16449,13 +16461,13 @@
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
-      <c r="G89" s="81" t="s">
+      <c r="G89" s="111" t="s">
         <v>276</v>
       </c>
-      <c r="H89" s="81"/>
-      <c r="I89" s="81"/>
-      <c r="J89" s="81"/>
-      <c r="K89" s="81"/>
+      <c r="H89" s="111"/>
+      <c r="I89" s="111"/>
+      <c r="J89" s="111"/>
+      <c r="K89" s="111"/>
       <c r="L89" s="67"/>
       <c r="M89" s="67"/>
       <c r="N89" s="67"/>
@@ -16481,20 +16493,20 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="104"/>
+      <c r="A90" s="94"/>
       <c r="B90" s="12"/>
       <c r="C90" s="58" t="s">
         <v>278</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="81" t="s">
+      <c r="G90" s="111" t="s">
         <v>277</v>
       </c>
-      <c r="H90" s="81"/>
-      <c r="I90" s="81"/>
-      <c r="J90" s="81"/>
-      <c r="K90" s="81"/>
+      <c r="H90" s="111"/>
+      <c r="I90" s="111"/>
+      <c r="J90" s="111"/>
+      <c r="K90" s="111"/>
       <c r="L90" s="67"/>
       <c r="M90" s="67"/>
       <c r="N90" s="67"/>
@@ -16516,7 +16528,7 @@
       <c r="Y90" s="12"/>
     </row>
     <row r="91" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="105"/>
+      <c r="A91" s="95"/>
       <c r="B91" s="12"/>
       <c r="C91" s="37" t="s">
         <v>279</v>
@@ -16524,13 +16536,13 @@
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="81" t="s">
+      <c r="G91" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="H91" s="81"/>
-      <c r="I91" s="81"/>
-      <c r="J91" s="81"/>
-      <c r="K91" s="81"/>
+      <c r="H91" s="111"/>
+      <c r="I91" s="111"/>
+      <c r="J91" s="111"/>
+      <c r="K91" s="111"/>
       <c r="L91" s="67"/>
       <c r="M91" s="67"/>
       <c r="N91" s="67"/>
@@ -16560,25 +16572,25 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="86">
+      <c r="A92" s="89">
         <v>16</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="D92" s="96" t="s">
+      <c r="D92" s="127" t="s">
         <v>286</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
-      <c r="G92" s="85" t="s">
+      <c r="G92" s="142" t="s">
         <v>282</v>
       </c>
-      <c r="H92" s="81"/>
-      <c r="I92" s="81"/>
-      <c r="J92" s="81"/>
-      <c r="K92" s="81"/>
+      <c r="H92" s="111"/>
+      <c r="I92" s="111"/>
+      <c r="J92" s="111"/>
+      <c r="K92" s="111"/>
       <c r="L92" s="67"/>
       <c r="M92" s="67"/>
       <c r="N92" s="67"/>
@@ -16604,19 +16616,19 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="86"/>
+      <c r="A93" s="89"/>
       <c r="B93" s="12"/>
       <c r="C93" s="37"/>
-      <c r="D93" s="108"/>
+      <c r="D93" s="134"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
-      <c r="G93" s="81" t="s">
+      <c r="G93" s="111" t="s">
         <v>291</v>
       </c>
-      <c r="H93" s="81"/>
-      <c r="I93" s="81"/>
-      <c r="J93" s="81"/>
-      <c r="K93" s="81"/>
+      <c r="H93" s="111"/>
+      <c r="I93" s="111"/>
+      <c r="J93" s="111"/>
+      <c r="K93" s="111"/>
       <c r="L93" s="67"/>
       <c r="M93" s="67"/>
       <c r="N93" s="67"/>
@@ -16640,19 +16652,19 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="86"/>
+      <c r="A94" s="89"/>
       <c r="B94" s="12"/>
       <c r="C94" s="37"/>
-      <c r="D94" s="97"/>
+      <c r="D94" s="128"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
-      <c r="G94" s="81" t="s">
+      <c r="G94" s="111" t="s">
         <v>289</v>
       </c>
-      <c r="H94" s="81"/>
-      <c r="I94" s="81"/>
-      <c r="J94" s="81"/>
-      <c r="K94" s="81"/>
+      <c r="H94" s="111"/>
+      <c r="I94" s="111"/>
+      <c r="J94" s="111"/>
+      <c r="K94" s="111"/>
       <c r="L94" s="67"/>
       <c r="M94" s="67"/>
       <c r="N94" s="67"/>
@@ -16676,7 +16688,7 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="86"/>
+      <c r="A95" s="89"/>
       <c r="B95" s="12"/>
       <c r="C95" s="37"/>
       <c r="D95" s="60" t="s">
@@ -16684,13 +16696,13 @@
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
-      <c r="G95" s="81" t="s">
+      <c r="G95" s="111" t="s">
         <v>290</v>
       </c>
-      <c r="H95" s="81"/>
-      <c r="I95" s="81"/>
-      <c r="J95" s="81"/>
-      <c r="K95" s="81"/>
+      <c r="H95" s="111"/>
+      <c r="I95" s="111"/>
+      <c r="J95" s="111"/>
+      <c r="K95" s="111"/>
       <c r="L95" s="67"/>
       <c r="M95" s="67"/>
       <c r="N95" s="67"/>
@@ -16714,7 +16726,7 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="86"/>
+      <c r="A96" s="89"/>
       <c r="B96" s="12"/>
       <c r="C96" s="37"/>
       <c r="D96" s="12" t="s">
@@ -16722,13 +16734,13 @@
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="82" t="s">
+      <c r="G96" s="90" t="s">
         <v>318</v>
       </c>
-      <c r="H96" s="83"/>
-      <c r="I96" s="83"/>
-      <c r="J96" s="83"/>
-      <c r="K96" s="84"/>
+      <c r="H96" s="91"/>
+      <c r="I96" s="91"/>
+      <c r="J96" s="91"/>
+      <c r="K96" s="92"/>
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
       <c r="N96" s="65"/>
@@ -16754,7 +16766,7 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="86"/>
+      <c r="A97" s="89"/>
       <c r="B97" s="12"/>
       <c r="C97" s="37"/>
       <c r="D97" s="32" t="s">
@@ -16762,13 +16774,13 @@
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
-      <c r="G97" s="81" t="s">
+      <c r="G97" s="111" t="s">
         <v>298</v>
       </c>
-      <c r="H97" s="81"/>
-      <c r="I97" s="81"/>
-      <c r="J97" s="81"/>
-      <c r="K97" s="81"/>
+      <c r="H97" s="111"/>
+      <c r="I97" s="111"/>
+      <c r="J97" s="111"/>
+      <c r="K97" s="111"/>
       <c r="L97" s="67"/>
       <c r="M97" s="67"/>
       <c r="N97" s="67"/>
@@ -16792,17 +16804,17 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="86"/>
+      <c r="A98" s="89"/>
       <c r="B98" s="38"/>
       <c r="C98" s="39"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38"/>
       <c r="F98" s="38"/>
-      <c r="G98" s="81"/>
-      <c r="H98" s="81"/>
-      <c r="I98" s="81"/>
-      <c r="J98" s="81"/>
-      <c r="K98" s="81"/>
+      <c r="G98" s="111"/>
+      <c r="H98" s="111"/>
+      <c r="I98" s="111"/>
+      <c r="J98" s="111"/>
+      <c r="K98" s="111"/>
       <c r="L98" s="64"/>
       <c r="M98" s="64"/>
       <c r="N98" s="64"/>
@@ -16826,7 +16838,7 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="103">
+      <c r="A99" s="93">
         <v>17</v>
       </c>
       <c r="B99" s="12"/>
@@ -16836,13 +16848,13 @@
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
-      <c r="G99" s="106" t="s">
+      <c r="G99" s="149" t="s">
         <v>332</v>
       </c>
-      <c r="H99" s="107"/>
-      <c r="I99" s="107"/>
-      <c r="J99" s="107"/>
-      <c r="K99" s="107"/>
+      <c r="H99" s="150"/>
+      <c r="I99" s="150"/>
+      <c r="J99" s="150"/>
+      <c r="K99" s="150"/>
       <c r="L99" s="73"/>
       <c r="M99" s="73"/>
       <c r="N99" s="73"/>
@@ -16868,19 +16880,19 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="104"/>
+      <c r="A100" s="94"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
-      <c r="G100" s="81" t="s">
+      <c r="G100" s="111" t="s">
         <v>320</v>
       </c>
-      <c r="H100" s="81"/>
-      <c r="I100" s="81"/>
-      <c r="J100" s="81"/>
-      <c r="K100" s="81"/>
+      <c r="H100" s="111"/>
+      <c r="I100" s="111"/>
+      <c r="J100" s="111"/>
+      <c r="K100" s="111"/>
       <c r="L100" s="67"/>
       <c r="M100" s="67"/>
       <c r="N100" s="67"/>
@@ -16904,19 +16916,19 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="105"/>
+      <c r="A101" s="95"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
-      <c r="G101" s="81" t="s">
+      <c r="G101" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="H101" s="81"/>
-      <c r="I101" s="81"/>
-      <c r="J101" s="81"/>
-      <c r="K101" s="81"/>
+      <c r="H101" s="111"/>
+      <c r="I101" s="111"/>
+      <c r="J101" s="111"/>
+      <c r="K101" s="111"/>
       <c r="L101" s="67"/>
       <c r="M101" s="67"/>
       <c r="N101" s="67"/>
@@ -16942,7 +16954,7 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="86">
+      <c r="A102" s="89">
         <v>18</v>
       </c>
       <c r="B102" s="12"/>
@@ -16950,13 +16962,13 @@
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
-      <c r="G102" s="81" t="s">
+      <c r="G102" s="111" t="s">
         <v>370</v>
       </c>
-      <c r="H102" s="81"/>
-      <c r="I102" s="81"/>
-      <c r="J102" s="81"/>
-      <c r="K102" s="81"/>
+      <c r="H102" s="111"/>
+      <c r="I102" s="111"/>
+      <c r="J102" s="111"/>
+      <c r="K102" s="111"/>
       <c r="L102" s="67"/>
       <c r="M102" s="67"/>
       <c r="N102" s="67"/>
@@ -16979,19 +16991,19 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="86"/>
+      <c r="A103" s="89"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="42"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
-      <c r="G103" s="81" t="s">
+      <c r="G103" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="H103" s="81"/>
-      <c r="I103" s="81"/>
-      <c r="J103" s="81"/>
-      <c r="K103" s="81"/>
+      <c r="H103" s="111"/>
+      <c r="I103" s="111"/>
+      <c r="J103" s="111"/>
+      <c r="K103" s="111"/>
       <c r="L103" s="67"/>
       <c r="M103" s="67"/>
       <c r="N103" s="67"/>
@@ -17017,7 +17029,7 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="86"/>
+      <c r="A104" s="89"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12" t="s">
         <v>319</v>
@@ -17025,13 +17037,13 @@
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
-      <c r="G104" s="81" t="s">
+      <c r="G104" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="H104" s="81"/>
-      <c r="I104" s="81"/>
-      <c r="J104" s="81"/>
-      <c r="K104" s="81"/>
+      <c r="H104" s="111"/>
+      <c r="I104" s="111"/>
+      <c r="J104" s="111"/>
+      <c r="K104" s="111"/>
       <c r="L104" s="67"/>
       <c r="M104" s="67"/>
       <c r="N104" s="67"/>
@@ -17055,19 +17067,19 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="86"/>
+      <c r="A105" s="89"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
-      <c r="G105" s="82" t="s">
+      <c r="G105" s="90" t="s">
         <v>372</v>
       </c>
-      <c r="H105" s="83"/>
-      <c r="I105" s="83"/>
-      <c r="J105" s="83"/>
-      <c r="K105" s="84"/>
+      <c r="H105" s="91"/>
+      <c r="I105" s="91"/>
+      <c r="J105" s="91"/>
+      <c r="K105" s="92"/>
       <c r="L105" s="65"/>
       <c r="M105" s="65"/>
       <c r="N105" s="65"/>
@@ -17091,18 +17103,18 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="86"/>
+      <c r="A106" s="89"/>
       <c r="B106" s="12"/>
       <c r="D106" s="61" t="s">
         <v>374</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
-      <c r="G106" s="82"/>
-      <c r="H106" s="83"/>
-      <c r="I106" s="83"/>
-      <c r="J106" s="83"/>
-      <c r="K106" s="84"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="91"/>
+      <c r="I106" s="91"/>
+      <c r="J106" s="91"/>
+      <c r="K106" s="92"/>
       <c r="L106" s="65"/>
       <c r="M106" s="65"/>
       <c r="N106" s="65"/>
@@ -17134,23 +17146,23 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="103">
+      <c r="A107" s="93">
         <v>19</v>
       </c>
-      <c r="B107" s="129"/>
-      <c r="C107" s="134" t="s">
+      <c r="B107" s="105"/>
+      <c r="C107" s="96" t="s">
         <v>308</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
-      <c r="G107" s="81" t="s">
+      <c r="G107" s="111" t="s">
         <v>376</v>
       </c>
-      <c r="H107" s="81"/>
-      <c r="I107" s="81"/>
-      <c r="J107" s="81"/>
-      <c r="K107" s="81"/>
+      <c r="H107" s="111"/>
+      <c r="I107" s="111"/>
+      <c r="J107" s="111"/>
+      <c r="K107" s="111"/>
       <c r="L107" s="65"/>
       <c r="M107" s="65"/>
       <c r="N107" s="65"/>
@@ -17173,19 +17185,19 @@
       <c r="Y107" s="12"/>
     </row>
     <row r="108" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="104"/>
-      <c r="B108" s="130"/>
-      <c r="C108" s="135"/>
+      <c r="A108" s="94"/>
+      <c r="B108" s="106"/>
+      <c r="C108" s="97"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
-      <c r="G108" s="85" t="s">
+      <c r="G108" s="142" t="s">
         <v>387</v>
       </c>
-      <c r="H108" s="81"/>
-      <c r="I108" s="81"/>
-      <c r="J108" s="81"/>
-      <c r="K108" s="81"/>
+      <c r="H108" s="111"/>
+      <c r="I108" s="111"/>
+      <c r="J108" s="111"/>
+      <c r="K108" s="111"/>
       <c r="L108" s="65"/>
       <c r="M108" s="65"/>
       <c r="N108" s="65"/>
@@ -17207,19 +17219,19 @@
       <c r="Y108" s="12"/>
     </row>
     <row r="109" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="104"/>
-      <c r="B109" s="98" t="s">
+      <c r="A109" s="94"/>
+      <c r="B109" s="100" t="s">
         <v>305</v>
       </c>
-      <c r="C109" s="135"/>
+      <c r="C109" s="97"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
-      <c r="G109" s="81"/>
-      <c r="H109" s="81"/>
-      <c r="I109" s="81"/>
-      <c r="J109" s="81"/>
-      <c r="K109" s="81"/>
+      <c r="G109" s="111"/>
+      <c r="H109" s="111"/>
+      <c r="I109" s="111"/>
+      <c r="J109" s="111"/>
+      <c r="K109" s="111"/>
       <c r="L109" s="65"/>
       <c r="M109" s="65"/>
       <c r="N109" s="65"/>
@@ -17243,21 +17255,21 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="104"/>
-      <c r="B110" s="98"/>
-      <c r="C110" s="135"/>
+      <c r="A110" s="94"/>
+      <c r="B110" s="100"/>
+      <c r="C110" s="97"/>
       <c r="D110" s="53" t="s">
         <v>333</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
-      <c r="G110" s="99" t="s">
+      <c r="G110" s="143" t="s">
         <v>309</v>
       </c>
-      <c r="H110" s="100"/>
-      <c r="I110" s="100"/>
-      <c r="J110" s="100"/>
-      <c r="K110" s="101"/>
+      <c r="H110" s="144"/>
+      <c r="I110" s="144"/>
+      <c r="J110" s="144"/>
+      <c r="K110" s="145"/>
       <c r="L110" s="74"/>
       <c r="M110" s="74"/>
       <c r="N110" s="74"/>
@@ -17283,19 +17295,19 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="104"/>
-      <c r="B111" s="98"/>
-      <c r="C111" s="135"/>
+      <c r="A111" s="94"/>
+      <c r="B111" s="100"/>
+      <c r="C111" s="97"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
-      <c r="G111" s="102" t="s">
+      <c r="G111" s="146" t="s">
         <v>381</v>
       </c>
-      <c r="H111" s="81"/>
-      <c r="I111" s="81"/>
-      <c r="J111" s="81"/>
-      <c r="K111" s="81"/>
+      <c r="H111" s="111"/>
+      <c r="I111" s="111"/>
+      <c r="J111" s="111"/>
+      <c r="K111" s="111"/>
       <c r="L111" s="65"/>
       <c r="M111" s="65"/>
       <c r="N111" s="65"/>
@@ -17325,21 +17337,21 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="104"/>
-      <c r="B112" s="98"/>
-      <c r="C112" s="135"/>
+      <c r="A112" s="94"/>
+      <c r="B112" s="100"/>
+      <c r="C112" s="97"/>
       <c r="D112" s="53" t="s">
         <v>378</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="12"/>
-      <c r="G112" s="82" t="s">
+      <c r="G112" s="90" t="s">
         <v>379</v>
       </c>
-      <c r="H112" s="83"/>
-      <c r="I112" s="83"/>
-      <c r="J112" s="83"/>
-      <c r="K112" s="84"/>
+      <c r="H112" s="91"/>
+      <c r="I112" s="91"/>
+      <c r="J112" s="91"/>
+      <c r="K112" s="92"/>
       <c r="L112" s="65"/>
       <c r="M112" s="65"/>
       <c r="N112" s="65"/>
@@ -17363,20 +17375,20 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="105"/>
-      <c r="B113" s="90"/>
-      <c r="C113" s="135"/>
+      <c r="A113" s="95"/>
+      <c r="B113" s="101"/>
+      <c r="C113" s="97"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="38"/>
-      <c r="G113" s="82"/>
-      <c r="H113" s="83"/>
-      <c r="I113" s="83"/>
-      <c r="J113" s="83"/>
-      <c r="K113" s="84"/>
-      <c r="L113" s="137"/>
-      <c r="M113" s="137"/>
-      <c r="N113" s="137"/>
+      <c r="G113" s="90"/>
+      <c r="H113" s="91"/>
+      <c r="I113" s="91"/>
+      <c r="J113" s="91"/>
+      <c r="K113" s="92"/>
+      <c r="L113" s="80"/>
+      <c r="M113" s="80"/>
+      <c r="N113" s="80"/>
       <c r="O113" s="41"/>
       <c r="P113" s="38"/>
       <c r="Q113" s="38"/>
@@ -17399,24 +17411,24 @@
       </c>
     </row>
     <row r="114" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="86">
+      <c r="A114" s="89">
         <v>20</v>
       </c>
-      <c r="B114" s="90" t="s">
+      <c r="B114" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="C114" s="91" t="s">
+      <c r="C114" s="98" t="s">
         <v>323</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
-      <c r="G114" s="81" t="s">
+      <c r="G114" s="111" t="s">
         <v>369</v>
       </c>
-      <c r="H114" s="81"/>
-      <c r="I114" s="81"/>
-      <c r="J114" s="81"/>
-      <c r="K114" s="81"/>
+      <c r="H114" s="111"/>
+      <c r="I114" s="111"/>
+      <c r="J114" s="111"/>
+      <c r="K114" s="111"/>
       <c r="L114" s="67"/>
       <c r="M114" s="67"/>
       <c r="N114" s="67"/>
@@ -17439,21 +17451,21 @@
       <c r="Z114" s="12"/>
     </row>
     <row r="115" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="86"/>
-      <c r="B115" s="91"/>
-      <c r="C115" s="91"/>
+      <c r="A115" s="89"/>
+      <c r="B115" s="98"/>
+      <c r="C115" s="98"/>
       <c r="D115" s="53" t="s">
         <v>334</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
-      <c r="G115" s="82" t="s">
+      <c r="G115" s="90" t="s">
         <v>382</v>
       </c>
-      <c r="H115" s="83"/>
-      <c r="I115" s="83"/>
-      <c r="J115" s="83"/>
-      <c r="K115" s="84"/>
+      <c r="H115" s="91"/>
+      <c r="I115" s="91"/>
+      <c r="J115" s="91"/>
+      <c r="K115" s="92"/>
       <c r="L115" s="65"/>
       <c r="M115" s="65"/>
       <c r="N115" s="65"/>
@@ -17477,19 +17489,19 @@
       <c r="Z115" s="12"/>
     </row>
     <row r="116" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="86"/>
-      <c r="B116" s="92"/>
-      <c r="C116" s="91"/>
+      <c r="A116" s="89"/>
+      <c r="B116" s="99"/>
+      <c r="C116" s="98"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
-      <c r="G116" s="87" t="s">
+      <c r="G116" s="147" t="s">
         <v>385</v>
       </c>
-      <c r="H116" s="88"/>
-      <c r="I116" s="88"/>
-      <c r="J116" s="88"/>
-      <c r="K116" s="89"/>
+      <c r="H116" s="141"/>
+      <c r="I116" s="141"/>
+      <c r="J116" s="141"/>
+      <c r="K116" s="148"/>
       <c r="L116" s="75"/>
       <c r="M116" s="75"/>
       <c r="N116" s="75"/>
@@ -17513,22 +17525,22 @@
       <c r="Z116" s="12"/>
     </row>
     <row r="117" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="103">
+      <c r="A117" s="93">
         <v>21</v>
       </c>
-      <c r="B117" s="85" t="s">
+      <c r="B117" s="142" t="s">
         <v>322</v>
       </c>
-      <c r="C117" s="91"/>
+      <c r="C117" s="98"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
-      <c r="G117" s="81" t="s">
+      <c r="G117" s="111" t="s">
         <v>384</v>
       </c>
-      <c r="H117" s="81"/>
-      <c r="I117" s="81"/>
-      <c r="J117" s="81"/>
-      <c r="K117" s="81"/>
+      <c r="H117" s="111"/>
+      <c r="I117" s="111"/>
+      <c r="J117" s="111"/>
+      <c r="K117" s="111"/>
       <c r="L117" s="67"/>
       <c r="M117" s="67"/>
       <c r="N117" s="67"/>
@@ -17549,21 +17561,21 @@
       <c r="Z117" s="12"/>
     </row>
     <row r="118" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="104"/>
-      <c r="B118" s="85"/>
-      <c r="C118" s="91"/>
+      <c r="A118" s="94"/>
+      <c r="B118" s="142"/>
+      <c r="C118" s="98"/>
       <c r="D118" s="61" t="s">
         <v>373</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
-      <c r="G118" s="82" t="s">
+      <c r="G118" s="90" t="s">
         <v>383</v>
       </c>
-      <c r="H118" s="83"/>
-      <c r="I118" s="83"/>
-      <c r="J118" s="83"/>
-      <c r="K118" s="84"/>
+      <c r="H118" s="91"/>
+      <c r="I118" s="91"/>
+      <c r="J118" s="91"/>
+      <c r="K118" s="92"/>
       <c r="L118" s="65"/>
       <c r="M118" s="65"/>
       <c r="N118" s="65"/>
@@ -17586,19 +17598,19 @@
       <c r="Z118" s="12"/>
     </row>
     <row r="119" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="104"/>
-      <c r="B119" s="85"/>
-      <c r="C119" s="92"/>
+      <c r="A119" s="94"/>
+      <c r="B119" s="142"/>
+      <c r="C119" s="99"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
-      <c r="G119" s="81" t="s">
+      <c r="G119" s="111" t="s">
         <v>375</v>
       </c>
-      <c r="H119" s="81"/>
-      <c r="I119" s="81"/>
-      <c r="J119" s="81"/>
-      <c r="K119" s="81"/>
+      <c r="H119" s="111"/>
+      <c r="I119" s="111"/>
+      <c r="J119" s="111"/>
+      <c r="K119" s="111"/>
       <c r="L119" s="67"/>
       <c r="M119" s="67"/>
       <c r="N119" s="67"/>
@@ -17619,13 +17631,13 @@
       <c r="Z119" s="12"/>
     </row>
     <row r="120" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="86">
+      <c r="A120" s="89">
         <v>22</v>
       </c>
-      <c r="B120" s="88" t="s">
+      <c r="B120" s="141" t="s">
         <v>324</v>
       </c>
-      <c r="C120" s="98" t="s">
+      <c r="C120" s="100" t="s">
         <v>389</v>
       </c>
       <c r="D120" s="62" t="s">
@@ -17633,13 +17645,13 @@
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
-      <c r="G120" s="81" t="s">
+      <c r="G120" s="111" t="s">
         <v>325</v>
       </c>
-      <c r="H120" s="81"/>
-      <c r="I120" s="81"/>
-      <c r="J120" s="81"/>
-      <c r="K120" s="81"/>
+      <c r="H120" s="111"/>
+      <c r="I120" s="111"/>
+      <c r="J120" s="111"/>
+      <c r="K120" s="111"/>
       <c r="L120" s="67"/>
       <c r="M120" s="67"/>
       <c r="N120" s="67"/>
@@ -17662,19 +17674,19 @@
       <c r="Z120" s="12"/>
     </row>
     <row r="121" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="86"/>
-      <c r="B121" s="88"/>
-      <c r="C121" s="98"/>
+      <c r="A121" s="89"/>
+      <c r="B121" s="141"/>
+      <c r="C121" s="100"/>
       <c r="D121" s="62"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
-      <c r="G121" s="85" t="s">
+      <c r="G121" s="142" t="s">
         <v>386</v>
       </c>
-      <c r="H121" s="81"/>
-      <c r="I121" s="81"/>
-      <c r="J121" s="81"/>
-      <c r="K121" s="81"/>
+      <c r="H121" s="111"/>
+      <c r="I121" s="111"/>
+      <c r="J121" s="111"/>
+      <c r="K121" s="111"/>
       <c r="L121" s="67"/>
       <c r="M121" s="67"/>
       <c r="N121" s="67"/>
@@ -17695,131 +17707,131 @@
       <c r="Z121" s="12"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A122" s="86"/>
-      <c r="B122" s="90" t="s">
+      <c r="A122" s="89"/>
+      <c r="B122" s="101" t="s">
         <v>390</v>
       </c>
-      <c r="C122" s="98"/>
-      <c r="G122" s="81" t="s">
+      <c r="C122" s="100"/>
+      <c r="G122" s="111" t="s">
         <v>327</v>
       </c>
-      <c r="H122" s="81"/>
-      <c r="I122" s="81"/>
-      <c r="J122" s="81"/>
-      <c r="K122" s="81"/>
-      <c r="L122" s="138"/>
-      <c r="M122" s="138"/>
-      <c r="N122" s="138"/>
+      <c r="H122" s="111"/>
+      <c r="I122" s="111"/>
+      <c r="J122" s="111"/>
+      <c r="K122" s="111"/>
+      <c r="L122" s="81"/>
+      <c r="M122" s="81"/>
+      <c r="N122" s="81"/>
       <c r="R122" s="12">
         <f>SUM($Q$2:Q122)</f>
         <v>272.15092362949309</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A123" s="86"/>
-      <c r="B123" s="91"/>
-      <c r="C123" s="98"/>
+      <c r="A123" s="89"/>
+      <c r="B123" s="98"/>
+      <c r="C123" s="100"/>
       <c r="R123" s="12">
         <f>SUM($Q$2:Q123)</f>
         <v>272.15092362949309</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A124" s="86"/>
-      <c r="B124" s="91"/>
-      <c r="C124" s="98"/>
+      <c r="A124" s="89"/>
+      <c r="B124" s="98"/>
+      <c r="C124" s="100"/>
       <c r="R124" s="12">
         <f>SUM($Q$2:Q124)</f>
         <v>272.15092362949309</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A125" s="86"/>
-      <c r="B125" s="91"/>
-      <c r="C125" s="98"/>
+      <c r="A125" s="89"/>
+      <c r="B125" s="98"/>
+      <c r="C125" s="100"/>
       <c r="R125" s="12">
         <f>SUM($Q$2:Q125)</f>
         <v>272.15092362949309</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A126" s="86"/>
-      <c r="B126" s="91"/>
-      <c r="C126" s="98"/>
+      <c r="A126" s="89"/>
+      <c r="B126" s="98"/>
+      <c r="C126" s="100"/>
       <c r="R126" s="12">
         <f>SUM($Q$2:Q126)</f>
         <v>272.15092362949309</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A127" s="86"/>
-      <c r="B127" s="91"/>
-      <c r="C127" s="98"/>
+      <c r="A127" s="89"/>
+      <c r="B127" s="98"/>
+      <c r="C127" s="100"/>
       <c r="R127" s="12">
         <f>SUM($Q$2:Q127)</f>
         <v>272.15092362949309</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A128" s="86">
+      <c r="A128" s="89">
         <v>23</v>
       </c>
-      <c r="B128" s="91"/>
-      <c r="C128" s="98"/>
+      <c r="B128" s="98"/>
+      <c r="C128" s="100"/>
       <c r="R128" s="12">
         <f>SUM($Q$2:Q128)</f>
         <v>272.15092362949309</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A129" s="86"/>
-      <c r="B129" s="91"/>
-      <c r="C129" s="98"/>
+      <c r="A129" s="89"/>
+      <c r="B129" s="98"/>
+      <c r="C129" s="100"/>
       <c r="R129" s="12">
         <f>SUM($Q$2:Q129)</f>
         <v>272.15092362949309</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A130" s="86"/>
-      <c r="B130" s="91"/>
-      <c r="C130" s="98"/>
+      <c r="A130" s="89"/>
+      <c r="B130" s="98"/>
+      <c r="C130" s="100"/>
       <c r="R130" s="12">
         <f>SUM($Q$2:Q130)</f>
         <v>272.15092362949309</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A131" s="86"/>
-      <c r="B131" s="91"/>
-      <c r="C131" s="98"/>
+      <c r="A131" s="89"/>
+      <c r="B131" s="98"/>
+      <c r="C131" s="100"/>
       <c r="R131" s="12">
         <f>SUM($Q$2:Q131)</f>
         <v>272.15092362949309</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A132" s="86"/>
-      <c r="B132" s="91"/>
-      <c r="C132" s="98"/>
+      <c r="A132" s="89"/>
+      <c r="B132" s="98"/>
+      <c r="C132" s="100"/>
       <c r="R132" s="12">
         <f>SUM($Q$2:Q132)</f>
         <v>272.15092362949309</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A133" s="86"/>
-      <c r="B133" s="91"/>
-      <c r="C133" s="98"/>
+      <c r="A133" s="89"/>
+      <c r="B133" s="98"/>
+      <c r="C133" s="100"/>
       <c r="R133" s="12">
         <f>SUM($Q$2:Q133)</f>
         <v>272.15092362949309</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A134" s="86"/>
-      <c r="B134" s="92"/>
-      <c r="C134" s="98"/>
+      <c r="A134" s="89"/>
+      <c r="B134" s="99"/>
+      <c r="C134" s="100"/>
       <c r="R134" s="24">
         <f>SUM($Q$2:Q134)</f>
         <v>272.15092362949309</v>
@@ -17830,175 +17842,6 @@
     </row>
   </sheetData>
   <mergeCells count="193">
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="A128:A134"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="C120:C134"/>
-    <mergeCell ref="B122:B134"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="C64:S64"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="F25:F33"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="B2:B36"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="B37:B77"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="C48:C57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="A48:A58"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="G87:K87"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="C65:C72"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="G120:K120"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="G109:K109"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G111:K111"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="G114:K114"/>
-    <mergeCell ref="G103:K103"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G92:K92"/>
     <mergeCell ref="G122:K122"/>
     <mergeCell ref="G96:K96"/>
     <mergeCell ref="B117:B119"/>
@@ -18023,6 +17866,175 @@
     <mergeCell ref="B107:B108"/>
     <mergeCell ref="G113:K113"/>
     <mergeCell ref="A117:A119"/>
+    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="G101:K101"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="G87:K87"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="C65:C72"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="C48:C57"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="A48:A58"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="B2:B36"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="F25:F33"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C120:C134"/>
+    <mergeCell ref="B122:B134"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="C64:S64"/>
+    <mergeCell ref="B37:B77"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="D48:D50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/数值规划/成长数值相关/功能开放及引导初稿.xlsx
+++ b/gd/数值规划/成长数值相关/功能开放及引导初稿.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="29235" yWindow="30" windowWidth="28815" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="24315" yWindow="2685" windowWidth="28815" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数值向功能投放 " sheetId="6" r:id="rId1"/>
@@ -3451,176 +3451,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3640,8 +3481,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3655,6 +3514,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3663,6 +3534,135 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7669,7 +7669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -14579,13 +14579,13 @@
       <c r="F1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
       <c r="L1" s="66" t="s">
         <v>467</v>
       </c>
@@ -14648,31 +14648,31 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="128" t="s">
         <v>485</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="130" t="s">
         <v>486</v>
       </c>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="130" t="s">
         <v>487</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="117" t="s">
         <v>488</v>
       </c>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="117" t="s">
         <v>490</v>
       </c>
-      <c r="F2" s="133" t="s">
+      <c r="F2" s="117" t="s">
         <v>492</v>
       </c>
-      <c r="G2" s="174" t="s">
+      <c r="G2" s="121" t="s">
         <v>493</v>
       </c>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="176"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
       <c r="L2" s="81"/>
       <c r="M2" s="81"/>
       <c r="N2" s="81"/>
@@ -14695,17 +14695,17 @@
       <c r="AE2" s="85"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A3" s="155"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
       <c r="L3" s="81"/>
       <c r="M3" s="81"/>
       <c r="N3" s="81"/>
@@ -14728,29 +14728,29 @@
       <c r="AE3" s="85"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A4" s="155"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="133" t="s">
+      <c r="A4" s="129"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="117" t="s">
         <v>494</v>
       </c>
-      <c r="E4" s="144" t="s">
+      <c r="E4" s="120" t="s">
         <v>495</v>
       </c>
-      <c r="F4" s="133" t="s">
+      <c r="F4" s="117" t="s">
         <v>496</v>
       </c>
-      <c r="G4" s="181" t="s">
+      <c r="G4" s="134" t="s">
         <v>500</v>
       </c>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="176"/>
-      <c r="L4" s="133" t="s">
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="117" t="s">
         <v>497</v>
       </c>
-      <c r="M4" s="144" t="s">
+      <c r="M4" s="120" t="s">
         <v>498</v>
       </c>
       <c r="N4" s="81"/>
@@ -14773,19 +14773,19 @@
       <c r="AE4" s="85"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A5" s="155"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
       <c r="P5" s="12"/>
@@ -14806,19 +14806,19 @@
       <c r="AE5" s="85"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A6" s="155"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
       <c r="N6" s="81" t="s">
         <v>501</v>
       </c>
@@ -14841,30 +14841,30 @@
       <c r="AE6" s="85"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A7" s="155"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="133" t="s">
+      <c r="A7" s="129"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="117" t="s">
         <v>489</v>
       </c>
-      <c r="F7" s="133" t="s">
+      <c r="F7" s="117" t="s">
         <v>503</v>
       </c>
-      <c r="G7" s="174" t="s">
+      <c r="G7" s="121" t="s">
         <v>502</v>
       </c>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
@@ -14882,22 +14882,22 @@
       <c r="AE7" s="85"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A8" s="155"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
@@ -14915,29 +14915,29 @@
       <c r="AE8" s="85"/>
     </row>
     <row r="9" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="154">
+      <c r="A9" s="128">
         <v>1</v>
       </c>
       <c r="B9" s="114">
         <v>1</v>
       </c>
-      <c r="C9" s="135">
+      <c r="C9" s="130">
         <v>1</v>
       </c>
-      <c r="D9" s="185" t="s">
+      <c r="D9" s="142" t="s">
         <v>170</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="122" t="s">
+      <c r="G9" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
       <c r="L9" s="66"/>
       <c r="M9" s="90"/>
       <c r="N9" s="71" t="s">
@@ -14965,19 +14965,19 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="155"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="114"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="185"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="142"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="139" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="132"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="141"/>
       <c r="L10" s="65" t="s">
         <v>552</v>
       </c>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="O10" s="20"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="133">
+      <c r="Q10" s="117">
         <v>1</v>
       </c>
       <c r="R10" s="12">
@@ -15009,19 +15009,19 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="155"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="114"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="185"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="142"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="150" t="s">
+      <c r="G11" s="146" t="s">
         <v>206</v>
       </c>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="153"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="148"/>
       <c r="L11" s="68" t="s">
         <v>555</v>
       </c>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="12"/>
-      <c r="Q11" s="134"/>
+      <c r="Q11" s="118"/>
       <c r="R11" s="12">
         <f>SUM($Q$9:Q11)</f>
         <v>3</v>
@@ -15050,19 +15050,19 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="155"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="114"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="185"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="142"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="130" t="s">
+      <c r="G12" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="132"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="141"/>
       <c r="L12" s="65" t="s">
         <v>468</v>
       </c>
@@ -15094,9 +15094,9 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="155"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="114"/>
-      <c r="C13" s="136"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="14" t="s">
         <v>138</v>
       </c>
@@ -15106,13 +15106,13 @@
       <c r="F13" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="G13" s="122" t="s">
+      <c r="G13" s="149" t="s">
         <v>200</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
       <c r="L13" s="66" t="s">
         <v>504</v>
       </c>
@@ -15146,10 +15146,10 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="155"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="114"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="186" t="s">
+      <c r="C14" s="131"/>
+      <c r="D14" s="143" t="s">
         <v>139</v>
       </c>
       <c r="E14" s="12">
@@ -15158,13 +15158,13 @@
       <c r="F14" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="150" t="s">
+      <c r="G14" s="146" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="132"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="141"/>
       <c r="L14" s="65"/>
       <c r="M14" s="65"/>
       <c r="N14" s="65"/>
@@ -15179,7 +15179,7 @@
       </c>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
-      <c r="U14" s="161" t="s">
+      <c r="U14" s="165" t="s">
         <v>180</v>
       </c>
       <c r="V14" s="16"/>
@@ -15192,23 +15192,23 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="155"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="114"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="187"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="144"/>
       <c r="E15" s="12">
         <v>3</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="122" t="s">
+      <c r="G15" s="149" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
       <c r="L15" s="71" t="s">
         <v>469</v>
       </c>
@@ -15229,7 +15229,7 @@
       <c r="T15" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="U15" s="161"/>
+      <c r="U15" s="165"/>
       <c r="V15" s="16"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
@@ -15260,21 +15260,21 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="155"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="114"/>
-      <c r="C16" s="136"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="14" t="s">
         <v>143</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="151" t="s">
+      <c r="G16" s="170" t="s">
         <v>199</v>
       </c>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
       <c r="L16" s="69" t="s">
         <v>524</v>
       </c>
@@ -15313,21 +15313,21 @@
       <c r="AE16" s="4"/>
     </row>
     <row r="17" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="155"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="114"/>
-      <c r="C17" s="147"/>
+      <c r="C17" s="145"/>
       <c r="D17" s="14" t="s">
         <v>462</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="169" t="s">
+      <c r="G17" s="162" t="s">
         <v>463</v>
       </c>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="171"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="164"/>
       <c r="L17" s="80" t="s">
         <v>472</v>
       </c>
@@ -15352,9 +15352,9 @@
       <c r="AE17" s="4"/>
     </row>
     <row r="18" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="114"/>
-      <c r="C18" s="135">
+      <c r="C18" s="130">
         <v>2</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -15364,13 +15364,13 @@
       <c r="F18" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G18" s="122" t="s">
+      <c r="G18" s="149" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
       <c r="L18" s="66"/>
       <c r="M18" s="66"/>
       <c r="N18" s="82" t="s">
@@ -15407,7 +15407,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="114"/>
-      <c r="C19" s="136"/>
+      <c r="C19" s="131"/>
       <c r="D19" s="14" t="s">
         <v>145</v>
       </c>
@@ -15415,13 +15415,13 @@
         <v>136</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="130" t="s">
+      <c r="G19" s="139" t="s">
         <v>193</v>
       </c>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="132"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="141"/>
       <c r="L19" s="12"/>
       <c r="M19" s="59"/>
       <c r="N19" s="68" t="s">
@@ -15456,21 +15456,21 @@
     <row r="20" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="114"/>
       <c r="B20" s="114"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="186" t="s">
+      <c r="C20" s="131"/>
+      <c r="D20" s="143" t="s">
         <v>139</v>
       </c>
       <c r="E20" s="12">
         <v>1</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="150" t="s">
+      <c r="G20" s="146" t="s">
         <v>473</v>
       </c>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="153"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="148"/>
       <c r="L20" s="12"/>
       <c r="M20" s="18" t="s">
         <v>525</v>
@@ -15490,7 +15490,7 @@
       </c>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
-      <c r="U20" s="122"/>
+      <c r="U20" s="149"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
@@ -15508,19 +15508,19 @@
     <row r="21" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="114"/>
       <c r="B21" s="114"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="187"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="144"/>
       <c r="E21" s="12">
         <v>3</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="G21" s="130" t="s">
+      <c r="G21" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="141"/>
       <c r="L21" s="80" t="s">
         <v>474</v>
       </c>
@@ -15539,7 +15539,7 @@
       </c>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="122"/>
+      <c r="U21" s="149"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -15570,7 +15570,7 @@
     <row r="22" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="114"/>
       <c r="B22" s="114"/>
-      <c r="C22" s="147"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="14" t="s">
         <v>143</v>
       </c>
@@ -15578,13 +15578,13 @@
         <v>146</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="122" t="s">
+      <c r="G22" s="149" t="s">
         <v>176</v>
       </c>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="149"/>
       <c r="L22" s="66"/>
       <c r="M22" s="66"/>
       <c r="N22" s="66"/>
@@ -15623,7 +15623,7 @@
     <row r="23" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="114"/>
       <c r="B23" s="114"/>
-      <c r="C23" s="135">
+      <c r="C23" s="130">
         <v>3</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -15631,13 +15631,13 @@
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="122" t="s">
+      <c r="G23" s="149" t="s">
         <v>484</v>
       </c>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
       <c r="L23" s="66"/>
       <c r="M23" s="66"/>
       <c r="N23" s="66"/>
@@ -15670,7 +15670,7 @@
     <row r="24" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="114"/>
       <c r="B24" s="114"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="14" t="s">
         <v>141</v>
       </c>
@@ -15678,13 +15678,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="122" t="s">
+      <c r="G24" s="149" t="s">
         <v>182</v>
       </c>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
       <c r="L24" s="66"/>
       <c r="M24" s="88" t="s">
         <v>527</v>
@@ -15724,23 +15724,23 @@
       <c r="AE24" s="4"/>
     </row>
     <row r="25" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="154">
+      <c r="A25" s="128">
         <v>3</v>
       </c>
       <c r="B25" s="114"/>
-      <c r="C25" s="147"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="14" t="s">
         <v>149</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="130" t="s">
+      <c r="G25" s="139" t="s">
         <v>300</v>
       </c>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="132"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="141"/>
       <c r="L25" s="87" t="s">
         <v>528</v>
       </c>
@@ -15778,9 +15778,9 @@
       <c r="AE25" s="4"/>
     </row>
     <row r="26" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="155"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="114"/>
-      <c r="C26" s="135">
+      <c r="C26" s="130">
         <v>4</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -15790,13 +15790,13 @@
       <c r="F26" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="122" t="s">
+      <c r="G26" s="149" t="s">
         <v>475</v>
       </c>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
       <c r="L26" s="65" t="s">
         <v>476</v>
       </c>
@@ -15844,21 +15844,21 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="155"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="114"/>
-      <c r="C27" s="136"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="14" t="s">
         <v>138</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="122" t="s">
+      <c r="G27" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
       <c r="L27" s="66"/>
       <c r="M27" s="75"/>
       <c r="N27" s="75"/>
@@ -15889,21 +15889,21 @@
       <c r="AE27" s="4"/>
     </row>
     <row r="28" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="155"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="114"/>
-      <c r="C28" s="136"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="14" t="s">
         <v>139</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="122" t="s">
+      <c r="G28" s="149" t="s">
         <v>477</v>
       </c>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
       <c r="L28" s="66" t="s">
         <v>478</v>
       </c>
@@ -15941,21 +15941,21 @@
       <c r="AE28" s="4"/>
     </row>
     <row r="29" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="155"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="114"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="135" t="s">
+      <c r="C29" s="131"/>
+      <c r="D29" s="130" t="s">
         <v>143</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="122" t="s">
+      <c r="G29" s="149" t="s">
         <v>530</v>
       </c>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
       <c r="L29" s="66"/>
       <c r="M29" s="75"/>
       <c r="N29" s="75"/>
@@ -15985,19 +15985,19 @@
       <c r="AE29" s="4"/>
     </row>
     <row r="30" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="155"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="114"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="130" t="s">
+      <c r="G30" s="139" t="s">
         <v>332</v>
       </c>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="132"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="141"/>
       <c r="L30" s="68" t="s">
         <v>529</v>
       </c>
@@ -16040,9 +16040,9 @@
       <c r="AE30" s="4"/>
     </row>
     <row r="31" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="155"/>
+      <c r="A31" s="129"/>
       <c r="B31" s="114"/>
-      <c r="C31" s="135">
+      <c r="C31" s="130">
         <v>5</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -16052,13 +16052,13 @@
       <c r="F31" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="G31" s="122" t="s">
+      <c r="G31" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
       <c r="L31" s="66" t="s">
         <v>505</v>
       </c>
@@ -16095,23 +16095,23 @@
       <c r="AE31" s="4"/>
     </row>
     <row r="32" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="155"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="114"/>
-      <c r="C32" s="136"/>
+      <c r="C32" s="131"/>
       <c r="D32" s="14" t="s">
         <v>139</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="127" t="s">
+      <c r="F32" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="G32" s="122" t="s">
+      <c r="G32" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
       <c r="L32" s="87" t="s">
         <v>533</v>
       </c>
@@ -16149,21 +16149,21 @@
       <c r="AE32" s="4"/>
     </row>
     <row r="33" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="155"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="114"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="135" t="s">
+      <c r="C33" s="131"/>
+      <c r="D33" s="130" t="s">
         <v>143</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="122" t="s">
+      <c r="F33" s="152"/>
+      <c r="G33" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
       <c r="L33" s="66" t="s">
         <v>532</v>
       </c>
@@ -16196,19 +16196,19 @@
       <c r="AE33" s="4"/>
     </row>
     <row r="34" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="156"/>
+      <c r="A34" s="138"/>
       <c r="B34" s="114"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="165" t="s">
+      <c r="F34" s="152"/>
+      <c r="G34" s="159" t="s">
         <v>338</v>
       </c>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="166"/>
-      <c r="K34" s="167"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="161"/>
       <c r="L34" s="66"/>
       <c r="M34" s="84"/>
       <c r="N34" s="84"/>
@@ -16231,21 +16231,21 @@
       <c r="AE34" s="4"/>
     </row>
     <row r="35" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="135">
+      <c r="A35" s="130">
         <v>4</v>
       </c>
       <c r="B35" s="114"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="130" t="s">
+      <c r="F35" s="152"/>
+      <c r="G35" s="139" t="s">
         <v>520</v>
       </c>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="132"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="141"/>
       <c r="L35" s="87" t="s">
         <v>534</v>
       </c>
@@ -16275,23 +16275,23 @@
       <c r="AE35" s="4"/>
     </row>
     <row r="36" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="147"/>
+      <c r="A36" s="145"/>
       <c r="B36" s="114"/>
-      <c r="C36" s="162">
+      <c r="C36" s="166">
         <v>6</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>158</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="130" t="s">
+      <c r="F36" s="152"/>
+      <c r="G36" s="139" t="s">
         <v>535</v>
       </c>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="132"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="141"/>
       <c r="L36" s="66"/>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -16333,23 +16333,23 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="154">
+      <c r="A37" s="128">
         <v>5</v>
       </c>
       <c r="B37" s="114"/>
-      <c r="C37" s="162"/>
+      <c r="C37" s="166"/>
       <c r="D37" s="26" t="s">
         <v>159</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="122" t="s">
+      <c r="F37" s="152"/>
+      <c r="G37" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="122"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
       <c r="L37" s="66"/>
       <c r="M37" s="88" t="s">
         <v>531</v>
@@ -16382,21 +16382,21 @@
       <c r="AE37" s="4"/>
     </row>
     <row r="38" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="155"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="114"/>
-      <c r="C38" s="162"/>
+      <c r="C38" s="166"/>
       <c r="D38" s="26" t="s">
         <v>160</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="122" t="s">
+      <c r="F38" s="152"/>
+      <c r="G38" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
       <c r="L38" s="66"/>
       <c r="M38" s="66" t="s">
         <v>537</v>
@@ -16431,23 +16431,23 @@
       <c r="AE38" s="4"/>
     </row>
     <row r="39" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="155"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="114"/>
-      <c r="C39" s="162">
+      <c r="C39" s="166">
         <v>7</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>158</v>
       </c>
       <c r="E39" s="12"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="122" t="s">
+      <c r="F39" s="152"/>
+      <c r="G39" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="H39" s="122"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
       <c r="L39" s="66"/>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -16484,21 +16484,21 @@
       <c r="AE39" s="4"/>
     </row>
     <row r="40" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="155"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="114"/>
-      <c r="C40" s="162"/>
+      <c r="C40" s="166"/>
       <c r="D40" s="26" t="s">
         <v>159</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="130" t="s">
+      <c r="F40" s="152"/>
+      <c r="G40" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="132"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="141"/>
       <c r="L40" s="65"/>
       <c r="M40" s="88" t="s">
         <v>536</v>
@@ -16528,21 +16528,21 @@
       <c r="AE40" s="4"/>
     </row>
     <row r="41" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="155"/>
+      <c r="A41" s="129"/>
       <c r="B41" s="114"/>
-      <c r="C41" s="162"/>
+      <c r="C41" s="166"/>
       <c r="D41" s="55" t="s">
         <v>329</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="130" t="s">
+      <c r="F41" s="152"/>
+      <c r="G41" s="139" t="s">
         <v>348</v>
       </c>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="131"/>
-      <c r="K41" s="132"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="141"/>
       <c r="L41" s="65"/>
       <c r="M41" s="65"/>
       <c r="N41" s="65"/>
@@ -16577,9 +16577,9 @@
       <c r="AE41" s="4"/>
     </row>
     <row r="42" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="155"/>
+      <c r="A42" s="129"/>
       <c r="B42" s="114"/>
-      <c r="C42" s="162">
+      <c r="C42" s="166">
         <v>8</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -16587,13 +16587,13 @@
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="122" t="s">
+      <c r="G42" s="149" t="s">
         <v>521</v>
       </c>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
       <c r="L42" s="66" t="s">
         <v>522</v>
       </c>
@@ -16629,21 +16629,21 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="156"/>
+      <c r="A43" s="138"/>
       <c r="B43" s="114"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="163" t="s">
+      <c r="C43" s="166"/>
+      <c r="D43" s="167" t="s">
         <v>159</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="122" t="s">
+      <c r="G43" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
       <c r="L43" s="66" t="s">
         <v>538</v>
       </c>
@@ -16686,21 +16686,21 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="135">
+      <c r="A44" s="130">
         <v>6</v>
       </c>
       <c r="B44" s="114"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="164"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="168"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="130" t="s">
+      <c r="G44" s="139" t="s">
         <v>540</v>
       </c>
-      <c r="H44" s="131"/>
-      <c r="I44" s="131"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="132"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="141"/>
       <c r="L44" s="86"/>
       <c r="M44" s="86"/>
       <c r="N44" s="86"/>
@@ -16722,21 +16722,21 @@
       <c r="AE44" s="4"/>
     </row>
     <row r="45" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="147"/>
+      <c r="A45" s="145"/>
       <c r="B45" s="114"/>
-      <c r="C45" s="162"/>
+      <c r="C45" s="166"/>
       <c r="D45" s="26" t="s">
         <v>160</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="122" t="s">
+      <c r="G45" s="149" t="s">
         <v>167</v>
       </c>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="149"/>
+      <c r="K45" s="149"/>
       <c r="L45" s="66"/>
       <c r="M45" s="66"/>
       <c r="N45" s="66"/>
@@ -16790,7 +16790,7 @@
       <c r="B46" s="114">
         <v>2</v>
       </c>
-      <c r="C46" s="168" t="s">
+      <c r="C46" s="155" t="s">
         <v>261</v>
       </c>
       <c r="D46" s="26" t="s">
@@ -16798,13 +16798,13 @@
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="122" t="s">
+      <c r="G46" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="122"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="149"/>
+      <c r="J46" s="149"/>
+      <c r="K46" s="149"/>
       <c r="L46" s="66"/>
       <c r="M46" s="66"/>
       <c r="N46" s="66"/>
@@ -16842,19 +16842,19 @@
     <row r="47" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="114"/>
       <c r="B47" s="114"/>
-      <c r="C47" s="168"/>
+      <c r="C47" s="155"/>
       <c r="D47" s="26" t="s">
         <v>170</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="130" t="s">
+      <c r="G47" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="132"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="141"/>
       <c r="L47" s="65"/>
       <c r="M47" s="65"/>
       <c r="N47" s="65"/>
@@ -16890,19 +16890,19 @@
     <row r="48" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A48" s="114"/>
       <c r="B48" s="114"/>
-      <c r="C48" s="168"/>
+      <c r="C48" s="155"/>
       <c r="D48" s="26" t="s">
         <v>159</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="130" t="s">
+      <c r="G48" s="139" t="s">
         <v>542</v>
       </c>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="131"/>
-      <c r="K48" s="132"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="140"/>
+      <c r="K48" s="141"/>
       <c r="L48" s="65" t="s">
         <v>543</v>
       </c>
@@ -16944,19 +16944,19 @@
     <row r="49" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="114"/>
       <c r="B49" s="114"/>
-      <c r="C49" s="168"/>
+      <c r="C49" s="155"/>
       <c r="D49" s="26" t="s">
         <v>184</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="130" t="s">
+      <c r="G49" s="139" t="s">
         <v>546</v>
       </c>
-      <c r="H49" s="131"/>
-      <c r="I49" s="131"/>
-      <c r="J49" s="131"/>
-      <c r="K49" s="132"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="140"/>
+      <c r="K49" s="141"/>
       <c r="L49" s="65"/>
       <c r="M49" s="65"/>
       <c r="N49" s="65"/>
@@ -17002,19 +17002,19 @@
     <row r="50" spans="1:32" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="114"/>
       <c r="B50" s="114"/>
-      <c r="C50" s="168"/>
+      <c r="C50" s="155"/>
       <c r="D50" s="29" t="s">
         <v>170</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="150" t="s">
+      <c r="G50" s="146" t="s">
         <v>354</v>
       </c>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="131"/>
-      <c r="K50" s="132"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="140"/>
+      <c r="K50" s="141"/>
       <c r="L50" s="65"/>
       <c r="M50" s="65"/>
       <c r="N50" s="65"/>
@@ -17058,7 +17058,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="114"/>
-      <c r="C51" s="168" t="s">
+      <c r="C51" s="155" t="s">
         <v>262</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -17066,13 +17066,13 @@
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="130" t="s">
+      <c r="G51" s="139" t="s">
         <v>207</v>
       </c>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="132"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="140"/>
+      <c r="K51" s="141"/>
       <c r="L51" s="65"/>
       <c r="M51" s="65"/>
       <c r="N51" s="65"/>
@@ -17104,19 +17104,19 @@
     <row r="52" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="114"/>
       <c r="B52" s="114"/>
-      <c r="C52" s="168"/>
+      <c r="C52" s="155"/>
       <c r="D52" s="14" t="s">
         <v>343</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="122" t="s">
+      <c r="G52" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
+      <c r="H52" s="149"/>
+      <c r="I52" s="149"/>
+      <c r="J52" s="149"/>
+      <c r="K52" s="149"/>
       <c r="L52" s="66"/>
       <c r="M52" s="66"/>
       <c r="N52" s="66"/>
@@ -17148,19 +17148,19 @@
     <row r="53" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="114"/>
       <c r="B53" s="114"/>
-      <c r="C53" s="168"/>
+      <c r="C53" s="155"/>
       <c r="D53" s="14" t="s">
         <v>344</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="122" t="s">
+      <c r="G53" s="149" t="s">
         <v>345</v>
       </c>
-      <c r="H53" s="122"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="149"/>
+      <c r="J53" s="149"/>
+      <c r="K53" s="149"/>
       <c r="L53" s="66"/>
       <c r="M53" s="87" t="s">
         <v>544</v>
@@ -17194,19 +17194,19 @@
     <row r="54" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="114"/>
       <c r="B54" s="114"/>
-      <c r="C54" s="168"/>
+      <c r="C54" s="155"/>
       <c r="D54" s="14" t="s">
         <v>203</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="122" t="s">
+      <c r="G54" s="149" t="s">
         <v>340</v>
       </c>
-      <c r="H54" s="122"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="122"/>
-      <c r="K54" s="122"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="149"/>
+      <c r="J54" s="149"/>
+      <c r="K54" s="149"/>
       <c r="L54" s="66"/>
       <c r="M54" s="66"/>
       <c r="N54" s="66"/>
@@ -17240,19 +17240,19 @@
     <row r="55" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="114"/>
       <c r="B55" s="114"/>
-      <c r="C55" s="168"/>
+      <c r="C55" s="155"/>
       <c r="D55" s="14" t="s">
         <v>351</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="122" t="s">
+      <c r="G55" s="149" t="s">
         <v>352</v>
       </c>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="149"/>
+      <c r="J55" s="149"/>
+      <c r="K55" s="149"/>
       <c r="L55" s="65"/>
       <c r="M55" s="65"/>
       <c r="N55" s="65"/>
@@ -17284,17 +17284,17 @@
     <row r="56" spans="1:32" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="114"/>
       <c r="B56" s="114"/>
-      <c r="C56" s="168"/>
+      <c r="C56" s="155"/>
       <c r="D56" s="14"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="150" t="s">
+      <c r="G56" s="146" t="s">
         <v>347</v>
       </c>
-      <c r="H56" s="131"/>
-      <c r="I56" s="131"/>
-      <c r="J56" s="131"/>
-      <c r="K56" s="132"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="141"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
       <c r="N56" s="65"/>
@@ -17330,7 +17330,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="114"/>
-      <c r="C57" s="168" t="s">
+      <c r="C57" s="155" t="s">
         <v>263</v>
       </c>
       <c r="D57" s="114" t="s">
@@ -17338,13 +17338,13 @@
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="122" t="s">
+      <c r="G57" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
+      <c r="H57" s="149"/>
+      <c r="I57" s="149"/>
+      <c r="J57" s="149"/>
+      <c r="K57" s="149"/>
       <c r="L57" s="66"/>
       <c r="M57" s="66"/>
       <c r="N57" s="66"/>
@@ -17376,17 +17376,17 @@
     <row r="58" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="114"/>
       <c r="B58" s="114"/>
-      <c r="C58" s="168"/>
+      <c r="C58" s="155"/>
       <c r="D58" s="114"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="122" t="s">
+      <c r="G58" s="149" t="s">
         <v>215</v>
       </c>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="149"/>
+      <c r="K58" s="149"/>
       <c r="L58" s="66"/>
       <c r="M58" s="66"/>
       <c r="N58" s="66"/>
@@ -17412,17 +17412,17 @@
     <row r="59" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="114"/>
       <c r="B59" s="114"/>
-      <c r="C59" s="168"/>
+      <c r="C59" s="155"/>
       <c r="D59" s="114"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="130" t="s">
+      <c r="G59" s="139" t="s">
         <v>350</v>
       </c>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="131"/>
-      <c r="K59" s="132"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="141"/>
       <c r="L59" s="65"/>
       <c r="M59" s="65"/>
       <c r="N59" s="65"/>
@@ -17448,19 +17448,19 @@
     <row r="60" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="114"/>
       <c r="B60" s="114"/>
-      <c r="C60" s="168"/>
+      <c r="C60" s="155"/>
       <c r="D60" s="19" t="s">
         <v>255</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="130" t="s">
+      <c r="G60" s="139" t="s">
         <v>349</v>
       </c>
-      <c r="H60" s="131"/>
-      <c r="I60" s="131"/>
-      <c r="J60" s="131"/>
-      <c r="K60" s="132"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="141"/>
       <c r="L60" s="65"/>
       <c r="M60" s="65"/>
       <c r="N60" s="65"/>
@@ -17488,19 +17488,19 @@
     <row r="61" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="114"/>
       <c r="B61" s="114"/>
-      <c r="C61" s="168"/>
-      <c r="D61" s="135" t="s">
+      <c r="C61" s="155"/>
+      <c r="D61" s="130" t="s">
         <v>203</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="122" t="s">
+      <c r="G61" s="149" t="s">
         <v>208</v>
       </c>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="122"/>
+      <c r="H61" s="149"/>
+      <c r="I61" s="149"/>
+      <c r="J61" s="149"/>
+      <c r="K61" s="149"/>
       <c r="L61" s="66"/>
       <c r="M61" s="66"/>
       <c r="N61" s="66"/>
@@ -17528,17 +17528,17 @@
     <row r="62" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="114"/>
       <c r="B62" s="114"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="136"/>
+      <c r="C62" s="155"/>
+      <c r="D62" s="131"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="122" t="s">
+      <c r="G62" s="149" t="s">
         <v>209</v>
       </c>
-      <c r="H62" s="122"/>
-      <c r="I62" s="122"/>
-      <c r="J62" s="122"/>
-      <c r="K62" s="122"/>
+      <c r="H62" s="149"/>
+      <c r="I62" s="149"/>
+      <c r="J62" s="149"/>
+      <c r="K62" s="149"/>
       <c r="L62" s="66"/>
       <c r="M62" s="87" t="s">
         <v>549</v>
@@ -17568,17 +17568,17 @@
     <row r="63" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="114"/>
       <c r="B63" s="114"/>
-      <c r="C63" s="168"/>
-      <c r="D63" s="136"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="131"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="122" t="s">
+      <c r="G63" s="149" t="s">
         <v>211</v>
       </c>
-      <c r="H63" s="122"/>
-      <c r="I63" s="122"/>
-      <c r="J63" s="122"/>
-      <c r="K63" s="122"/>
+      <c r="H63" s="149"/>
+      <c r="I63" s="149"/>
+      <c r="J63" s="149"/>
+      <c r="K63" s="149"/>
       <c r="L63" s="66"/>
       <c r="M63" s="66"/>
       <c r="N63" s="66"/>
@@ -17609,17 +17609,17 @@
     <row r="64" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="114"/>
       <c r="B64" s="114"/>
-      <c r="C64" s="168"/>
-      <c r="D64" s="136"/>
+      <c r="C64" s="155"/>
+      <c r="D64" s="131"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
-      <c r="G64" s="165" t="s">
+      <c r="G64" s="159" t="s">
         <v>346</v>
       </c>
-      <c r="H64" s="166"/>
-      <c r="I64" s="166"/>
-      <c r="J64" s="166"/>
-      <c r="K64" s="167"/>
+      <c r="H64" s="160"/>
+      <c r="I64" s="160"/>
+      <c r="J64" s="160"/>
+      <c r="K64" s="161"/>
       <c r="L64" s="67"/>
       <c r="M64" s="67"/>
       <c r="N64" s="67"/>
@@ -17645,17 +17645,17 @@
     <row r="65" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="114"/>
       <c r="B65" s="114"/>
-      <c r="C65" s="168"/>
-      <c r="D65" s="136"/>
+      <c r="C65" s="155"/>
+      <c r="D65" s="131"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
-      <c r="G65" s="122" t="s">
+      <c r="G65" s="149" t="s">
         <v>210</v>
       </c>
-      <c r="H65" s="122"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="122"/>
-      <c r="K65" s="122"/>
+      <c r="H65" s="149"/>
+      <c r="I65" s="149"/>
+      <c r="J65" s="149"/>
+      <c r="K65" s="149"/>
       <c r="L65" s="66"/>
       <c r="M65" s="66"/>
       <c r="N65" s="66"/>
@@ -17685,17 +17685,17 @@
     <row r="66" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="114"/>
       <c r="B66" s="114"/>
-      <c r="C66" s="168"/>
-      <c r="D66" s="147"/>
+      <c r="C66" s="155"/>
+      <c r="D66" s="145"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
-      <c r="G66" s="122" t="s">
+      <c r="G66" s="149" t="s">
         <v>213</v>
       </c>
-      <c r="H66" s="122"/>
-      <c r="I66" s="122"/>
-      <c r="J66" s="122"/>
-      <c r="K66" s="122"/>
+      <c r="H66" s="149"/>
+      <c r="I66" s="149"/>
+      <c r="J66" s="149"/>
+      <c r="K66" s="149"/>
       <c r="L66" s="66"/>
       <c r="M66" s="66"/>
       <c r="N66" s="66"/>
@@ -17723,21 +17723,21 @@
     <row r="67" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="114"/>
       <c r="B67" s="114"/>
-      <c r="C67" s="168" t="s">
+      <c r="C67" s="155" t="s">
         <v>264</v>
       </c>
-      <c r="D67" s="137" t="s">
+      <c r="D67" s="173" t="s">
         <v>214</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
-      <c r="G67" s="122" t="s">
+      <c r="G67" s="149" t="s">
         <v>212</v>
       </c>
-      <c r="H67" s="122"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="122"/>
-      <c r="K67" s="122"/>
+      <c r="H67" s="149"/>
+      <c r="I67" s="149"/>
+      <c r="J67" s="149"/>
+      <c r="K67" s="149"/>
       <c r="L67" s="66"/>
       <c r="M67" s="66"/>
       <c r="N67" s="66"/>
@@ -17763,21 +17763,21 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="135">
+      <c r="A68" s="130">
         <v>10</v>
       </c>
       <c r="B68" s="114"/>
-      <c r="C68" s="168"/>
-      <c r="D68" s="148"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="174"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
-      <c r="G68" s="122" t="s">
+      <c r="G68" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="H68" s="122"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="122"/>
-      <c r="K68" s="122"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="149"/>
+      <c r="J68" s="149"/>
+      <c r="K68" s="149"/>
       <c r="L68" s="65"/>
       <c r="M68" s="65"/>
       <c r="N68" s="65"/>
@@ -17803,19 +17803,19 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="136"/>
+      <c r="A69" s="131"/>
       <c r="B69" s="114"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="138"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="175"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
-      <c r="G69" s="130" t="s">
+      <c r="G69" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="H69" s="131"/>
-      <c r="I69" s="131"/>
-      <c r="J69" s="131"/>
-      <c r="K69" s="132"/>
+      <c r="H69" s="140"/>
+      <c r="I69" s="140"/>
+      <c r="J69" s="140"/>
+      <c r="K69" s="141"/>
       <c r="L69" s="65"/>
       <c r="M69" s="65"/>
       <c r="N69" s="65"/>
@@ -17841,21 +17841,21 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="54" x14ac:dyDescent="0.15">
-      <c r="A70" s="136"/>
+      <c r="A70" s="131"/>
       <c r="B70" s="114"/>
-      <c r="C70" s="168"/>
-      <c r="D70" s="149" t="s">
+      <c r="C70" s="155"/>
+      <c r="D70" s="176" t="s">
         <v>203</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
-      <c r="G70" s="130" t="s">
+      <c r="G70" s="139" t="s">
         <v>218</v>
       </c>
-      <c r="H70" s="131"/>
-      <c r="I70" s="131"/>
-      <c r="J70" s="131"/>
-      <c r="K70" s="132"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="140"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="141"/>
       <c r="L70" s="65"/>
       <c r="M70" s="87" t="s">
         <v>545</v>
@@ -17883,19 +17883,19 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="136"/>
+      <c r="A71" s="131"/>
       <c r="B71" s="114"/>
-      <c r="C71" s="168"/>
-      <c r="D71" s="149"/>
+      <c r="C71" s="155"/>
+      <c r="D71" s="176"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
-      <c r="G71" s="130" t="s">
+      <c r="G71" s="139" t="s">
         <v>217</v>
       </c>
-      <c r="H71" s="131"/>
-      <c r="I71" s="131"/>
-      <c r="J71" s="131"/>
-      <c r="K71" s="132"/>
+      <c r="H71" s="140"/>
+      <c r="I71" s="140"/>
+      <c r="J71" s="140"/>
+      <c r="K71" s="141"/>
       <c r="L71" s="65"/>
       <c r="M71" s="65"/>
       <c r="N71" s="65"/>
@@ -17923,19 +17923,19 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="136"/>
+      <c r="A72" s="131"/>
       <c r="B72" s="114"/>
-      <c r="C72" s="168"/>
-      <c r="D72" s="149"/>
+      <c r="C72" s="155"/>
+      <c r="D72" s="176"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
-      <c r="G72" s="130" t="s">
+      <c r="G72" s="139" t="s">
         <v>224</v>
       </c>
-      <c r="H72" s="131"/>
-      <c r="I72" s="131"/>
-      <c r="J72" s="131"/>
-      <c r="K72" s="132"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="140"/>
+      <c r="K72" s="141"/>
       <c r="L72" s="65"/>
       <c r="M72" s="65"/>
       <c r="N72" s="65"/>
@@ -17963,27 +17963,27 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="136">
+      <c r="A73" s="131">
         <v>11</v>
       </c>
       <c r="B73" s="114"/>
-      <c r="C73" s="158" t="s">
+      <c r="C73" s="156" t="s">
         <v>227</v>
       </c>
-      <c r="D73" s="119" t="s">
+      <c r="D73" s="171" t="s">
         <v>221</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="G73" s="130" t="s">
+      <c r="G73" s="139" t="s">
         <v>296</v>
       </c>
-      <c r="H73" s="131"/>
-      <c r="I73" s="131"/>
-      <c r="J73" s="131"/>
-      <c r="K73" s="132"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="140"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="141"/>
       <c r="L73" s="65"/>
       <c r="M73" s="65"/>
       <c r="N73" s="65"/>
@@ -18012,19 +18012,19 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="136"/>
+      <c r="A74" s="131"/>
       <c r="B74" s="114"/>
-      <c r="C74" s="159"/>
-      <c r="D74" s="120"/>
+      <c r="C74" s="157"/>
+      <c r="D74" s="177"/>
       <c r="E74" s="12"/>
       <c r="F74" s="114"/>
-      <c r="G74" s="150" t="s">
+      <c r="G74" s="146" t="s">
         <v>328</v>
       </c>
-      <c r="H74" s="152"/>
-      <c r="I74" s="152"/>
-      <c r="J74" s="152"/>
-      <c r="K74" s="153"/>
+      <c r="H74" s="147"/>
+      <c r="I74" s="147"/>
+      <c r="J74" s="147"/>
+      <c r="K74" s="148"/>
       <c r="L74" s="68"/>
       <c r="M74" s="68"/>
       <c r="N74" s="68"/>
@@ -18050,19 +18050,19 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="136"/>
+      <c r="A75" s="131"/>
       <c r="B75" s="114"/>
-      <c r="C75" s="159"/>
-      <c r="D75" s="121"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="172"/>
       <c r="E75" s="12"/>
       <c r="F75" s="114"/>
-      <c r="G75" s="122" t="s">
+      <c r="G75" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="H75" s="122"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="122"/>
-      <c r="K75" s="122"/>
+      <c r="H75" s="149"/>
+      <c r="I75" s="149"/>
+      <c r="J75" s="149"/>
+      <c r="K75" s="149"/>
       <c r="L75" s="66"/>
       <c r="M75" s="66"/>
       <c r="N75" s="66"/>
@@ -18088,23 +18088,23 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="136"/>
+      <c r="A76" s="131"/>
       <c r="B76" s="114"/>
-      <c r="C76" s="159"/>
-      <c r="D76" s="119" t="s">
+      <c r="C76" s="157"/>
+      <c r="D76" s="171" t="s">
         <v>222</v>
       </c>
       <c r="E76" s="12"/>
-      <c r="F76" s="127" t="s">
+      <c r="F76" s="154" t="s">
         <v>229</v>
       </c>
-      <c r="G76" s="122" t="s">
+      <c r="G76" s="149" t="s">
         <v>230</v>
       </c>
-      <c r="H76" s="122"/>
-      <c r="I76" s="122"/>
-      <c r="J76" s="122"/>
-      <c r="K76" s="122"/>
+      <c r="H76" s="149"/>
+      <c r="I76" s="149"/>
+      <c r="J76" s="149"/>
+      <c r="K76" s="149"/>
       <c r="L76" s="66"/>
       <c r="M76" s="66"/>
       <c r="N76" s="66"/>
@@ -18128,19 +18128,19 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="136"/>
+      <c r="A77" s="131"/>
       <c r="B77" s="114"/>
-      <c r="C77" s="159"/>
-      <c r="D77" s="120"/>
+      <c r="C77" s="157"/>
+      <c r="D77" s="177"/>
       <c r="E77" s="12"/>
-      <c r="F77" s="128"/>
-      <c r="G77" s="122" t="s">
+      <c r="F77" s="152"/>
+      <c r="G77" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="H77" s="122"/>
-      <c r="I77" s="122"/>
-      <c r="J77" s="122"/>
-      <c r="K77" s="122"/>
+      <c r="H77" s="149"/>
+      <c r="I77" s="149"/>
+      <c r="J77" s="149"/>
+      <c r="K77" s="149"/>
       <c r="L77" s="66"/>
       <c r="M77" s="66"/>
       <c r="N77" s="66"/>
@@ -18168,19 +18168,19 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="136"/>
+      <c r="A78" s="131"/>
       <c r="B78" s="114"/>
-      <c r="C78" s="159"/>
-      <c r="D78" s="121"/>
+      <c r="C78" s="157"/>
+      <c r="D78" s="172"/>
       <c r="E78" s="12"/>
-      <c r="F78" s="129"/>
-      <c r="G78" s="122" t="s">
+      <c r="F78" s="153"/>
+      <c r="G78" s="149" t="s">
         <v>277</v>
       </c>
-      <c r="H78" s="122"/>
-      <c r="I78" s="122"/>
-      <c r="J78" s="122"/>
-      <c r="K78" s="122"/>
+      <c r="H78" s="149"/>
+      <c r="I78" s="149"/>
+      <c r="J78" s="149"/>
+      <c r="K78" s="149"/>
       <c r="L78" s="66"/>
       <c r="M78" s="66"/>
       <c r="N78" s="66"/>
@@ -18206,23 +18206,23 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="136">
+      <c r="A79" s="131">
         <v>12</v>
       </c>
       <c r="B79" s="114"/>
-      <c r="C79" s="159"/>
-      <c r="D79" s="119" t="s">
+      <c r="C79" s="157"/>
+      <c r="D79" s="171" t="s">
         <v>353</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="54"/>
-      <c r="G79" s="130" t="s">
+      <c r="G79" s="139" t="s">
         <v>375</v>
       </c>
-      <c r="H79" s="131"/>
-      <c r="I79" s="131"/>
-      <c r="J79" s="131"/>
-      <c r="K79" s="132"/>
+      <c r="H79" s="140"/>
+      <c r="I79" s="140"/>
+      <c r="J79" s="140"/>
+      <c r="K79" s="141"/>
       <c r="L79" s="65"/>
       <c r="M79" s="65"/>
       <c r="N79" s="65"/>
@@ -18244,17 +18244,17 @@
       <c r="Y79" s="12"/>
     </row>
     <row r="80" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="136"/>
+      <c r="A80" s="131"/>
       <c r="B80" s="114"/>
-      <c r="C80" s="160"/>
-      <c r="D80" s="121"/>
+      <c r="C80" s="158"/>
+      <c r="D80" s="172"/>
       <c r="E80" s="12"/>
       <c r="F80" s="54"/>
-      <c r="G80" s="130"/>
-      <c r="H80" s="131"/>
-      <c r="I80" s="131"/>
-      <c r="J80" s="131"/>
-      <c r="K80" s="132"/>
+      <c r="G80" s="139"/>
+      <c r="H80" s="140"/>
+      <c r="I80" s="140"/>
+      <c r="J80" s="140"/>
+      <c r="K80" s="141"/>
       <c r="L80" s="65"/>
       <c r="M80" s="65"/>
       <c r="N80" s="65"/>
@@ -18276,23 +18276,23 @@
       <c r="Y80" s="12"/>
     </row>
     <row r="81" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="136"/>
+      <c r="A81" s="131"/>
       <c r="B81" s="114"/>
-      <c r="C81" s="158" t="s">
+      <c r="C81" s="156" t="s">
         <v>246</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
-      <c r="F81" s="139" t="s">
+      <c r="F81" s="127" t="s">
         <v>236</v>
       </c>
-      <c r="G81" s="130" t="s">
+      <c r="G81" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="H81" s="131"/>
-      <c r="I81" s="131"/>
-      <c r="J81" s="131"/>
-      <c r="K81" s="132"/>
+      <c r="H81" s="140"/>
+      <c r="I81" s="140"/>
+      <c r="J81" s="140"/>
+      <c r="K81" s="141"/>
       <c r="L81" s="65"/>
       <c r="M81" s="65"/>
       <c r="N81" s="65"/>
@@ -18321,19 +18321,19 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="136"/>
+      <c r="A82" s="131"/>
       <c r="B82" s="114"/>
-      <c r="C82" s="159"/>
+      <c r="C82" s="157"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
-      <c r="F82" s="139"/>
-      <c r="G82" s="157" t="s">
+      <c r="F82" s="127"/>
+      <c r="G82" s="169" t="s">
         <v>237</v>
       </c>
-      <c r="H82" s="157"/>
-      <c r="I82" s="157"/>
-      <c r="J82" s="157"/>
-      <c r="K82" s="157"/>
+      <c r="H82" s="169"/>
+      <c r="I82" s="169"/>
+      <c r="J82" s="169"/>
+      <c r="K82" s="169"/>
       <c r="L82" s="70"/>
       <c r="M82" s="70"/>
       <c r="N82" s="70"/>
@@ -18357,23 +18357,23 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="136">
+      <c r="A83" s="131">
         <v>13</v>
       </c>
       <c r="B83" s="114"/>
-      <c r="C83" s="159"/>
-      <c r="D83" s="119" t="s">
+      <c r="C83" s="157"/>
+      <c r="D83" s="171" t="s">
         <v>358</v>
       </c>
       <c r="E83" s="12"/>
-      <c r="F83" s="139"/>
-      <c r="G83" s="157" t="s">
+      <c r="F83" s="127"/>
+      <c r="G83" s="169" t="s">
         <v>241</v>
       </c>
-      <c r="H83" s="157"/>
-      <c r="I83" s="157"/>
-      <c r="J83" s="157"/>
-      <c r="K83" s="157"/>
+      <c r="H83" s="169"/>
+      <c r="I83" s="169"/>
+      <c r="J83" s="169"/>
+      <c r="K83" s="169"/>
       <c r="L83" s="70"/>
       <c r="M83" s="70"/>
       <c r="N83" s="70"/>
@@ -18397,19 +18397,19 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="136"/>
+      <c r="A84" s="131"/>
       <c r="B84" s="114"/>
-      <c r="C84" s="159"/>
-      <c r="D84" s="121"/>
+      <c r="C84" s="157"/>
+      <c r="D84" s="172"/>
       <c r="E84" s="12"/>
-      <c r="F84" s="139"/>
-      <c r="G84" s="157" t="s">
+      <c r="F84" s="127"/>
+      <c r="G84" s="169" t="s">
         <v>242</v>
       </c>
-      <c r="H84" s="157"/>
-      <c r="I84" s="157"/>
-      <c r="J84" s="157"/>
-      <c r="K84" s="157"/>
+      <c r="H84" s="169"/>
+      <c r="I84" s="169"/>
+      <c r="J84" s="169"/>
+      <c r="K84" s="169"/>
       <c r="L84" s="70"/>
       <c r="M84" s="70"/>
       <c r="N84" s="70"/>
@@ -18433,19 +18433,19 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="136"/>
+      <c r="A85" s="131"/>
       <c r="B85" s="114"/>
-      <c r="C85" s="160"/>
+      <c r="C85" s="158"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="139"/>
-      <c r="G85" s="122" t="s">
+      <c r="F85" s="127"/>
+      <c r="G85" s="149" t="s">
         <v>256</v>
       </c>
-      <c r="H85" s="122"/>
-      <c r="I85" s="122"/>
-      <c r="J85" s="122"/>
-      <c r="K85" s="122"/>
+      <c r="H85" s="149"/>
+      <c r="I85" s="149"/>
+      <c r="J85" s="149"/>
+      <c r="K85" s="149"/>
       <c r="L85" s="66"/>
       <c r="M85" s="66"/>
       <c r="N85" s="66"/>
@@ -18476,23 +18476,23 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="136"/>
+      <c r="A86" s="131"/>
       <c r="B86" s="12"/>
       <c r="C86" s="35" t="s">
         <v>238</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
-      <c r="F86" s="144" t="s">
+      <c r="F86" s="120" t="s">
         <v>290</v>
       </c>
-      <c r="G86" s="122" t="s">
+      <c r="G86" s="149" t="s">
         <v>257</v>
       </c>
-      <c r="H86" s="122"/>
-      <c r="I86" s="122"/>
-      <c r="J86" s="122"/>
-      <c r="K86" s="122"/>
+      <c r="H86" s="149"/>
+      <c r="I86" s="149"/>
+      <c r="J86" s="149"/>
+      <c r="K86" s="149"/>
       <c r="L86" s="66"/>
       <c r="M86" s="66"/>
       <c r="N86" s="66"/>
@@ -18518,21 +18518,21 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="136"/>
+      <c r="A87" s="131"/>
       <c r="B87" s="12"/>
       <c r="C87" s="35" t="s">
         <v>239</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
-      <c r="F87" s="145"/>
-      <c r="G87" s="122" t="s">
+      <c r="F87" s="132"/>
+      <c r="G87" s="149" t="s">
         <v>243</v>
       </c>
-      <c r="H87" s="122"/>
-      <c r="I87" s="122"/>
-      <c r="J87" s="122"/>
-      <c r="K87" s="122"/>
+      <c r="H87" s="149"/>
+      <c r="I87" s="149"/>
+      <c r="J87" s="149"/>
+      <c r="K87" s="149"/>
       <c r="L87" s="66"/>
       <c r="M87" s="66"/>
       <c r="N87" s="66"/>
@@ -18558,7 +18558,7 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="136">
+      <c r="A88" s="131">
         <v>14</v>
       </c>
       <c r="B88" s="12"/>
@@ -18567,14 +18567,14 @@
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
-      <c r="F88" s="145"/>
-      <c r="G88" s="122" t="s">
+      <c r="F88" s="132"/>
+      <c r="G88" s="149" t="s">
         <v>244</v>
       </c>
-      <c r="H88" s="122"/>
-      <c r="I88" s="122"/>
-      <c r="J88" s="122"/>
-      <c r="K88" s="122"/>
+      <c r="H88" s="149"/>
+      <c r="I88" s="149"/>
+      <c r="J88" s="149"/>
+      <c r="K88" s="149"/>
       <c r="L88" s="66"/>
       <c r="M88" s="66"/>
       <c r="N88" s="66"/>
@@ -18602,19 +18602,19 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="136"/>
+      <c r="A89" s="131"/>
       <c r="B89" s="12"/>
       <c r="C89" s="36"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
-      <c r="F89" s="146"/>
-      <c r="G89" s="122" t="s">
+      <c r="F89" s="133"/>
+      <c r="G89" s="149" t="s">
         <v>245</v>
       </c>
-      <c r="H89" s="122"/>
-      <c r="I89" s="122"/>
-      <c r="J89" s="122"/>
-      <c r="K89" s="122"/>
+      <c r="H89" s="149"/>
+      <c r="I89" s="149"/>
+      <c r="J89" s="149"/>
+      <c r="K89" s="149"/>
       <c r="L89" s="66"/>
       <c r="M89" s="66"/>
       <c r="N89" s="66"/>
@@ -18638,19 +18638,19 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="136"/>
+      <c r="A90" s="131"/>
       <c r="B90" s="12"/>
       <c r="C90" s="35"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="130" t="s">
+      <c r="G90" s="139" t="s">
         <v>247</v>
       </c>
-      <c r="H90" s="131"/>
-      <c r="I90" s="131"/>
-      <c r="J90" s="131"/>
-      <c r="K90" s="132"/>
+      <c r="H90" s="140"/>
+      <c r="I90" s="140"/>
+      <c r="J90" s="140"/>
+      <c r="K90" s="141"/>
       <c r="L90" s="65"/>
       <c r="M90" s="65"/>
       <c r="N90" s="65"/>
@@ -18674,19 +18674,19 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="136"/>
+      <c r="A91" s="131"/>
       <c r="B91" s="12"/>
       <c r="C91" s="35"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="122" t="s">
+      <c r="G91" s="149" t="s">
         <v>306</v>
       </c>
-      <c r="H91" s="122"/>
-      <c r="I91" s="122"/>
-      <c r="J91" s="122"/>
-      <c r="K91" s="122"/>
+      <c r="H91" s="149"/>
+      <c r="I91" s="149"/>
+      <c r="J91" s="149"/>
+      <c r="K91" s="149"/>
       <c r="L91" s="66"/>
       <c r="M91" s="66"/>
       <c r="N91" s="66"/>
@@ -18710,19 +18710,19 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="147"/>
+      <c r="A92" s="145"/>
       <c r="B92" s="12"/>
       <c r="C92" s="37"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
-      <c r="G92" s="122" t="s">
+      <c r="G92" s="149" t="s">
         <v>259</v>
       </c>
-      <c r="H92" s="122"/>
-      <c r="I92" s="122"/>
-      <c r="J92" s="122"/>
-      <c r="K92" s="122"/>
+      <c r="H92" s="149"/>
+      <c r="I92" s="149"/>
+      <c r="J92" s="149"/>
+      <c r="K92" s="149"/>
       <c r="L92" s="66"/>
       <c r="M92" s="66"/>
       <c r="N92" s="66"/>
@@ -18748,23 +18748,23 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="135">
+      <c r="A93" s="130">
         <v>15</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="37"/>
-      <c r="D93" s="137" t="s">
+      <c r="D93" s="173" t="s">
         <v>273</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
-      <c r="G93" s="122" t="s">
+      <c r="G93" s="149" t="s">
         <v>260</v>
       </c>
-      <c r="H93" s="122"/>
-      <c r="I93" s="122"/>
-      <c r="J93" s="122"/>
-      <c r="K93" s="122"/>
+      <c r="H93" s="149"/>
+      <c r="I93" s="149"/>
+      <c r="J93" s="149"/>
+      <c r="K93" s="149"/>
       <c r="L93" s="66"/>
       <c r="M93" s="66"/>
       <c r="N93" s="66"/>
@@ -18790,19 +18790,19 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="136"/>
+      <c r="A94" s="131"/>
       <c r="B94" s="12"/>
       <c r="C94" s="37"/>
-      <c r="D94" s="138"/>
+      <c r="D94" s="175"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
-      <c r="G94" s="130" t="s">
+      <c r="G94" s="139" t="s">
         <v>275</v>
       </c>
-      <c r="H94" s="131"/>
-      <c r="I94" s="131"/>
-      <c r="J94" s="131"/>
-      <c r="K94" s="132"/>
+      <c r="H94" s="140"/>
+      <c r="I94" s="140"/>
+      <c r="J94" s="140"/>
+      <c r="K94" s="141"/>
       <c r="L94" s="65"/>
       <c r="M94" s="65"/>
       <c r="N94" s="65"/>
@@ -18827,19 +18827,19 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="136"/>
+      <c r="A95" s="131"/>
       <c r="B95" s="12"/>
       <c r="C95" s="37"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
-      <c r="G95" s="122" t="s">
+      <c r="G95" s="149" t="s">
         <v>265</v>
       </c>
-      <c r="H95" s="122"/>
-      <c r="I95" s="122"/>
-      <c r="J95" s="122"/>
-      <c r="K95" s="122"/>
+      <c r="H95" s="149"/>
+      <c r="I95" s="149"/>
+      <c r="J95" s="149"/>
+      <c r="K95" s="149"/>
       <c r="L95" s="66"/>
       <c r="M95" s="66"/>
       <c r="N95" s="66"/>
@@ -18863,18 +18863,18 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="136"/>
+      <c r="A96" s="131"/>
       <c r="B96" s="12"/>
       <c r="D96" s="34"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="122" t="s">
+      <c r="G96" s="149" t="s">
         <v>266</v>
       </c>
-      <c r="H96" s="122"/>
-      <c r="I96" s="122"/>
-      <c r="J96" s="122"/>
-      <c r="K96" s="122"/>
+      <c r="H96" s="149"/>
+      <c r="I96" s="149"/>
+      <c r="J96" s="149"/>
+      <c r="K96" s="149"/>
       <c r="L96" s="66"/>
       <c r="M96" s="66"/>
       <c r="N96" s="66"/>
@@ -18898,7 +18898,7 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="136"/>
+      <c r="A97" s="131"/>
       <c r="B97" s="12"/>
       <c r="C97" s="37" t="s">
         <v>267</v>
@@ -18906,13 +18906,13 @@
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
-      <c r="G97" s="122" t="s">
+      <c r="G97" s="149" t="s">
         <v>548</v>
       </c>
-      <c r="H97" s="122"/>
-      <c r="I97" s="122"/>
-      <c r="J97" s="122"/>
-      <c r="K97" s="122"/>
+      <c r="H97" s="149"/>
+      <c r="I97" s="149"/>
+      <c r="J97" s="149"/>
+      <c r="K97" s="149"/>
       <c r="L97" s="66"/>
       <c r="M97" s="66"/>
       <c r="N97" s="66"/>
@@ -18938,20 +18938,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="136"/>
+      <c r="A98" s="131"/>
       <c r="B98" s="12"/>
       <c r="C98" s="58" t="s">
         <v>268</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
-      <c r="G98" s="122" t="s">
+      <c r="G98" s="149" t="s">
         <v>547</v>
       </c>
-      <c r="H98" s="122"/>
-      <c r="I98" s="122"/>
-      <c r="J98" s="122"/>
-      <c r="K98" s="122"/>
+      <c r="H98" s="149"/>
+      <c r="I98" s="149"/>
+      <c r="J98" s="149"/>
+      <c r="K98" s="149"/>
       <c r="L98" s="66"/>
       <c r="M98" s="66"/>
       <c r="N98" s="66"/>
@@ -18973,7 +18973,7 @@
       <c r="Y98" s="12"/>
     </row>
     <row r="99" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="147"/>
+      <c r="A99" s="145"/>
       <c r="B99" s="12"/>
       <c r="C99" s="37" t="s">
         <v>269</v>
@@ -18981,13 +18981,13 @@
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
-      <c r="G99" s="122" t="s">
+      <c r="G99" s="149" t="s">
         <v>270</v>
       </c>
-      <c r="H99" s="122"/>
-      <c r="I99" s="122"/>
-      <c r="J99" s="122"/>
-      <c r="K99" s="122"/>
+      <c r="H99" s="149"/>
+      <c r="I99" s="149"/>
+      <c r="J99" s="149"/>
+      <c r="K99" s="149"/>
       <c r="L99" s="66"/>
       <c r="M99" s="66"/>
       <c r="N99" s="66"/>
@@ -19024,18 +19024,18 @@
       <c r="C100" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="D100" s="119" t="s">
+      <c r="D100" s="171" t="s">
         <v>276</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
-      <c r="G100" s="123" t="s">
+      <c r="G100" s="178" t="s">
         <v>272</v>
       </c>
-      <c r="H100" s="122"/>
-      <c r="I100" s="122"/>
-      <c r="J100" s="122"/>
-      <c r="K100" s="122"/>
+      <c r="H100" s="149"/>
+      <c r="I100" s="149"/>
+      <c r="J100" s="149"/>
+      <c r="K100" s="149"/>
       <c r="L100" s="66"/>
       <c r="M100" s="66"/>
       <c r="N100" s="66"/>
@@ -19064,16 +19064,16 @@
       <c r="A101" s="114"/>
       <c r="B101" s="12"/>
       <c r="C101" s="37"/>
-      <c r="D101" s="120"/>
+      <c r="D101" s="177"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
-      <c r="G101" s="122" t="s">
+      <c r="G101" s="149" t="s">
         <v>281</v>
       </c>
-      <c r="H101" s="122"/>
-      <c r="I101" s="122"/>
-      <c r="J101" s="122"/>
-      <c r="K101" s="122"/>
+      <c r="H101" s="149"/>
+      <c r="I101" s="149"/>
+      <c r="J101" s="149"/>
+      <c r="K101" s="149"/>
       <c r="L101" s="66"/>
       <c r="M101" s="66"/>
       <c r="N101" s="66"/>
@@ -19100,16 +19100,16 @@
       <c r="A102" s="114"/>
       <c r="B102" s="12"/>
       <c r="C102" s="37"/>
-      <c r="D102" s="121"/>
+      <c r="D102" s="172"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
-      <c r="G102" s="122" t="s">
+      <c r="G102" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="H102" s="122"/>
-      <c r="I102" s="122"/>
-      <c r="J102" s="122"/>
-      <c r="K102" s="122"/>
+      <c r="H102" s="149"/>
+      <c r="I102" s="149"/>
+      <c r="J102" s="149"/>
+      <c r="K102" s="149"/>
       <c r="L102" s="66"/>
       <c r="M102" s="66"/>
       <c r="N102" s="66"/>
@@ -19141,13 +19141,13 @@
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
-      <c r="G103" s="122" t="s">
+      <c r="G103" s="149" t="s">
         <v>280</v>
       </c>
-      <c r="H103" s="122"/>
-      <c r="I103" s="122"/>
-      <c r="J103" s="122"/>
-      <c r="K103" s="122"/>
+      <c r="H103" s="149"/>
+      <c r="I103" s="149"/>
+      <c r="J103" s="149"/>
+      <c r="K103" s="149"/>
       <c r="L103" s="66"/>
       <c r="M103" s="66"/>
       <c r="N103" s="66"/>
@@ -19179,13 +19179,13 @@
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
-      <c r="G104" s="122" t="s">
+      <c r="G104" s="149" t="s">
         <v>288</v>
       </c>
-      <c r="H104" s="122"/>
-      <c r="I104" s="122"/>
-      <c r="J104" s="122"/>
-      <c r="K104" s="122"/>
+      <c r="H104" s="149"/>
+      <c r="I104" s="149"/>
+      <c r="J104" s="149"/>
+      <c r="K104" s="149"/>
       <c r="L104" s="66"/>
       <c r="M104" s="66"/>
       <c r="N104" s="66"/>
@@ -19215,11 +19215,11 @@
       <c r="D105" s="38"/>
       <c r="E105" s="38"/>
       <c r="F105" s="38"/>
-      <c r="G105" s="122"/>
-      <c r="H105" s="122"/>
-      <c r="I105" s="122"/>
-      <c r="J105" s="122"/>
-      <c r="K105" s="122"/>
+      <c r="G105" s="149"/>
+      <c r="H105" s="149"/>
+      <c r="I105" s="149"/>
+      <c r="J105" s="149"/>
+      <c r="K105" s="149"/>
       <c r="L105" s="64"/>
       <c r="M105" s="64"/>
       <c r="N105" s="64"/>
@@ -19243,7 +19243,7 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="135">
+      <c r="A106" s="130">
         <v>17</v>
       </c>
       <c r="B106" s="12"/>
@@ -19253,13 +19253,13 @@
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
-      <c r="G106" s="117" t="s">
+      <c r="G106" s="184" t="s">
         <v>320</v>
       </c>
-      <c r="H106" s="118"/>
-      <c r="I106" s="118"/>
-      <c r="J106" s="118"/>
-      <c r="K106" s="118"/>
+      <c r="H106" s="185"/>
+      <c r="I106" s="185"/>
+      <c r="J106" s="185"/>
+      <c r="K106" s="185"/>
       <c r="L106" s="72"/>
       <c r="M106" s="72"/>
       <c r="N106" s="72"/>
@@ -19285,19 +19285,19 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="136"/>
+      <c r="A107" s="131"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
-      <c r="G107" s="122" t="s">
+      <c r="G107" s="149" t="s">
         <v>308</v>
       </c>
-      <c r="H107" s="122"/>
-      <c r="I107" s="122"/>
-      <c r="J107" s="122"/>
-      <c r="K107" s="122"/>
+      <c r="H107" s="149"/>
+      <c r="I107" s="149"/>
+      <c r="J107" s="149"/>
+      <c r="K107" s="149"/>
       <c r="L107" s="66"/>
       <c r="M107" s="66"/>
       <c r="N107" s="66"/>
@@ -19321,19 +19321,19 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="147"/>
+      <c r="A108" s="145"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
-      <c r="G108" s="122" t="s">
+      <c r="G108" s="149" t="s">
         <v>289</v>
       </c>
-      <c r="H108" s="122"/>
-      <c r="I108" s="122"/>
-      <c r="J108" s="122"/>
-      <c r="K108" s="122"/>
+      <c r="H108" s="149"/>
+      <c r="I108" s="149"/>
+      <c r="J108" s="149"/>
+      <c r="K108" s="149"/>
       <c r="L108" s="66"/>
       <c r="M108" s="66"/>
       <c r="N108" s="66"/>
@@ -19367,13 +19367,13 @@
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
-      <c r="G109" s="122" t="s">
+      <c r="G109" s="149" t="s">
         <v>357</v>
       </c>
-      <c r="H109" s="122"/>
-      <c r="I109" s="122"/>
-      <c r="J109" s="122"/>
-      <c r="K109" s="122"/>
+      <c r="H109" s="149"/>
+      <c r="I109" s="149"/>
+      <c r="J109" s="149"/>
+      <c r="K109" s="149"/>
       <c r="L109" s="66"/>
       <c r="M109" s="66"/>
       <c r="N109" s="66"/>
@@ -19402,13 +19402,13 @@
       <c r="D110" s="42"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
-      <c r="G110" s="122" t="s">
+      <c r="G110" s="149" t="s">
         <v>292</v>
       </c>
-      <c r="H110" s="122"/>
-      <c r="I110" s="122"/>
-      <c r="J110" s="122"/>
-      <c r="K110" s="122"/>
+      <c r="H110" s="149"/>
+      <c r="I110" s="149"/>
+      <c r="J110" s="149"/>
+      <c r="K110" s="149"/>
       <c r="L110" s="66"/>
       <c r="M110" s="66"/>
       <c r="N110" s="66"/>
@@ -19442,13 +19442,13 @@
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
-      <c r="G111" s="122" t="s">
+      <c r="G111" s="149" t="s">
         <v>314</v>
       </c>
-      <c r="H111" s="122"/>
-      <c r="I111" s="122"/>
-      <c r="J111" s="122"/>
-      <c r="K111" s="122"/>
+      <c r="H111" s="149"/>
+      <c r="I111" s="149"/>
+      <c r="J111" s="149"/>
+      <c r="K111" s="149"/>
       <c r="L111" s="66"/>
       <c r="M111" s="66"/>
       <c r="N111" s="66"/>
@@ -19478,13 +19478,13 @@
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
-      <c r="G112" s="130" t="s">
+      <c r="G112" s="139" t="s">
         <v>359</v>
       </c>
-      <c r="H112" s="131"/>
-      <c r="I112" s="131"/>
-      <c r="J112" s="131"/>
-      <c r="K112" s="132"/>
+      <c r="H112" s="140"/>
+      <c r="I112" s="140"/>
+      <c r="J112" s="140"/>
+      <c r="K112" s="141"/>
       <c r="L112" s="65"/>
       <c r="M112" s="65"/>
       <c r="N112" s="65"/>
@@ -19515,11 +19515,11 @@
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
-      <c r="G113" s="130"/>
-      <c r="H113" s="131"/>
-      <c r="I113" s="131"/>
-      <c r="J113" s="131"/>
-      <c r="K113" s="132"/>
+      <c r="G113" s="139"/>
+      <c r="H113" s="140"/>
+      <c r="I113" s="140"/>
+      <c r="J113" s="140"/>
+      <c r="K113" s="141"/>
       <c r="L113" s="65"/>
       <c r="M113" s="65"/>
       <c r="N113" s="65"/>
@@ -19551,23 +19551,23 @@
       </c>
     </row>
     <row r="114" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="135">
+      <c r="A114" s="130">
         <v>19</v>
       </c>
-      <c r="B114" s="133"/>
-      <c r="C114" s="172" t="s">
+      <c r="B114" s="117"/>
+      <c r="C114" s="150" t="s">
         <v>298</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
-      <c r="G114" s="122" t="s">
+      <c r="G114" s="149" t="s">
         <v>363</v>
       </c>
-      <c r="H114" s="122"/>
-      <c r="I114" s="122"/>
-      <c r="J114" s="122"/>
-      <c r="K114" s="122"/>
+      <c r="H114" s="149"/>
+      <c r="I114" s="149"/>
+      <c r="J114" s="149"/>
+      <c r="K114" s="149"/>
       <c r="L114" s="65"/>
       <c r="M114" s="65"/>
       <c r="N114" s="65"/>
@@ -19590,19 +19590,19 @@
       <c r="Y114" s="12"/>
     </row>
     <row r="115" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="136"/>
-      <c r="B115" s="134"/>
-      <c r="C115" s="173"/>
+      <c r="A115" s="131"/>
+      <c r="B115" s="118"/>
+      <c r="C115" s="151"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
-      <c r="G115" s="123" t="s">
+      <c r="G115" s="178" t="s">
         <v>374</v>
       </c>
-      <c r="H115" s="122"/>
-      <c r="I115" s="122"/>
-      <c r="J115" s="122"/>
-      <c r="K115" s="122"/>
+      <c r="H115" s="149"/>
+      <c r="I115" s="149"/>
+      <c r="J115" s="149"/>
+      <c r="K115" s="149"/>
       <c r="L115" s="65"/>
       <c r="M115" s="65"/>
       <c r="N115" s="65"/>
@@ -19624,19 +19624,19 @@
       <c r="Y115" s="12"/>
     </row>
     <row r="116" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="136"/>
-      <c r="B116" s="139" t="s">
+      <c r="A116" s="131"/>
+      <c r="B116" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="C116" s="173"/>
+      <c r="C116" s="151"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
-      <c r="G116" s="122"/>
-      <c r="H116" s="122"/>
-      <c r="I116" s="122"/>
-      <c r="J116" s="122"/>
-      <c r="K116" s="122"/>
+      <c r="G116" s="149"/>
+      <c r="H116" s="149"/>
+      <c r="I116" s="149"/>
+      <c r="J116" s="149"/>
+      <c r="K116" s="149"/>
       <c r="L116" s="65"/>
       <c r="M116" s="65"/>
       <c r="N116" s="65"/>
@@ -19660,21 +19660,21 @@
       </c>
     </row>
     <row r="117" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="136"/>
-      <c r="B117" s="139"/>
-      <c r="C117" s="173"/>
+      <c r="A117" s="131"/>
+      <c r="B117" s="127"/>
+      <c r="C117" s="151"/>
       <c r="D117" s="53" t="s">
         <v>321</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
-      <c r="G117" s="140" t="s">
+      <c r="G117" s="180" t="s">
         <v>299</v>
       </c>
-      <c r="H117" s="141"/>
-      <c r="I117" s="141"/>
-      <c r="J117" s="141"/>
-      <c r="K117" s="142"/>
+      <c r="H117" s="181"/>
+      <c r="I117" s="181"/>
+      <c r="J117" s="181"/>
+      <c r="K117" s="182"/>
       <c r="L117" s="73"/>
       <c r="M117" s="73"/>
       <c r="N117" s="73"/>
@@ -19700,19 +19700,19 @@
       </c>
     </row>
     <row r="118" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="136"/>
-      <c r="B118" s="139"/>
-      <c r="C118" s="173"/>
+      <c r="A118" s="131"/>
+      <c r="B118" s="127"/>
+      <c r="C118" s="151"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
-      <c r="G118" s="143" t="s">
+      <c r="G118" s="183" t="s">
         <v>368</v>
       </c>
-      <c r="H118" s="122"/>
-      <c r="I118" s="122"/>
-      <c r="J118" s="122"/>
-      <c r="K118" s="122"/>
+      <c r="H118" s="149"/>
+      <c r="I118" s="149"/>
+      <c r="J118" s="149"/>
+      <c r="K118" s="149"/>
       <c r="L118" s="65"/>
       <c r="M118" s="65"/>
       <c r="N118" s="65"/>
@@ -19742,21 +19742,21 @@
       </c>
     </row>
     <row r="119" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="136"/>
-      <c r="B119" s="139"/>
-      <c r="C119" s="173"/>
+      <c r="A119" s="131"/>
+      <c r="B119" s="127"/>
+      <c r="C119" s="151"/>
       <c r="D119" s="53" t="s">
         <v>365</v>
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="12"/>
-      <c r="G119" s="130" t="s">
+      <c r="G119" s="139" t="s">
         <v>366</v>
       </c>
-      <c r="H119" s="131"/>
-      <c r="I119" s="131"/>
-      <c r="J119" s="131"/>
-      <c r="K119" s="132"/>
+      <c r="H119" s="140"/>
+      <c r="I119" s="140"/>
+      <c r="J119" s="140"/>
+      <c r="K119" s="141"/>
       <c r="L119" s="65"/>
       <c r="M119" s="65"/>
       <c r="N119" s="65"/>
@@ -19780,17 +19780,17 @@
       </c>
     </row>
     <row r="120" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="147"/>
-      <c r="B120" s="127"/>
-      <c r="C120" s="173"/>
+      <c r="A120" s="145"/>
+      <c r="B120" s="154"/>
+      <c r="C120" s="151"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="38"/>
-      <c r="G120" s="130"/>
-      <c r="H120" s="131"/>
-      <c r="I120" s="131"/>
-      <c r="J120" s="131"/>
-      <c r="K120" s="132"/>
+      <c r="G120" s="139"/>
+      <c r="H120" s="140"/>
+      <c r="I120" s="140"/>
+      <c r="J120" s="140"/>
+      <c r="K120" s="141"/>
       <c r="L120" s="78"/>
       <c r="M120" s="78"/>
       <c r="N120" s="78"/>
@@ -19819,21 +19819,21 @@
       <c r="A121" s="114">
         <v>20</v>
       </c>
-      <c r="B121" s="127" t="s">
+      <c r="B121" s="154" t="s">
         <v>302</v>
       </c>
-      <c r="C121" s="128" t="s">
+      <c r="C121" s="152" t="s">
         <v>311</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
-      <c r="G121" s="122" t="s">
+      <c r="G121" s="149" t="s">
         <v>356</v>
       </c>
-      <c r="H121" s="122"/>
-      <c r="I121" s="122"/>
-      <c r="J121" s="122"/>
-      <c r="K121" s="122"/>
+      <c r="H121" s="149"/>
+      <c r="I121" s="149"/>
+      <c r="J121" s="149"/>
+      <c r="K121" s="149"/>
       <c r="L121" s="66"/>
       <c r="M121" s="66"/>
       <c r="N121" s="66"/>
@@ -19857,20 +19857,20 @@
     </row>
     <row r="122" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="114"/>
-      <c r="B122" s="128"/>
-      <c r="C122" s="128"/>
+      <c r="B122" s="152"/>
+      <c r="C122" s="152"/>
       <c r="D122" s="53" t="s">
         <v>322</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
-      <c r="G122" s="130" t="s">
+      <c r="G122" s="139" t="s">
         <v>369</v>
       </c>
-      <c r="H122" s="131"/>
-      <c r="I122" s="131"/>
-      <c r="J122" s="131"/>
-      <c r="K122" s="132"/>
+      <c r="H122" s="140"/>
+      <c r="I122" s="140"/>
+      <c r="J122" s="140"/>
+      <c r="K122" s="141"/>
       <c r="L122" s="65"/>
       <c r="M122" s="65"/>
       <c r="N122" s="65"/>
@@ -19895,18 +19895,18 @@
     </row>
     <row r="123" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="114"/>
-      <c r="B123" s="129"/>
-      <c r="C123" s="128"/>
+      <c r="B123" s="153"/>
+      <c r="C123" s="152"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
-      <c r="G123" s="124" t="s">
+      <c r="G123" s="186" t="s">
         <v>372</v>
       </c>
-      <c r="H123" s="125"/>
-      <c r="I123" s="125"/>
-      <c r="J123" s="125"/>
-      <c r="K123" s="126"/>
+      <c r="H123" s="179"/>
+      <c r="I123" s="179"/>
+      <c r="J123" s="179"/>
+      <c r="K123" s="187"/>
       <c r="L123" s="74"/>
       <c r="M123" s="74"/>
       <c r="N123" s="74"/>
@@ -19930,22 +19930,22 @@
       <c r="Z123" s="12"/>
     </row>
     <row r="124" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="135">
+      <c r="A124" s="130">
         <v>21</v>
       </c>
-      <c r="B124" s="123" t="s">
+      <c r="B124" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="C124" s="128"/>
+      <c r="C124" s="152"/>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
-      <c r="G124" s="122" t="s">
+      <c r="G124" s="149" t="s">
         <v>371</v>
       </c>
-      <c r="H124" s="122"/>
-      <c r="I124" s="122"/>
-      <c r="J124" s="122"/>
-      <c r="K124" s="122"/>
+      <c r="H124" s="149"/>
+      <c r="I124" s="149"/>
+      <c r="J124" s="149"/>
+      <c r="K124" s="149"/>
       <c r="L124" s="66"/>
       <c r="M124" s="66"/>
       <c r="N124" s="66"/>
@@ -19966,21 +19966,21 @@
       <c r="Z124" s="12"/>
     </row>
     <row r="125" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="136"/>
-      <c r="B125" s="123"/>
-      <c r="C125" s="128"/>
+      <c r="A125" s="131"/>
+      <c r="B125" s="178"/>
+      <c r="C125" s="152"/>
       <c r="D125" s="61" t="s">
         <v>360</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
-      <c r="G125" s="130" t="s">
+      <c r="G125" s="139" t="s">
         <v>370</v>
       </c>
-      <c r="H125" s="131"/>
-      <c r="I125" s="131"/>
-      <c r="J125" s="131"/>
-      <c r="K125" s="132"/>
+      <c r="H125" s="140"/>
+      <c r="I125" s="140"/>
+      <c r="J125" s="140"/>
+      <c r="K125" s="141"/>
       <c r="L125" s="65"/>
       <c r="M125" s="65"/>
       <c r="N125" s="65"/>
@@ -20003,19 +20003,19 @@
       <c r="Z125" s="12"/>
     </row>
     <row r="126" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="136"/>
-      <c r="B126" s="123"/>
-      <c r="C126" s="129"/>
+      <c r="A126" s="131"/>
+      <c r="B126" s="178"/>
+      <c r="C126" s="153"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
-      <c r="G126" s="122" t="s">
+      <c r="G126" s="149" t="s">
         <v>362</v>
       </c>
-      <c r="H126" s="122"/>
-      <c r="I126" s="122"/>
-      <c r="J126" s="122"/>
-      <c r="K126" s="122"/>
+      <c r="H126" s="149"/>
+      <c r="I126" s="149"/>
+      <c r="J126" s="149"/>
+      <c r="K126" s="149"/>
       <c r="L126" s="66"/>
       <c r="M126" s="66"/>
       <c r="N126" s="66"/>
@@ -20039,10 +20039,10 @@
       <c r="A127" s="114">
         <v>22</v>
       </c>
-      <c r="B127" s="125" t="s">
+      <c r="B127" s="179" t="s">
         <v>312</v>
       </c>
-      <c r="C127" s="139" t="s">
+      <c r="C127" s="127" t="s">
         <v>376</v>
       </c>
       <c r="D127" s="62" t="s">
@@ -20050,13 +20050,13 @@
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
-      <c r="G127" s="122" t="s">
+      <c r="G127" s="149" t="s">
         <v>313</v>
       </c>
-      <c r="H127" s="122"/>
-      <c r="I127" s="122"/>
-      <c r="J127" s="122"/>
-      <c r="K127" s="122"/>
+      <c r="H127" s="149"/>
+      <c r="I127" s="149"/>
+      <c r="J127" s="149"/>
+      <c r="K127" s="149"/>
       <c r="L127" s="66"/>
       <c r="M127" s="66"/>
       <c r="N127" s="66"/>
@@ -20080,18 +20080,18 @@
     </row>
     <row r="128" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="114"/>
-      <c r="B128" s="125"/>
-      <c r="C128" s="139"/>
+      <c r="B128" s="179"/>
+      <c r="C128" s="127"/>
       <c r="D128" s="62"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
-      <c r="G128" s="123" t="s">
+      <c r="G128" s="178" t="s">
         <v>373</v>
       </c>
-      <c r="H128" s="122"/>
-      <c r="I128" s="122"/>
-      <c r="J128" s="122"/>
-      <c r="K128" s="122"/>
+      <c r="H128" s="149"/>
+      <c r="I128" s="149"/>
+      <c r="J128" s="149"/>
+      <c r="K128" s="149"/>
       <c r="L128" s="66"/>
       <c r="M128" s="66"/>
       <c r="N128" s="66"/>
@@ -20113,17 +20113,17 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A129" s="114"/>
-      <c r="B129" s="127" t="s">
+      <c r="B129" s="154" t="s">
         <v>377</v>
       </c>
-      <c r="C129" s="139"/>
-      <c r="G129" s="122" t="s">
+      <c r="C129" s="127"/>
+      <c r="G129" s="149" t="s">
         <v>315</v>
       </c>
-      <c r="H129" s="122"/>
-      <c r="I129" s="122"/>
-      <c r="J129" s="122"/>
-      <c r="K129" s="122"/>
+      <c r="H129" s="149"/>
+      <c r="I129" s="149"/>
+      <c r="J129" s="149"/>
+      <c r="K129" s="149"/>
       <c r="L129" s="79"/>
       <c r="M129" s="79"/>
       <c r="N129" s="79"/>
@@ -20134,8 +20134,8 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A130" s="114"/>
-      <c r="B130" s="128"/>
-      <c r="C130" s="139"/>
+      <c r="B130" s="152"/>
+      <c r="C130" s="127"/>
       <c r="R130" s="12">
         <f>SUM($Q$9:Q130)</f>
         <v>273.25710835539172</v>
@@ -20143,8 +20143,8 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A131" s="114"/>
-      <c r="B131" s="128"/>
-      <c r="C131" s="139"/>
+      <c r="B131" s="152"/>
+      <c r="C131" s="127"/>
       <c r="R131" s="12">
         <f>SUM($Q$9:Q131)</f>
         <v>273.25710835539172</v>
@@ -20152,8 +20152,8 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A132" s="114"/>
-      <c r="B132" s="128"/>
-      <c r="C132" s="139"/>
+      <c r="B132" s="152"/>
+      <c r="C132" s="127"/>
       <c r="R132" s="12">
         <f>SUM($Q$9:Q132)</f>
         <v>273.25710835539172</v>
@@ -20161,8 +20161,8 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A133" s="114"/>
-      <c r="B133" s="128"/>
-      <c r="C133" s="139"/>
+      <c r="B133" s="152"/>
+      <c r="C133" s="127"/>
       <c r="R133" s="12">
         <f>SUM($Q$9:Q133)</f>
         <v>273.25710835539172</v>
@@ -20170,8 +20170,8 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A134" s="114"/>
-      <c r="B134" s="128"/>
-      <c r="C134" s="139"/>
+      <c r="B134" s="152"/>
+      <c r="C134" s="127"/>
       <c r="R134" s="12">
         <f>SUM($Q$9:Q134)</f>
         <v>273.25710835539172</v>
@@ -20181,8 +20181,8 @@
       <c r="A135" s="114">
         <v>23</v>
       </c>
-      <c r="B135" s="128"/>
-      <c r="C135" s="139"/>
+      <c r="B135" s="152"/>
+      <c r="C135" s="127"/>
       <c r="R135" s="12">
         <f>SUM($Q$9:Q135)</f>
         <v>273.25710835539172</v>
@@ -20190,8 +20190,8 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A136" s="114"/>
-      <c r="B136" s="128"/>
-      <c r="C136" s="139"/>
+      <c r="B136" s="152"/>
+      <c r="C136" s="127"/>
       <c r="R136" s="12">
         <f>SUM($Q$9:Q136)</f>
         <v>273.25710835539172</v>
@@ -20199,8 +20199,8 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A137" s="114"/>
-      <c r="B137" s="128"/>
-      <c r="C137" s="139"/>
+      <c r="B137" s="152"/>
+      <c r="C137" s="127"/>
       <c r="R137" s="12">
         <f>SUM($Q$9:Q137)</f>
         <v>273.25710835539172</v>
@@ -20208,8 +20208,8 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A138" s="114"/>
-      <c r="B138" s="128"/>
-      <c r="C138" s="139"/>
+      <c r="B138" s="152"/>
+      <c r="C138" s="127"/>
       <c r="R138" s="12">
         <f>SUM($Q$9:Q138)</f>
         <v>273.25710835539172</v>
@@ -20217,8 +20217,8 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A139" s="114"/>
-      <c r="B139" s="128"/>
-      <c r="C139" s="139"/>
+      <c r="B139" s="152"/>
+      <c r="C139" s="127"/>
       <c r="R139" s="12">
         <f>SUM($Q$9:Q139)</f>
         <v>273.25710835539172</v>
@@ -20226,8 +20226,8 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A140" s="114"/>
-      <c r="B140" s="128"/>
-      <c r="C140" s="139"/>
+      <c r="B140" s="152"/>
+      <c r="C140" s="127"/>
       <c r="R140" s="12">
         <f>SUM($Q$9:Q140)</f>
         <v>273.25710835539172</v>
@@ -20235,8 +20235,8 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A141" s="114"/>
-      <c r="B141" s="129"/>
-      <c r="C141" s="139"/>
+      <c r="B141" s="153"/>
+      <c r="C141" s="127"/>
       <c r="R141" s="24">
         <f>SUM($Q$9:Q141)</f>
         <v>273.25710835539172</v>
@@ -20247,17 +20247,187 @@
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="G129:K129"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="G123:K123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="G124:K124"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="A127:A134"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="G126:K126"/>
+    <mergeCell ref="G127:K127"/>
+    <mergeCell ref="G128:K128"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="G125:K125"/>
+    <mergeCell ref="G101:K101"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="G105:K105"/>
+    <mergeCell ref="G95:K95"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="G87:K87"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="B9:B45"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="F32:F41"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="C9:C17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="C121:C126"/>
+    <mergeCell ref="C127:C141"/>
+    <mergeCell ref="B129:B141"/>
+    <mergeCell ref="B46:B85"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A100:A105"/>
     <mergeCell ref="F81:F85"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
@@ -20282,187 +20452,17 @@
     <mergeCell ref="G20:K20"/>
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="G27:K27"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="C121:C126"/>
-    <mergeCell ref="C127:C141"/>
-    <mergeCell ref="B129:B141"/>
-    <mergeCell ref="B46:B85"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="C9:C17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="F32:F41"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="B9:B45"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="D61:D66"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="G95:K95"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G87:K87"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="G93:K93"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="G97:K97"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="G126:K126"/>
-    <mergeCell ref="G127:K127"/>
-    <mergeCell ref="G128:K128"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="G125:K125"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="G103:K103"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="G105:K105"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="G129:K129"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="G123:K123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="G124:K124"/>
-    <mergeCell ref="G122:K122"/>
-    <mergeCell ref="G114:K114"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="G113:K113"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="G120:K120"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G111:K111"/>
-    <mergeCell ref="G109:K109"/>
-    <mergeCell ref="A127:A134"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
